--- a/tests/regression_data_linux/performance_analysis_zero_deviation_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_zero_deviation_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.017700570114501</v>
+        <v>2.017700569825261</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000000153264</v>
+        <v>2.299999999440308</v>
       </c>
       <c r="D2" t="n">
-        <v>2.717718920551664</v>
+        <v>2.71771891994038</v>
       </c>
       <c r="E2" t="n">
-        <v>92.56953369836707</v>
+        <v>92.56953362780862</v>
       </c>
       <c r="F2" t="n">
-        <v>79.21432924187295</v>
+        <v>79.21432919647589</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1442721370943852</v>
+        <v>0.1442721369325418</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.35860137896734</v>
+        <v>-78.35860133340843</v>
       </c>
       <c r="I2" t="n">
-        <v>135281.2075983177</v>
+        <v>135281.207490361</v>
       </c>
       <c r="J2" t="n">
-        <v>83.14763835176259</v>
+        <v>83.14763828540936</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.83992753274383</v>
+        <v>-24.83992750927239</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6544847755409</v>
+        <v>134.6544847000137</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372006.9480033052</v>
+        <v>372006.9480318322</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7130441830249686</v>
+        <v>0.7130441829447778</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.07285153795689</v>
+        <v>2.072851537872018</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000060313</v>
+        <v>2.399999999765374</v>
       </c>
       <c r="D3" t="n">
-        <v>2.725101775804098</v>
+        <v>2.725101775995872</v>
       </c>
       <c r="E3" t="n">
-        <v>92.5204923974232</v>
+        <v>92.5204923885313</v>
       </c>
       <c r="F3" t="n">
-        <v>78.35440556842032</v>
+        <v>78.35440556227321</v>
       </c>
       <c r="G3" t="n">
-        <v>0.153112964078836</v>
+        <v>0.1531129640638845</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.50751853249915</v>
+        <v>-77.50751852633709</v>
       </c>
       <c r="I3" t="n">
-        <v>140209.3213320706</v>
+        <v>140209.3213309378</v>
       </c>
       <c r="J3" t="n">
-        <v>86.17659577877727</v>
+        <v>86.17659577808104</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.93527213863185</v>
+        <v>-26.93527213672921</v>
       </c>
       <c r="M3" t="n">
-        <v>141.8033039847415</v>
+        <v>141.8033039778179</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370333.3907726003</v>
+        <v>370333.3907766367</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7014098127108671</v>
+        <v>0.7014098127355475</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.92994373370151</v>
+        <v>79.92994369645307</v>
       </c>
       <c r="D2" t="n">
-        <v>79.92994373370151</v>
+        <v>79.92994369645307</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.92994373370151</v>
+        <v>79.92994369645307</v>
       </c>
       <c r="H2" t="n">
-        <v>79.92994373370151</v>
+        <v>79.92994369645307</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4149504414235</v>
+        <v>292.4149504443925</v>
       </c>
       <c r="L2" t="n">
-        <v>132871.7007978184</v>
+        <v>132871.7008025336</v>
       </c>
       <c r="M2" t="n">
-        <v>1.58377902513916</v>
+        <v>1.583779025179249</v>
       </c>
       <c r="N2" t="n">
-        <v>334694.6798772221</v>
+        <v>334694.6798793462</v>
       </c>
       <c r="O2" t="n">
-        <v>418590.0331359531</v>
+        <v>418590.0331389307</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687591.5556210767</v>
+        <v>-687591.5556293306</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7157387245741</v>
+        <v>717.7157387247084</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.650945680649</v>
+        <v>1006.650945680805</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576105505964</v>
+        <v>1.402576105505918</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994984012260859</v>
+        <v>0.9994984012261067</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9448990721189</v>
+        <v>342.9448990738614</v>
       </c>
       <c r="W2" t="n">
-        <v>186270.1576991511</v>
+        <v>186270.157705759</v>
       </c>
       <c r="X2" t="n">
-        <v>5.368546482980497e-06</v>
+        <v>5.368546482790049e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132805.7400720912</v>
+        <v>132805.7400768068</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.529795018326527e-06</v>
+        <v>7.529795018059161e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432727394133151</v>
+        <v>0.003432727394098353</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817446758361264e-05</v>
+        <v>1.81744675837579e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0258290159890006</v>
+        <v>0.02582901598922436</v>
       </c>
       <c r="AD2" t="n">
-        <v>132871.7007978184</v>
+        <v>132871.7008025336</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.58377902513916</v>
+        <v>1.583779025179249</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.58377902513916</v>
+        <v>1.583779025179249</v>
       </c>
       <c r="AG2" t="n">
-        <v>334694.6798772221</v>
+        <v>334694.6798793462</v>
       </c>
       <c r="AH2" t="n">
-        <v>418590.0331359531</v>
+        <v>418590.0331389307</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7157387245741</v>
+        <v>717.7157387247084</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.650945680649</v>
+        <v>1006.650945680805</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9448990721189</v>
+        <v>342.9448990738614</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994984012260859</v>
+        <v>0.9994984012261067</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817446758361264e-05</v>
+        <v>1.81744675837579e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0258290159890006</v>
+        <v>0.02582901598922436</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2330693471457431</v>
+        <v>0.2330693470359453</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2330693471457431</v>
+        <v>0.2330693470359453</v>
       </c>
       <c r="DH2" t="n">
-        <v>182213.3265372948</v>
+        <v>182213.3264555369</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.717718920700533</v>
+        <v>2.717718919502831</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>267.9512936836017</v>
+        <v>267.9512935922673</v>
       </c>
       <c r="DU2" t="n">
-        <v>109.4864221748039</v>
+        <v>109.4864221540709</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.5620967077204</v>
+        <v>244.5620966169329</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.88272377225761</v>
+        <v>65.8827237683717</v>
       </c>
       <c r="DX2" t="n">
-        <v>267.9512936836017</v>
+        <v>267.9512935922673</v>
       </c>
       <c r="DY2" t="n">
-        <v>109.4864221748039</v>
+        <v>109.4864221540709</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.5620967077204</v>
+        <v>244.5620966169329</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.88272377225761</v>
+        <v>65.8827237683717</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.7774761253694</v>
+        <v>259.7774761497252</v>
       </c>
       <c r="EC2" t="n">
-        <v>86160.51929309324</v>
+        <v>86160.51929409966</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.156228926415495</v>
+        <v>1.156228926320228</v>
       </c>
       <c r="EE2" t="n">
-        <v>311366.9191592694</v>
+        <v>311366.9191767385</v>
       </c>
       <c r="EF2" t="n">
-        <v>385885.4831950313</v>
+        <v>385885.4832195106</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.594327643751</v>
+        <v>3788.594327734632</v>
       </c>
       <c r="EH2" t="n">
-        <v>-598305.9893031534</v>
+        <v>-598305.9893945566</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5428706241187</v>
+        <v>716.5428706246789</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.211773250733</v>
+        <v>1005.21177325095</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402863407705361</v>
+        <v>1.402863407704567</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993250048389191</v>
+        <v>0.9993250048392386</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.2167642320015</v>
+        <v>323.216764247165</v>
       </c>
       <c r="EN2" t="n">
-        <v>120790.1683740342</v>
+        <v>120790.1683754154</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.278819488879577e-06</v>
+        <v>8.278819488784916e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>86102.58683103621</v>
+        <v>86102.58683206946</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.161405291994716e-05</v>
+        <v>1.161405291980779e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003862896477226447</v>
+        <v>0.003862896476860745</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.653940697217985e-05</v>
+        <v>1.653940697342512e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02332344292763743</v>
+        <v>0.02332344292953188</v>
       </c>
       <c r="EU2" t="n">
-        <v>86160.51929309324</v>
+        <v>86160.51929409966</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.156228926415495</v>
+        <v>1.156228926320228</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.156228926415495</v>
+        <v>1.156228926320228</v>
       </c>
       <c r="EX2" t="n">
-        <v>311366.9191592694</v>
+        <v>311366.9191767385</v>
       </c>
       <c r="EY2" t="n">
-        <v>385885.4831950313</v>
+        <v>385885.4832195106</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.594327643751</v>
+        <v>3788.594327734632</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5428706241187</v>
+        <v>716.5428706246789</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.211773250733</v>
+        <v>1005.21177325095</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.2167642320015</v>
+        <v>323.216764247165</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993250048389191</v>
+        <v>0.9993250048392386</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.653940697217985e-05</v>
+        <v>1.653940697342512e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02332344292763743</v>
+        <v>0.02332344292953188</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5937313465947</v>
+        <v>295.5937313464954</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135296.3107301602</v>
+        <v>135296.3106873048</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595286006656328</v>
+        <v>1.595286006151321</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3655793602</v>
+        <v>336974.3655793763</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.594327648952</v>
+        <v>3788.594327739833</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698100.3027799081</v>
+        <v>-698100.302806395</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561941266105</v>
+        <v>717.8561941264988</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777192427204</v>
+        <v>1006.7771924265</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477544478269</v>
+        <v>1.402477544477507</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302652409216</v>
+        <v>0.9995302652410675</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027922114343</v>
+        <v>344.8027922113324</v>
       </c>
       <c r="FU2" t="n">
-        <v>189661.9030348002</v>
+        <v>189661.9029746484</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.272540156978782e-06</v>
+        <v>5.272540158650983e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135233.4686437748</v>
+        <v>135233.4686009586</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.394619172522668e-06</v>
+        <v>7.394619174863873e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395620349784243</v>
+        <v>0.003395620349781415</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925761098619e-05</v>
+        <v>1.832925761097519e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729972443252</v>
+        <v>0.02606729972441137</v>
       </c>
       <c r="GB2" t="n">
-        <v>135296.3107301602</v>
+        <v>135296.3106873048</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595286006656328</v>
+        <v>1.595286006151321</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595286006656328</v>
+        <v>1.595286006151321</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3655793602</v>
+        <v>336974.3655793763</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.594327648952</v>
+        <v>3788.594327739833</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561941266105</v>
+        <v>717.8561941264988</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777192427204</v>
+        <v>1006.7771924265</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027922114343</v>
+        <v>344.8027922113324</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302652409216</v>
+        <v>0.9995302652410675</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925761098619e-05</v>
+        <v>1.832925761097519e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729972443252</v>
+        <v>0.02606729972441137</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5937313465947</v>
+        <v>295.5937313464954</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135296.3107301602</v>
+        <v>135296.3106873048</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595286006656328</v>
+        <v>1.595286006151321</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3655793602</v>
+        <v>336974.3655793763</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.594327648952</v>
+        <v>3788.594327739833</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698100.3027799081</v>
+        <v>-698100.302806395</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561941266105</v>
+        <v>717.8561941264988</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777192427204</v>
+        <v>1006.7771924265</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477544478269</v>
+        <v>1.402477544477507</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302652409216</v>
+        <v>0.9995302652410675</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027922114343</v>
+        <v>344.8027922113324</v>
       </c>
       <c r="HB2" t="n">
-        <v>189661.9030348002</v>
+        <v>189661.9029746484</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.272540156978782e-06</v>
+        <v>5.272540158650983e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135233.4686437748</v>
+        <v>135233.4686009586</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.394619172522668e-06</v>
+        <v>7.394619174863873e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395620349784243</v>
+        <v>0.003395620349781415</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925761098619e-05</v>
+        <v>1.832925761097519e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729972443252</v>
+        <v>0.02606729972441137</v>
       </c>
       <c r="HI2" t="n">
-        <v>135296.3107301602</v>
+        <v>135296.3106873048</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595286006656328</v>
+        <v>1.595286006151321</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595286006656328</v>
+        <v>1.595286006151321</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3655793602</v>
+        <v>336974.3655793763</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.594327648952</v>
+        <v>3788.594327739833</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561941266105</v>
+        <v>717.8561941264988</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777192427204</v>
+        <v>1006.7771924265</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027922114343</v>
+        <v>344.8027922113324</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302652409216</v>
+        <v>0.9995302652410675</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925761098619e-05</v>
+        <v>1.832925761097519e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729972443252</v>
+        <v>0.02606729972441137</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8290142199779872</v>
+        <v>0.8290142196565151</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8290142199779872</v>
+        <v>0.8290142196565151</v>
       </c>
       <c r="HY2" t="n">
-        <v>490024.1617977124</v>
+        <v>490024.161553412</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.717718920749</v>
+        <v>2.717718920010427</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01611691534498293</v>
+        <v>0.01611691534231646</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.785867205066515e-07</v>
+        <v>-1.785867206076981e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379684642892114</v>
+        <v>0.01379684642878279</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02511126098067258</v>
+        <v>0.02511126098259795</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05502484416785615</v>
+        <v>0.05502484416697659</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.327855880806084e-11</v>
+        <v>8.843327944929591e-10</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>267.9512936836018</v>
+        <v>267.9512935922673</v>
       </c>
       <c r="IL2" t="n">
-        <v>109.486422174804</v>
+        <v>109.4864221540709</v>
       </c>
       <c r="IM2" t="n">
-        <v>244.5620967077204</v>
+        <v>244.5620966169329</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.88272377225761</v>
+        <v>65.8827237683717</v>
       </c>
       <c r="IO2" t="n">
-        <v>135.1637871175727</v>
+        <v>135.1637870475412</v>
       </c>
       <c r="IP2" t="n">
-        <v>109.486422174804</v>
+        <v>109.4864221540709</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.25889670772042</v>
+        <v>79.25889661693293</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.90135448744956</v>
+        <v>35.90135446142952</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.7774761254693</v>
+        <v>259.7774761498188</v>
       </c>
       <c r="IT2" t="n">
-        <v>86160.5192953658</v>
+        <v>86160.51929421282</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.156228926445566</v>
+        <v>1.156228926321329</v>
       </c>
       <c r="IV2" t="n">
-        <v>311366.9191593354</v>
+        <v>311366.9191768054</v>
       </c>
       <c r="IW2" t="n">
-        <v>385885.4831951247</v>
+        <v>385885.4832196044</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.594327636544</v>
+        <v>3788.594327734616</v>
       </c>
       <c r="IY2" t="n">
-        <v>-598305.989301566</v>
+        <v>-598305.9893948134</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5428706241288</v>
+        <v>716.5428706246815</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.211773250785</v>
+        <v>1005.211773250953</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402863407705414</v>
+        <v>1.402863407704567</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993250048389027</v>
+        <v>0.9993250048392389</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.2167642320643</v>
+        <v>323.2167642472234</v>
       </c>
       <c r="JE2" t="n">
-        <v>120790.1683772227</v>
+        <v>120790.168375574</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.27881948866104e-06</v>
+        <v>8.27881948877404e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>86102.58683330586</v>
+        <v>86102.58683218258</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.161405291964102e-05</v>
+        <v>1.161405291979253e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003862896477225301</v>
+        <v>0.003862896476859356</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.653940697218531e-05</v>
+        <v>1.653940697342992e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02332344292764604</v>
+        <v>0.0233234429295392</v>
       </c>
       <c r="JL2" t="n">
-        <v>86160.5192953658</v>
+        <v>86160.51929421282</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.156228926445566</v>
+        <v>1.156228926321329</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.156228926445566</v>
+        <v>1.156228926321329</v>
       </c>
       <c r="JO2" t="n">
-        <v>311366.9191593354</v>
+        <v>311366.9191768054</v>
       </c>
       <c r="JP2" t="n">
-        <v>385885.4831951247</v>
+        <v>385885.4832196044</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.594327636544</v>
+        <v>3788.594327734616</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5428706241288</v>
+        <v>716.5428706246815</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.211773250785</v>
+        <v>1005.211773250953</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.2167642320643</v>
+        <v>323.2167642472234</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993250048389027</v>
+        <v>0.9993250048392389</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.653940697218531e-05</v>
+        <v>1.653940697342992e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02332344292764604</v>
+        <v>0.0233234429295392</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5937313465947</v>
+        <v>295.5937313463954</v>
       </c>
       <c r="KA2" t="n">
-        <v>135296.3107301606</v>
+        <v>135296.3106871524</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595286006656333</v>
+        <v>1.595286006150065</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.36557936</v>
+        <v>336974.3655793048</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310882887</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.594327648951</v>
+        <v>3788.594327739816</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698100.3027799075</v>
+        <v>-698100.302806112</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561941266104</v>
+        <v>717.8561941264941</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777192427204</v>
+        <v>1006.777192426495</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477544478269</v>
+        <v>1.402477544477508</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302652409216</v>
+        <v>0.9995302652410667</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027922114343</v>
+        <v>344.802792211274</v>
       </c>
       <c r="KL2" t="n">
-        <v>189661.9030348008</v>
+        <v>189661.9029744348</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272540156978766e-06</v>
+        <v>5.272540158656921e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135233.4686437752</v>
+        <v>135233.4686008061</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.394619172522647e-06</v>
+        <v>7.394619174872211e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395620349784244</v>
+        <v>0.003395620349782563</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925761098619e-05</v>
+        <v>1.832925761097032e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729972443252</v>
+        <v>0.02606729972440386</v>
       </c>
       <c r="KS2" t="n">
-        <v>135296.3107301606</v>
+        <v>135296.3106871524</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595286006656333</v>
+        <v>1.595286006150065</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595286006656333</v>
+        <v>1.595286006150065</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.36557936</v>
+        <v>336974.3655793048</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310882887</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.594327648951</v>
+        <v>3788.594327739816</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561941266104</v>
+        <v>717.8561941264941</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777192427204</v>
+        <v>1006.777192426495</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027922114343</v>
+        <v>344.802792211274</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302652409216</v>
+        <v>0.9995302652410667</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925761098619e-05</v>
+        <v>1.832925761097032e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729972443252</v>
+        <v>0.02606729972440386</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.8953286472536</v>
+        <v>268.8953286621449</v>
       </c>
       <c r="LH2" t="n">
-        <v>97192.07028388992</v>
+        <v>97192.07026978057</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.25998635362986</v>
+        <v>1.259986353376806</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317882.7087187975</v>
+        <v>317882.7087295171</v>
       </c>
       <c r="LK2" t="n">
-        <v>395020.1078691073</v>
+        <v>395020.107884121</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.594327637136</v>
+        <v>3788.594327734616</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623715.2089720011</v>
+        <v>-623715.2090396165</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8095260455037</v>
+        <v>716.8095260458688</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.541905458399</v>
+        <v>1005.541905458297</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802095845146</v>
+        <v>1.40280209584429</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993681492994175</v>
+        <v>0.9993681492997059</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8471955564229</v>
+        <v>328.847195565523</v>
       </c>
       <c r="LS2" t="n">
-        <v>136255.5265869183</v>
+        <v>136255.5265670941</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.339151849830424e-06</v>
+        <v>7.33915185089822e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97130.96878774511</v>
+        <v>97130.96877367252</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.02953775966679e-05</v>
+        <v>1.029537759815952e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732159335949981</v>
+        <v>0.003732159335739205</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700397342615631e-05</v>
+        <v>1.70039734269049e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02403259065051749</v>
+        <v>0.02403259065165788</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97192.07028388992</v>
+        <v>97192.07026978057</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.25998635362986</v>
+        <v>1.259986353376806</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.25998635362986</v>
+        <v>1.259986353376806</v>
       </c>
       <c r="MC2" t="n">
-        <v>317882.7087187975</v>
+        <v>317882.7087295171</v>
       </c>
       <c r="MD2" t="n">
-        <v>395020.1078691073</v>
+        <v>395020.107884121</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.594327637136</v>
+        <v>3788.594327734616</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8095260455037</v>
+        <v>716.8095260458688</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.541905458399</v>
+        <v>1005.541905458297</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8471955564229</v>
+        <v>328.847195565523</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993681492994175</v>
+        <v>0.9993681492997059</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700397342615631e-05</v>
+        <v>1.70039734269049e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02403259065051749</v>
+        <v>0.02403259065165788</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8290142199778261</v>
+        <v>0.8290142196563656</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4181830959130798</v>
+        <v>0.4181830956767967</v>
       </c>
       <c r="MP2" t="n">
-        <v>246240.0324257368</v>
+        <v>246240.0322531658</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.717718920819682</v>
+        <v>2.717718920013017</v>
       </c>
       <c r="MR2" t="n">
-        <v>381357.5339038933</v>
+        <v>381357.5339189009</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>134.6544847755409</v>
+        <v>134.6544847000137</v>
       </c>
       <c r="MU2" t="n">
-        <v>122.1969191730918</v>
+        <v>122.1969191277246</v>
       </c>
       <c r="MV2" t="n">
-        <v>-56.56627276718214</v>
+        <v>-56.56627268539586</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.83992753274383</v>
+        <v>-24.83992750927239</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.2945913385884</v>
+        <v>253.2945912450625</v>
       </c>
       <c r="MY2" t="n">
-        <v>122.1969191730918</v>
+        <v>122.1969191277246</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.8694727671821</v>
+        <v>-221.8694726853959</v>
       </c>
       <c r="NA2" t="n">
-        <v>-61.15576777799676</v>
+        <v>-61.15576777806068</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8577784154863</v>
+        <v>236.8577784541769</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.99999500246</v>
+        <v>60000.0000136013</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8831280873229076</v>
+        <v>0.8831280874521424</v>
       </c>
       <c r="NE2" t="n">
-        <v>295000.7183700199</v>
+        <v>295000.7183976992</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.0328683221</v>
+        <v>362941.0329071193</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.929754834197</v>
+        <v>3799.929754909082</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537101.8869966092</v>
+        <v>-537101.8871225705</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325578008195</v>
+        <v>716.0325578014053</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930872654</v>
+        <v>1004.487930873124</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852314366513</v>
+        <v>1.402852314366023</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718914416792</v>
+        <v>0.9992718914419724</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6113425299584</v>
+        <v>308.6113425552008</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96749147263</v>
+        <v>84109.96751754038</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919731899056e-05</v>
+        <v>1.188919731530581e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39500331452</v>
+        <v>59956.39502191748</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878797490606e-05</v>
+        <v>1.667878796973105e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235352711954085</v>
+        <v>0.00423535271126015</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.53421601738384e-05</v>
+        <v>1.534216017589274e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150521903462214</v>
+        <v>0.02150521903772673</v>
       </c>
       <c r="NU2" t="n">
-        <v>59999.99999500246</v>
+        <v>60000.0000136013</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8831280873229076</v>
+        <v>0.8831280874521424</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8831280873229076</v>
+        <v>0.8831280874521424</v>
       </c>
       <c r="NX2" t="n">
-        <v>295000.7183700199</v>
+        <v>295000.7183976992</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.0328683221</v>
+        <v>362941.0329071193</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.929754834197</v>
+        <v>3799.929754909082</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325578008195</v>
+        <v>716.0325578014053</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930872654</v>
+        <v>1004.487930873124</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6113425299584</v>
+        <v>308.6113425552008</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718914416792</v>
+        <v>0.9992718914419724</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.53421601738384e-05</v>
+        <v>1.534216017589274e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150521903462214</v>
+        <v>0.02150521903772673</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>245.9111911180657</v>
+        <v>245.9111911464915</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68394.68751791562</v>
+        <v>68394.6875277201</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9695995977109586</v>
+        <v>0.9695995977376053</v>
       </c>
       <c r="OL2" t="n">
-        <v>301467.8433260936</v>
+        <v>301467.8433464472</v>
       </c>
       <c r="OM2" t="n">
-        <v>372006.9480033052</v>
+        <v>372006.9480318322</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.929754842773</v>
+        <v>3799.929754917659</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562438.3041750601</v>
+        <v>-562438.3042729646</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2025895024053</v>
+        <v>716.2025895029177</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.717083342702</v>
+        <v>1004.717083343019</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839221847477</v>
+        <v>1.402839221846916</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992989235421673</v>
+        <v>0.9992989235424427</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.4611573891767</v>
+        <v>314.4611574073755</v>
       </c>
       <c r="OU2" t="n">
-        <v>95879.6508128602</v>
+        <v>95879.65082659284</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.042974178068107e-05</v>
+        <v>1.042974177918724e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68346.85637502419</v>
+        <v>68346.85638484068</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.463125084368075e-05</v>
+        <v>1.463125084157931e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004079731787132951</v>
+        <v>0.004079731786658852</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582000283767594e-05</v>
+        <v>1.582000283916273e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02222905145425749</v>
+        <v>0.02222905145651048</v>
       </c>
       <c r="PB2" t="n">
-        <v>68394.68751791562</v>
+        <v>68394.6875277201</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9695995977109586</v>
+        <v>0.9695995977376053</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9695995977109586</v>
+        <v>0.9695995977376053</v>
       </c>
       <c r="PE2" t="n">
-        <v>301467.8433260936</v>
+        <v>301467.8433464472</v>
       </c>
       <c r="PF2" t="n">
-        <v>372006.9480033052</v>
+        <v>372006.9480318322</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.929754842773</v>
+        <v>3799.929754917659</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2025895024053</v>
+        <v>716.2025895029177</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.717083342702</v>
+        <v>1004.717083343019</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.4611573891767</v>
+        <v>314.4611574073755</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992989235421673</v>
+        <v>0.9992989235424427</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582000283767594e-05</v>
+        <v>1.582000283916273e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02222905145425749</v>
+        <v>0.02222905145651048</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.8847462660665</v>
+        <v>268.8847462807748</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93426.51010255184</v>
+        <v>93426.5100983304</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.211188388295431</v>
+        <v>1.211188388174191</v>
       </c>
       <c r="PS2" t="n">
-        <v>317883.8745585916</v>
+        <v>317883.874569156</v>
       </c>
       <c r="PT2" t="n">
-        <v>395020.1078691139</v>
+        <v>395020.1078839143</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.929754834196</v>
+        <v>3799.929754902201</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626723.0400883551</v>
+        <v>-626723.0401477307</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7971468089901</v>
+        <v>716.7971468093835</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.464364791828</v>
+        <v>1005.464364791937</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718145946751</v>
+        <v>1.402718145946134</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993923761492818</v>
+        <v>0.9993923761494962</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8388167136986</v>
+        <v>328.8388167226906</v>
       </c>
       <c r="QB2" t="n">
-        <v>130971.8168565337</v>
+        <v>130971.8168505862</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.635230418276922e-06</v>
+        <v>7.635230418623643e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93370.01680272378</v>
+        <v>93370.01679852487</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.071007625620164e-05</v>
+        <v>1.071007625668328e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003731795025131409</v>
+        <v>0.00373179502492464</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.700286758254522e-05</v>
+        <v>1.700286758328611e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02403044236724211</v>
+        <v>0.02403044236837202</v>
       </c>
       <c r="QI2" t="n">
-        <v>93426.51010255184</v>
+        <v>93426.5100983304</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.211188388295431</v>
+        <v>1.211188388174191</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.211188388295431</v>
+        <v>1.211188388174191</v>
       </c>
       <c r="QL2" t="n">
-        <v>317883.8745585916</v>
+        <v>317883.874569156</v>
       </c>
       <c r="QM2" t="n">
-        <v>395020.1078691139</v>
+        <v>395020.1078839143</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.929754834196</v>
+        <v>3799.929754902201</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7971468089901</v>
+        <v>716.7971468093835</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.464364791828</v>
+        <v>1005.464364791937</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8388167136986</v>
+        <v>328.8388167226906</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993923761492818</v>
+        <v>0.9993923761494962</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.700286758254522e-05</v>
+        <v>1.700286758328611e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02403044236724211</v>
+        <v>0.02403044236837202</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.436323835902011</v>
+        <v>0.4363238356215902</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8207559361302472</v>
+        <v>0.8207559357600607</v>
       </c>
       <c r="QY2" t="n">
-        <v>379959.6794360974</v>
+        <v>379959.679300527</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.717718920551664</v>
+        <v>2.71771891994038</v>
       </c>
       <c r="RA2" t="n">
-        <v>381357.5339038933</v>
+        <v>381357.5339189009</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02417559754856948</v>
+        <v>0.02417559753441028</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.00202049333201719</v>
+        <v>0.002020493316138794</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.0119051276087176</v>
+        <v>0.01190512760989111</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03192297883684157</v>
+        <v>0.03192297882672594</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04262771182959522</v>
+        <v>0.04262771181259534</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1126519091557411</v>
+        <v>0.1126519090997615</v>
       </c>
       <c r="RH2" t="n">
-        <v>3.915950896882237e-11</v>
+        <v>-1.237638880269287e-10</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.1596073483009</v>
+        <v>80.15960734125728</v>
       </c>
       <c r="D3" t="n">
-        <v>80.1596073483009</v>
+        <v>80.15960734125728</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.1596073483009</v>
+        <v>80.15960734125728</v>
       </c>
       <c r="H3" t="n">
-        <v>80.1596073483009</v>
+        <v>80.15960734125728</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3966194752539</v>
+        <v>292.3966194758168</v>
       </c>
       <c r="L3" t="n">
-        <v>132842.5878734461</v>
+        <v>132842.5878743402</v>
       </c>
       <c r="M3" t="n">
-        <v>1.583531482075147</v>
+        <v>1.583531482082749</v>
       </c>
       <c r="N3" t="n">
-        <v>334681.5665051584</v>
+        <v>334681.5665055612</v>
       </c>
       <c r="O3" t="n">
-        <v>418571.6497634728</v>
+        <v>418571.6497640376</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687540.5944636335</v>
+        <v>-687540.5944651985</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7149084339412</v>
+        <v>717.7149084339668</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.649982352578</v>
+        <v>1006.649982352608</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402576385864821</v>
+        <v>1.402576385864813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.999498273123384</v>
+        <v>0.9994982731233879</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9341396415045</v>
+        <v>342.934139641835</v>
       </c>
       <c r="W3" t="n">
-        <v>186229.3579249108</v>
+        <v>186229.3579261637</v>
       </c>
       <c r="X3" t="n">
-        <v>5.369722642781211e-06</v>
+        <v>5.369722642745083e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132776.6243619471</v>
+        <v>132776.6243628413</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.531446177408568e-06</v>
+        <v>7.53144617735785e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432942251625092</v>
+        <v>0.003432942251618493</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817357072402556e-05</v>
+        <v>1.81735707240531e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582763452448538</v>
+        <v>0.0258276345245278</v>
       </c>
       <c r="AD3" t="n">
-        <v>132842.5878734461</v>
+        <v>132842.5878743402</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.583531482075147</v>
+        <v>1.583531482082749</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583531482075147</v>
+        <v>1.583531482082749</v>
       </c>
       <c r="AG3" t="n">
-        <v>334681.5665051584</v>
+        <v>334681.5665055612</v>
       </c>
       <c r="AH3" t="n">
-        <v>418571.6497634728</v>
+        <v>418571.6497640376</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7149084339412</v>
+        <v>717.7149084339668</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.649982352578</v>
+        <v>1006.649982352608</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9341396415045</v>
+        <v>342.934139641835</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.999498273123384</v>
+        <v>0.9994982731233879</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817357072402556e-05</v>
+        <v>1.81735707240531e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582763452448538</v>
+        <v>0.0258276345245278</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2337463614211694</v>
+        <v>0.2337463614004049</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2337463614211694</v>
+        <v>0.2337463614004049</v>
       </c>
       <c r="DH3" t="n">
-        <v>182717.3371603655</v>
+        <v>182717.3371449105</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.725101776082054</v>
+        <v>2.725101775855682</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.6420302720517</v>
+        <v>270.6420302539975</v>
       </c>
       <c r="DU3" t="n">
-        <v>110.5858724444194</v>
+        <v>110.5858724370423</v>
       </c>
       <c r="DV3" t="n">
-        <v>247.0179616252324</v>
+        <v>247.0179616087541</v>
       </c>
       <c r="DW3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.6420302720517</v>
+        <v>270.6420302539975</v>
       </c>
       <c r="DY3" t="n">
-        <v>110.5858724444194</v>
+        <v>110.5858724370423</v>
       </c>
       <c r="DZ3" t="n">
-        <v>247.0179616252324</v>
+        <v>247.0179616087541</v>
       </c>
       <c r="EA3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.0540156401894</v>
+        <v>259.0540156451567</v>
       </c>
       <c r="EC3" t="n">
-        <v>85297.17933192469</v>
+        <v>85297.17933839087</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.147843381926129</v>
+        <v>1.147843381991116</v>
       </c>
       <c r="EE3" t="n">
-        <v>310850.0599590461</v>
+        <v>310850.0599625934</v>
       </c>
       <c r="EF3" t="n">
-        <v>385160.8768135132</v>
+        <v>385160.8768184865</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.689924016147</v>
+        <v>3788.689924013599</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596314.4620183937</v>
+        <v>-596314.4620315799</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5233972855436</v>
+        <v>716.5233972856786</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.186749690806</v>
+        <v>1005.18674969099</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.40286661049566</v>
+        <v>1.402866610495652</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.999322064380169</v>
+        <v>0.9993220643801846</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.7657950562486</v>
+        <v>322.7657950593472</v>
       </c>
       <c r="EN3" t="n">
-        <v>119579.7505902495</v>
+        <v>119579.7505993158</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.3626198839182e-06</v>
+        <v>8.362619883284164e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>85239.5728115588</v>
+        <v>85239.57281802196</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.173164021141594e-05</v>
+        <v>1.173164021052641e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003873658636398841</v>
+        <v>0.00387365863632483</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.650226777968852e-05</v>
+        <v>1.650226777994375e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02326683852567591</v>
+        <v>0.02326683852606493</v>
       </c>
       <c r="EU3" t="n">
-        <v>85297.17933192469</v>
+        <v>85297.17933839087</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.147843381926129</v>
+        <v>1.147843381991116</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.147843381926129</v>
+        <v>1.147843381991116</v>
       </c>
       <c r="EX3" t="n">
-        <v>310850.0599590461</v>
+        <v>310850.0599625934</v>
       </c>
       <c r="EY3" t="n">
-        <v>385160.8768135132</v>
+        <v>385160.8768184865</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.689924016147</v>
+        <v>3788.689924013599</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5233972855436</v>
+        <v>716.5233972856786</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.186749690806</v>
+        <v>1005.18674969099</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.7657950562486</v>
+        <v>322.7657950593472</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.999322064380169</v>
+        <v>0.9993220643801846</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.650226777968852e-05</v>
+        <v>1.650226777994375e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02326683852567591</v>
+        <v>0.02326683852606493</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5936268383316</v>
+        <v>295.5936268383264</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135251.2391515143</v>
+        <v>135251.2391492933</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594754884326398</v>
+        <v>1.594754884300225</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.3825470908</v>
+        <v>336974.3825470915</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.689924014089</v>
+        <v>3788.6899240188</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698128.164516578</v>
+        <v>-698128.164517951</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8560767284949</v>
+        <v>717.8560767284891</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.77645240008</v>
+        <v>1006.776452400043</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476742954227</v>
+        <v>1.402476742954188</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995304186575475</v>
+        <v>0.9995304186575551</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8026850520784</v>
+        <v>344.8026850520731</v>
       </c>
       <c r="FU3" t="n">
-        <v>189598.6406017478</v>
+        <v>189598.6405986303</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.274299419163566e-06</v>
+        <v>5.274299419250289e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135188.438278392</v>
+        <v>135188.438276173</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.39708227075389e-06</v>
+        <v>7.397082270875309e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0033956173762405</v>
+        <v>0.003395617376240353</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924604019582e-05</v>
+        <v>1.832924604019524e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606727748019899</v>
+        <v>0.02606727748019789</v>
       </c>
       <c r="GB3" t="n">
-        <v>135251.2391515143</v>
+        <v>135251.2391492933</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594754884326398</v>
+        <v>1.594754884300225</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594754884326398</v>
+        <v>1.594754884300225</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.3825470908</v>
+        <v>336974.3825470915</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.689924014089</v>
+        <v>3788.6899240188</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8560767284949</v>
+        <v>717.8560767284891</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.77645240008</v>
+        <v>1006.776452400043</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8026850520784</v>
+        <v>344.8026850520731</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995304186575475</v>
+        <v>0.9995304186575551</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924604019582e-05</v>
+        <v>1.832924604019524e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606727748019899</v>
+        <v>0.02606727748019789</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5936268383316</v>
+        <v>295.5936268383264</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135251.2391515143</v>
+        <v>135251.2391492933</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594754884326398</v>
+        <v>1.594754884300225</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.3825470908</v>
+        <v>336974.3825470915</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.689924014089</v>
+        <v>3788.6899240188</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698128.164516578</v>
+        <v>-698128.164517951</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8560767284949</v>
+        <v>717.8560767284891</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.77645240008</v>
+        <v>1006.776452400043</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476742954227</v>
+        <v>1.402476742954188</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995304186575475</v>
+        <v>0.9995304186575551</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8026850520784</v>
+        <v>344.8026850520731</v>
       </c>
       <c r="HB3" t="n">
-        <v>189598.6406017478</v>
+        <v>189598.6405986303</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.274299419163566e-06</v>
+        <v>5.274299419250289e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135188.438278392</v>
+        <v>135188.438276173</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.39708227075389e-06</v>
+        <v>7.397082270875309e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.0033956173762405</v>
+        <v>0.003395617376240353</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924604019582e-05</v>
+        <v>1.832924604019524e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606727748019899</v>
+        <v>0.02606727748019789</v>
       </c>
       <c r="HI3" t="n">
-        <v>135251.2391515143</v>
+        <v>135251.2391492933</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594754884326398</v>
+        <v>1.594754884300225</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594754884326398</v>
+        <v>1.594754884300225</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.3825470908</v>
+        <v>336974.3825470915</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.689924014089</v>
+        <v>3788.6899240188</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8560767284949</v>
+        <v>717.8560767284891</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.77645240008</v>
+        <v>1006.776452400043</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8026850520784</v>
+        <v>344.8026850520731</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995304186575475</v>
+        <v>0.9995304186575551</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924604019582e-05</v>
+        <v>1.832924604019524e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606727748019899</v>
+        <v>0.02606727748019789</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8385090192871484</v>
+        <v>0.8385090192231626</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8385090192871484</v>
+        <v>0.8385090192231626</v>
       </c>
       <c r="HY3" t="n">
-        <v>492461.1635755353</v>
+        <v>492461.1635629493</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.72510177593257</v>
+        <v>2.72510177590507</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01611910595783572</v>
+        <v>0.01611910595796726</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.796499141361456e-07</v>
+        <v>-1.796499141563356e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379690142699928</v>
+        <v>0.0137969014269976</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.0251099470736868</v>
+        <v>0.02510994707372703</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05502577480860767</v>
+        <v>0.05502577480877772</v>
       </c>
       <c r="IH3" t="n">
-        <v>-4.430060485116627e-12</v>
+        <v>-8.563982856202301e-13</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.6420302720517</v>
+        <v>270.6420302539975</v>
       </c>
       <c r="IL3" t="n">
-        <v>110.5858724444194</v>
+        <v>110.5858724370423</v>
       </c>
       <c r="IM3" t="n">
-        <v>247.0179616252324</v>
+        <v>247.0179616087541</v>
       </c>
       <c r="IN3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5010452751612</v>
+        <v>137.5010452594354</v>
       </c>
       <c r="IP3" t="n">
-        <v>110.5858724444194</v>
+        <v>110.5858724370423</v>
       </c>
       <c r="IQ3" t="n">
-        <v>81.71476162523237</v>
+        <v>81.71476160875409</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.46165375412131</v>
+        <v>36.4616537504258</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.0540156403825</v>
+        <v>259.0540156453564</v>
       </c>
       <c r="IT3" t="n">
-        <v>85297.1793341444</v>
+        <v>85297.17933853882</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.14784338195516</v>
+        <v>1.14784338199222</v>
       </c>
       <c r="IV3" t="n">
-        <v>310850.0599591793</v>
+        <v>310850.0599627363</v>
       </c>
       <c r="IW3" t="n">
-        <v>385160.8768137006</v>
+        <v>385160.876818687</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.689924009406</v>
+        <v>3788.689924013876</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596314.4620171919</v>
+        <v>-596314.4620322079</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5233972855558</v>
+        <v>716.5233972856836</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.186749690857</v>
+        <v>1005.186749690994</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402866610495708</v>
+        <v>1.402866610495649</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.999322064380154</v>
+        <v>0.9993220643801861</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.7657950563697</v>
+        <v>322.7657950594718</v>
       </c>
       <c r="JE3" t="n">
-        <v>119579.7505933637</v>
+        <v>119579.7505995232</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.362619883700418e-06</v>
+        <v>8.362619883269664e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>85239.57281377573</v>
+        <v>85239.57281816995</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.173164021111082e-05</v>
+        <v>1.173164021050604e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003873658636396274</v>
+        <v>0.003873658636321836</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650226777969875e-05</v>
+        <v>1.650226777995399e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02326683852569176</v>
+        <v>0.02326683852608053</v>
       </c>
       <c r="JL3" t="n">
-        <v>85297.1793341444</v>
+        <v>85297.17933853882</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.14784338195516</v>
+        <v>1.14784338199222</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.14784338195516</v>
+        <v>1.14784338199222</v>
       </c>
       <c r="JO3" t="n">
-        <v>310850.0599591793</v>
+        <v>310850.0599627363</v>
       </c>
       <c r="JP3" t="n">
-        <v>385160.8768137006</v>
+        <v>385160.876818687</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.689924009406</v>
+        <v>3788.689924013876</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5233972855558</v>
+        <v>716.5233972856836</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.186749690857</v>
+        <v>1005.186749690994</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.7657950563697</v>
+        <v>322.7657950594718</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.999322064380154</v>
+        <v>0.9993220643801861</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650226777969875e-05</v>
+        <v>1.650226777995399e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02326683852569176</v>
+        <v>0.02326683852608053</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5936268384231</v>
+        <v>295.593626838426</v>
       </c>
       <c r="KA3" t="n">
-        <v>135251.239148008</v>
+        <v>135251.2391493226</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.59475488428454</v>
+        <v>1.594754884300032</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3825471636</v>
+        <v>336974.382547163</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.689924021866</v>
+        <v>3788.689924019078</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698128.164519123</v>
+        <v>-698128.1645183098</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8560767284899</v>
+        <v>717.8560767284935</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776452400025</v>
+        <v>1006.776452400046</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476742954161</v>
+        <v>1.402476742954184</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995304186575608</v>
+        <v>0.9995304186575563</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8026850521281</v>
+        <v>344.8026850521311</v>
       </c>
       <c r="KL3" t="n">
-        <v>189598.640596826</v>
+        <v>189598.6405986711</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.274299419300482e-06</v>
+        <v>5.274299419249153e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135188.438274889</v>
+        <v>135188.4382762024</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.397082270945563e-06</v>
+        <v>7.3970822708737e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395617376239111</v>
+        <v>0.0033956173762392</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924604019974e-05</v>
+        <v>1.832924604020007e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606727748020468</v>
+        <v>0.02606727748020532</v>
       </c>
       <c r="KS3" t="n">
-        <v>135251.239148008</v>
+        <v>135251.2391493226</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.59475488428454</v>
+        <v>1.594754884300032</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.59475488428454</v>
+        <v>1.594754884300032</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3825471636</v>
+        <v>336974.382547163</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.689924021866</v>
+        <v>3788.689924019078</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8560767284899</v>
+        <v>717.8560767284935</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776452400025</v>
+        <v>1006.776452400046</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8026850521281</v>
+        <v>344.8026850521311</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995304186575608</v>
+        <v>0.9995304186575563</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924604019974e-05</v>
+        <v>1.832924604020007e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606727748020468</v>
+        <v>0.02606727748020532</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.490073019707</v>
+        <v>268.4900730223282</v>
       </c>
       <c r="LH3" t="n">
-        <v>96649.30963623631</v>
+        <v>96649.30964046773</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.254843564285216</v>
+        <v>1.254843564327895</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317593.1427731614</v>
+        <v>317593.1427750323</v>
       </c>
       <c r="LK3" t="n">
-        <v>394614.1455395815</v>
+        <v>394614.145542205</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.689924023303</v>
+        <v>3788.689924020514</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622611.4888104631</v>
+        <v>-622611.4888170218</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.7966594972153</v>
+        <v>716.7966594973004</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.525647585219</v>
+        <v>1005.525647585339</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402804594946812</v>
+        <v>1.402804594946813</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993663118494348</v>
+        <v>0.9993663118494419</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.5989810042939</v>
+        <v>328.5989810059003</v>
       </c>
       <c r="LS3" t="n">
-        <v>135494.6078433195</v>
+        <v>135494.6078492527</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.380367498877589e-06</v>
+        <v>7.380367498554411e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96588.3689940842</v>
+        <v>96588.36899831366</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.03532134398216e-05</v>
+        <v>1.035321343936824e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003737777586209357</v>
+        <v>0.003737777586173063</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698345421589869e-05</v>
+        <v>1.698345421603155e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02400121973026459</v>
+        <v>0.02400121973046779</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96649.30963623631</v>
+        <v>96649.30964046773</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.254843564285216</v>
+        <v>1.254843564327895</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.254843564285216</v>
+        <v>1.254843564327895</v>
       </c>
       <c r="MC3" t="n">
-        <v>317593.1427731614</v>
+        <v>317593.1427750323</v>
       </c>
       <c r="MD3" t="n">
-        <v>394614.1455395815</v>
+        <v>394614.145542205</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.689924023303</v>
+        <v>3788.689924020514</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.7966594972153</v>
+        <v>716.7966594973004</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.525647585219</v>
+        <v>1005.525647585339</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.5989810042939</v>
+        <v>328.5989810059003</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993663118494348</v>
+        <v>0.9993663118494419</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698345421589869e-05</v>
+        <v>1.698345421603155e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02400121973026459</v>
+        <v>0.02400121973046779</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8385090192868339</v>
+        <v>0.8385090192228388</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4260087263929167</v>
+        <v>0.4260087263401002</v>
       </c>
       <c r="MP3" t="n">
-        <v>249240.9601155569</v>
+        <v>249240.9600912438</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.725101776001494</v>
+        <v>2.725101775907691</v>
       </c>
       <c r="MR3" t="n">
-        <v>380951.5715744615</v>
+        <v>380951.5715771854</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>141.8033039847415</v>
+        <v>141.8033039778179</v>
       </c>
       <c r="MU3" t="n">
-        <v>126.4203163765391</v>
+        <v>126.4203163724996</v>
       </c>
       <c r="MV3" t="n">
-        <v>-64.2345750219053</v>
+        <v>-64.23457501457096</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.93527213863185</v>
+        <v>-26.93527213672921</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.0490155576835</v>
+        <v>262.0490155493104</v>
       </c>
       <c r="MY3" t="n">
-        <v>126.4203163765391</v>
+        <v>126.4203163724996</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.5377750219053</v>
+        <v>-229.537775014571</v>
       </c>
       <c r="NA3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1988069689498</v>
+        <v>234.1988069737721</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.9999975973</v>
+        <v>57500.00000466355</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559438385454573</v>
+        <v>0.8559438386330426</v>
       </c>
       <c r="NE3" t="n">
-        <v>293101.9976211568</v>
+        <v>293101.9976245929</v>
       </c>
       <c r="NF3" t="n">
-        <v>360279.302262206</v>
+        <v>360279.3022670238</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.836303709862</v>
+        <v>3800.836303695184</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529872.0255509167</v>
+        <v>-529872.0255609897</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9877717801554</v>
+        <v>715.9877717802467</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421533913566</v>
+        <v>1004.421533913759</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847329942911</v>
+        <v>1.402847329943002</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992672778162056</v>
+        <v>0.9992672778161804</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8722353308659</v>
+        <v>306.8722353340274</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.71815119986</v>
+        <v>80604.71816110867</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622165720102e-05</v>
+        <v>1.240622165567591e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.94031235035</v>
+        <v>57457.94031941</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403492648437e-05</v>
+        <v>1.7404034924346e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283298254398916</v>
+        <v>0.004283298254311586</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.520047292758995e-05</v>
+        <v>1.520047292784788e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02129098961105802</v>
+        <v>0.02129098961144826</v>
       </c>
       <c r="NU3" t="n">
-        <v>57499.9999975973</v>
+        <v>57500.00000466355</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559438385454573</v>
+        <v>0.8559438386330426</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559438385454573</v>
+        <v>0.8559438386330426</v>
       </c>
       <c r="NX3" t="n">
-        <v>293101.9976211568</v>
+        <v>293101.9976245929</v>
       </c>
       <c r="NY3" t="n">
-        <v>360279.302262206</v>
+        <v>360279.3022670238</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.836303709862</v>
+        <v>3800.836303695184</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9877717801554</v>
+        <v>715.9877717802467</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421533913566</v>
+        <v>1004.421533913759</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8722353308659</v>
+        <v>306.8722353340274</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992672778162056</v>
+        <v>0.9992672778161804</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.520047292758995e-05</v>
+        <v>1.520047292784788e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02129098961105802</v>
+        <v>0.02129098961144826</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.2393361219485</v>
+        <v>244.2393361259755</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66574.9560307254</v>
+        <v>66574.95603345129</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9502656064637588</v>
+        <v>0.9502656064869762</v>
       </c>
       <c r="OL3" t="n">
-        <v>300274.0772734281</v>
+        <v>300274.0772763078</v>
       </c>
       <c r="OM3" t="n">
-        <v>370333.3907726003</v>
+        <v>370333.3907766367</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.836303708809</v>
+        <v>3800.83630371359</v>
       </c>
       <c r="OO3" t="n">
-        <v>-557980.3447534399</v>
+        <v>-557980.344765877</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1678171833572</v>
+        <v>716.1678171834329</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.666760708676</v>
+        <v>1004.666760708754</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837067797834</v>
+        <v>1.402837067797794</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992957411827018</v>
+        <v>0.9992957411827262</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.3891326987762</v>
+        <v>313.3891327013631</v>
       </c>
       <c r="OU3" t="n">
-        <v>93328.19700983007</v>
+        <v>93328.19701365104</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.071487537570957e-05</v>
+        <v>1.071487537527089e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66528.18003756928</v>
+        <v>66528.18004029489</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.503122435387963e-05</v>
+        <v>1.503122435326381e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004107560720071735</v>
+        <v>0.004107560720003924</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573224277672051e-05</v>
+        <v>1.573224277693191e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02209591450336832</v>
+        <v>0.0220959145036887</v>
       </c>
       <c r="PB3" t="n">
-        <v>66574.9560307254</v>
+        <v>66574.95603345129</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9502656064637588</v>
+        <v>0.9502656064869762</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9502656064637588</v>
+        <v>0.9502656064869762</v>
       </c>
       <c r="PE3" t="n">
-        <v>300274.0772734281</v>
+        <v>300274.0772763078</v>
       </c>
       <c r="PF3" t="n">
-        <v>370333.3907726003</v>
+        <v>370333.3907766367</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.836303708809</v>
+        <v>3800.83630371359</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1678171833572</v>
+        <v>716.1678171834329</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.666760708676</v>
+        <v>1004.666760708754</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.3891326987762</v>
+        <v>313.3891327013631</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992957411827018</v>
+        <v>0.9992957411827262</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573224277672051e-05</v>
+        <v>1.573224277693191e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02209591450336832</v>
+        <v>0.0220959145036887</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.4787790984581</v>
+        <v>268.4787791009719</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92642.51381899296</v>
+        <v>92642.51381825449</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.202840746798325</v>
+        <v>1.20284074677743</v>
       </c>
       <c r="PS3" t="n">
-        <v>317594.3787371416</v>
+        <v>317594.3787389471</v>
       </c>
       <c r="PT3" t="n">
-        <v>394614.1455396757</v>
+        <v>394614.1455422053</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.836303693205</v>
+        <v>3800.836303704913</v>
       </c>
       <c r="PV3" t="n">
-        <v>-625829.7448289723</v>
+        <v>-625829.7448391407</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7834355938987</v>
+        <v>716.7834355939655</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.442838086007</v>
+        <v>1005.442838086024</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714945906829</v>
+        <v>1.402714945906723</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993923139308762</v>
+        <v>0.999392313930913</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.5900771555253</v>
+        <v>328.5900771570633</v>
       </c>
       <c r="QB3" t="n">
-        <v>129872.4460851849</v>
+        <v>129872.4460841446</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.699862674058575e-06</v>
+        <v>7.69986267412025e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92586.48484794235</v>
+        <v>92586.48484720774</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.080071245433209e-05</v>
+        <v>1.080071245441778e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003737387596159159</v>
+        <v>0.003737387596123712</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.69822750213196e-05</v>
+        <v>1.698227502144629e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02399892856562585</v>
+        <v>0.02399892856581904</v>
       </c>
       <c r="QI3" t="n">
-        <v>92642.51381899296</v>
+        <v>92642.51381825449</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.202840746798325</v>
+        <v>1.20284074677743</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.202840746798325</v>
+        <v>1.20284074677743</v>
       </c>
       <c r="QL3" t="n">
-        <v>317594.3787371416</v>
+        <v>317594.3787389471</v>
       </c>
       <c r="QM3" t="n">
-        <v>394614.1455396757</v>
+        <v>394614.1455422053</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.836303693205</v>
+        <v>3800.836303704913</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7834355938987</v>
+        <v>716.7834355939655</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.442838086007</v>
+        <v>1005.442838086024</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.5900771555253</v>
+        <v>328.5900771570633</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993923139308762</v>
+        <v>0.999392313930913</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.69822750213196e-05</v>
+        <v>1.698227502144629e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02399892856562585</v>
+        <v>0.02399892856581904</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4620923226627229</v>
+        <v>0.4620923226354005</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8539352387978192</v>
+        <v>0.8539352387617362</v>
       </c>
       <c r="QY3" t="n">
-        <v>384543.1802754854</v>
+        <v>384543.1802960219</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.725101775804098</v>
+        <v>2.725101775995872</v>
       </c>
       <c r="RA3" t="n">
-        <v>380951.5715744615</v>
+        <v>380951.5715771854</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02457066442077327</v>
+        <v>0.02457066441917486</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002422640685156795</v>
+        <v>0.002422640682581678</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01187960968159776</v>
+        <v>0.01187960968176784</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03214502246075868</v>
+        <v>0.03214502245928379</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04299769189623211</v>
+        <v>0.04299769189377018</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1140156291445186</v>
+        <v>0.1140156291365783</v>
       </c>
       <c r="RH3" t="n">
-        <v>-1.656970116670209e-10</v>
+        <v>8.98561780537932e-12</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -8689,34 +8689,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01611691534498293</v>
+        <v>0.01611691534231646</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.785867205066515e-07</v>
+        <v>-1.785867206076981e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379684642892114</v>
+        <v>0.01379684642878279</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02511126098067258</v>
+        <v>0.02511126098259795</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05502484416785615</v>
+        <v>0.05502484416697659</v>
       </c>
       <c r="H2" t="n">
-        <v>1.327855880806084e-11</v>
+        <v>8.843327944929591e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.7575817255116</v>
+        <v>81.75758172210243</v>
       </c>
       <c r="K2" t="n">
-        <v>81.7575817255116</v>
+        <v>81.75758172210243</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.7575817255116</v>
+        <v>81.75758172210243</v>
       </c>
       <c r="O2" t="n">
-        <v>81.7575817255116</v>
+        <v>81.75758172210243</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8737,97 +8737,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180723608</v>
+        <v>292.2676180726388</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394372868</v>
+        <v>132637.8394377272</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096098679</v>
+        <v>1.581790096102423</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.283474992</v>
+        <v>334589.2834751909</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800036873</v>
+        <v>418442.2800039659</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723463</v>
+        <v>3782.917347723464</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625800621</v>
+        <v>-687181.9625808352</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713703953</v>
+        <v>717.7090713704081</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209103386</v>
+        <v>1006.6432091034</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574215</v>
+        <v>1.40257835557421</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723756384</v>
+        <v>0.9994973723756403</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121221091</v>
+        <v>342.8584121222723</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165864195</v>
+        <v>185942.4165870366</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054406556e-06</v>
+        <v>5.378009054388708e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565721734</v>
+        <v>132571.8565726137</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079095792783e-06</v>
+        <v>7.543079095767729e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038601591</v>
+        <v>0.00343445503859833</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856046005e-05</v>
+        <v>1.816725856047365e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190126329</v>
+        <v>0.02581791190128423</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394372868</v>
+        <v>132637.8394377272</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096098679</v>
+        <v>1.581790096102423</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096098679</v>
+        <v>1.581790096102423</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.283474992</v>
+        <v>334589.2834751909</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800036873</v>
+        <v>418442.2800039659</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723463</v>
+        <v>3782.917347723464</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713703953</v>
+        <v>717.7090713704081</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209103386</v>
+        <v>1006.6432091034</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121221091</v>
+        <v>342.8584121222723</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723756384</v>
+        <v>0.9994973723756403</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856046005e-05</v>
+        <v>1.816725856047365e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190126329</v>
+        <v>0.02581791190128423</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8841,52 +8841,52 @@
         <v>295.5999999999884</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950266</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="BB2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="BD2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368984906</v>
+        <v>-696445.9368984908</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="BG2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.402525623278193</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="BI2" t="n">
         <v>0.9995210660216013</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974367833</v>
+        <v>193456.8974367843</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087309107e-06</v>
+        <v>5.169110087309082e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.661745863</v>
+        <v>137934.6617458637</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346996801e-06</v>
+        <v>7.249809346996767e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="BP2" t="n">
         <v>1.83299517401163e-05</v>
@@ -8895,31 +8895,31 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950266</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="BU2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="BW2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="BY2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="CA2" t="n">
         <v>0.9995210660216013</v>
@@ -8942,52 +8942,52 @@
         <v>295.5999999999884</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950266</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="CI2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="CK2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368984906</v>
+        <v>-696445.9368984908</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="CN2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.402525623278193</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="CP2" t="n">
         <v>0.9995210660216013</v>
       </c>
       <c r="CQ2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974367833</v>
+        <v>193456.8974367843</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087309107e-06</v>
+        <v>5.169110087309082e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.661745863</v>
+        <v>137934.6617458637</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346996801e-06</v>
+        <v>7.249809346996767e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="CW2" t="n">
         <v>1.83299517401163e-05</v>
@@ -8996,31 +8996,31 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950266</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="DB2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="DD2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="DF2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="DH2" t="n">
         <v>0.9995210660216013</v>
@@ -9040,16 +9040,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2384587305864137</v>
+        <v>0.2384587305763568</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2384587305864137</v>
+        <v>0.2384587305763568</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.5323220654</v>
+        <v>186219.5323146016</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.77636993474829</v>
+        <v>2.77636993463909</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885895</v>
@@ -9058,121 +9058,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780774413553</v>
+        <v>309.3780777090696</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136415716301</v>
+        <v>126.4136416810197</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.3727784789261</v>
+        <v>282.3727787232719</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780774413553</v>
+        <v>309.3780777090696</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136415716301</v>
+        <v>126.4136416810197</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.3727784789261</v>
+        <v>282.3727787232719</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365047500376</v>
+        <v>247.8365046671144</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.23765990326</v>
+        <v>72726.2375695931</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.02301466869346</v>
+        <v>1.023014667765633</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.9116345701</v>
+        <v>302836.9115753476</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.0336880353</v>
+        <v>373927.0336050097</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061351769</v>
+        <v>3790.093061372963</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3833147569</v>
+        <v>-565396.3830887488</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430518524</v>
+        <v>716.2529430500509</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.831581197694</v>
+        <v>1004.831581195215</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457087477</v>
+        <v>1.402900457087544</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812858998209</v>
+        <v>0.9992812858995807</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.691115429329</v>
+        <v>315.6911153764468</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5425042212</v>
+        <v>101954.5423775958</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292749276933e-06</v>
+        <v>9.808292761458629e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.11026145524</v>
+        <v>72674.11017119199</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005838120839e-05</v>
+        <v>1.376005839829876e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004048559448154793</v>
+        <v>0.004048559449505625</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.592113115709053e-05</v>
+        <v>1.592113115275687e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02238288372038641</v>
+        <v>0.0223828837138065</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.23765990326</v>
+        <v>72726.2375695931</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.02301466869346</v>
+        <v>1.023014667765633</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.02301466869346</v>
+        <v>1.023014667765633</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.9116345701</v>
+        <v>302836.9115753476</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.0336880353</v>
+        <v>373927.0336050097</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061351769</v>
+        <v>3790.093061372963</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430518524</v>
+        <v>716.2529430500509</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.831581197694</v>
+        <v>1004.831581195215</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.691115429329</v>
+        <v>315.6911153764468</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812858998209</v>
+        <v>0.9992812858995807</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.592113115709053e-05</v>
+        <v>1.592113115275687e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02238288372038641</v>
+        <v>0.0223828837138065</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9183,97 +9183,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968650116</v>
+        <v>295.5920968649888</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.4165443017</v>
+        <v>134591.4165343595</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979527088374</v>
+        <v>1.586979526971213</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.6309325175</v>
+        <v>336974.6309325215</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093061361418</v>
+        <v>3790.093061382613</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.124232663</v>
+        <v>-698537.124238841</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8543580607873</v>
+        <v>717.8543580607615</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618720496</v>
+        <v>1006.765618720333</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008975044</v>
+        <v>1.402465008974867</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995326648234544</v>
+        <v>0.9995326648234882</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163635829</v>
+        <v>344.8011163635595</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5202453001</v>
+        <v>188672.5202313453</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.30018891304289e-06</v>
+        <v>5.300188913434908e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2175119483</v>
+        <v>134529.2175020151</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.433329491500125e-06</v>
+        <v>7.433329492048977e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843598786</v>
+        <v>0.003395573843598127</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832907665247227e-05</v>
+        <v>1.832907665246972e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606695184419206</v>
+        <v>0.02606695184418716</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.4165443017</v>
+        <v>134591.4165343595</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979527088374</v>
+        <v>1.586979526971213</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979527088374</v>
+        <v>1.586979526971213</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.6309325175</v>
+        <v>336974.6309325215</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093061361418</v>
+        <v>3790.093061382613</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8543580607873</v>
+        <v>717.8543580607615</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618720496</v>
+        <v>1006.765618720333</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163635829</v>
+        <v>344.8011163635595</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995326648234544</v>
+        <v>0.9995326648234882</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832907665247227e-05</v>
+        <v>1.832907665246972e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606695184419206</v>
+        <v>0.02606695184418716</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9284,97 +9284,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968650116</v>
+        <v>295.5920968649888</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.4165443017</v>
+        <v>134591.4165343595</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979527088374</v>
+        <v>1.586979526971213</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.6309325175</v>
+        <v>336974.6309325215</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093061361418</v>
+        <v>3790.093061382613</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.124232663</v>
+        <v>-698537.124238841</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8543580607873</v>
+        <v>717.8543580607615</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618720496</v>
+        <v>1006.765618720333</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008975044</v>
+        <v>1.402465008974867</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995326648234544</v>
+        <v>0.9995326648234882</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163635829</v>
+        <v>344.8011163635595</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5202453001</v>
+        <v>188672.5202313453</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.30018891304289e-06</v>
+        <v>5.300188913434908e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2175119483</v>
+        <v>134529.2175020151</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.433329491500125e-06</v>
+        <v>7.433329492048977e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843598786</v>
+        <v>0.003395573843598127</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832907665247227e-05</v>
+        <v>1.832907665246972e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606695184419206</v>
+        <v>0.02606695184418716</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.4165443017</v>
+        <v>134591.4165343595</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979527088374</v>
+        <v>1.586979526971213</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979527088374</v>
+        <v>1.586979526971213</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.6309325175</v>
+        <v>336974.6309325215</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093061361418</v>
+        <v>3790.093061382613</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8543580607873</v>
+        <v>717.8543580607615</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618720496</v>
+        <v>1006.765618720333</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163635829</v>
+        <v>344.8011163635595</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995326648234544</v>
+        <v>0.9995326648234882</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832907665247227e-05</v>
+        <v>1.832907665246972e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606695184419206</v>
+        <v>0.02606695184418716</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9385,205 +9385,205 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01619337326649185</v>
+        <v>0.01619337326733651</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005766576214e-07</v>
+        <v>-1.972005779135985e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.01379727827868041</v>
+        <v>0.01379727827867962</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02510093007318005</v>
+        <v>0.02510093007319906</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.05509138441777565</v>
+        <v>0.05509138441863728</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578238609423025e-06</v>
+        <v>5.578286258647869e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024844557687</v>
+        <v>0.9800024854679577</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024844557687</v>
+        <v>0.9800024854679577</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1646499834</v>
+        <v>520038.1647698899</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991776973</v>
+        <v>2.776362991661412</v>
       </c>
       <c r="IG2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="IH2" t="n">
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>1470.594966283883</v>
+        <v>1470.594989897218</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.006614956768243554</v>
+        <v>0.006614956907955991</v>
       </c>
       <c r="IL2" t="n">
-        <v>-7.329835829296184e-08</v>
+        <v>-7.329835989467364e-08</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.01030655694515012</v>
+        <v>0.01030655716532711</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.005662717754102931</v>
+        <v>0.005662717874583511</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02417559754856948</v>
+        <v>0.02417559753441028</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.00202049333201719</v>
+        <v>0.002020493316138794</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.0119051276087176</v>
+        <v>0.01190512760989111</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.03192297883684157</v>
+        <v>0.03192297882672594</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04262771182959522</v>
+        <v>0.04262771181259534</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1126519091557411</v>
+        <v>0.1126519090997615</v>
       </c>
       <c r="IV2" t="n">
-        <v>3.915950896882237e-11</v>
+        <v>-1.237638880269287e-10</v>
       </c>
       <c r="IW2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX2" t="n">
-        <v>274.243595589122</v>
+        <v>274.2435979903138</v>
       </c>
       <c r="IY2" t="n">
-        <v>112.0574925115369</v>
+        <v>112.0574935096537</v>
       </c>
       <c r="IZ2" t="n">
-        <v>250.3051499543643</v>
+        <v>250.3051521383585</v>
       </c>
       <c r="JA2" t="n">
-        <v>65.88272377225761</v>
+        <v>65.8827237683717</v>
       </c>
       <c r="JB2" t="n">
-        <v>140.6492556824151</v>
+        <v>140.6492577975364</v>
       </c>
       <c r="JC2" t="n">
-        <v>112.0574925115369</v>
+        <v>112.0574935096537</v>
       </c>
       <c r="JD2" t="n">
-        <v>85.00194995436425</v>
+        <v>85.00195213835852</v>
       </c>
       <c r="JE2" t="n">
-        <v>37.18237547328013</v>
+        <v>37.18237593637706</v>
       </c>
       <c r="JF2" t="n">
-        <v>258.0745275978325</v>
+        <v>258.0745269403304</v>
       </c>
       <c r="JG2" t="n">
-        <v>84204.24304203909</v>
+        <v>84204.24226423235</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.137441480240043</v>
+        <v>1.137441472634154</v>
       </c>
       <c r="JI2" t="n">
-        <v>310150.1395403558</v>
+        <v>310150.1390706419</v>
       </c>
       <c r="JJ2" t="n">
-        <v>384179.6562274639</v>
+        <v>384179.6555689522</v>
       </c>
       <c r="JK2" t="n">
-        <v>3788.594327636938</v>
+        <v>3788.59432773501</v>
       </c>
       <c r="JL2" t="n">
-        <v>-593560.0351372667</v>
+        <v>-593560.0333300796</v>
       </c>
       <c r="JM2" t="n">
-        <v>716.497673930955</v>
+        <v>716.4976739136719</v>
       </c>
       <c r="JN2" t="n">
-        <v>1005.154781941108</v>
+        <v>1005.154781918726</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.402872358854259</v>
+        <v>1.40287235885686</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.9993176152848148</v>
+        <v>0.9993176152822336</v>
       </c>
       <c r="JQ2" t="n">
-        <v>322.1542423920064</v>
+        <v>322.154241981087</v>
       </c>
       <c r="JR2" t="n">
-        <v>118047.4939491289</v>
+        <v>118047.4928586164</v>
       </c>
       <c r="JS2" t="n">
-        <v>8.471166702030439e-06</v>
+        <v>8.471166780286337e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>84146.99541556262</v>
+        <v>84146.994638064</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.18839656135251e-05</v>
+        <v>1.188396572333017e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.003888335960687911</v>
+        <v>0.003888335970570088</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.64519306111412e-05</v>
+        <v>1.645193057731875e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02319014929983157</v>
+        <v>0.02319014924830467</v>
       </c>
       <c r="JY2" t="n">
-        <v>84204.24304203909</v>
+        <v>84204.24226423235</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.137441480240043</v>
+        <v>1.137441472634154</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.137441480240043</v>
+        <v>1.137441472634154</v>
       </c>
       <c r="KB2" t="n">
-        <v>310150.1395403558</v>
+        <v>310150.1390706419</v>
       </c>
       <c r="KC2" t="n">
-        <v>384179.6562274639</v>
+        <v>384179.6555689522</v>
       </c>
       <c r="KD2" t="n">
-        <v>3788.594327636938</v>
+        <v>3788.59432773501</v>
       </c>
       <c r="KE2" t="n">
-        <v>716.497673930955</v>
+        <v>716.4976739136719</v>
       </c>
       <c r="KF2" t="n">
-        <v>1005.154781941108</v>
+        <v>1005.154781918726</v>
       </c>
       <c r="KG2" t="n">
-        <v>322.1542423920064</v>
+        <v>322.154241981087</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.9993176152848148</v>
+        <v>0.9993176152822336</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.64519306111412e-05</v>
+        <v>1.645193057731875e-05</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.02319014929983157</v>
+        <v>0.02319014924830467</v>
       </c>
       <c r="KK2" t="inlineStr">
         <is>
@@ -9594,97 +9594,97 @@
         <v>1</v>
       </c>
       <c r="KM2" t="n">
-        <v>295.5937313465025</v>
+        <v>295.5937313464953</v>
       </c>
       <c r="KN2" t="n">
-        <v>135296.3107333989</v>
+        <v>135296.3106873122</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.595286006695034</v>
+        <v>1.595286006151409</v>
       </c>
       <c r="KP2" t="n">
-        <v>336974.3655792873</v>
+        <v>336974.3655793763</v>
       </c>
       <c r="KQ2" t="n">
-        <v>421784.4310882887</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KR2" t="n">
-        <v>3788.594327641744</v>
+        <v>3788.594327739816</v>
       </c>
       <c r="KS2" t="n">
-        <v>-698100.3027775281</v>
+        <v>-698100.3028063901</v>
       </c>
       <c r="KT2" t="n">
-        <v>717.8561941266146</v>
+        <v>717.8561941264988</v>
       </c>
       <c r="KU2" t="n">
-        <v>1006.777192427254</v>
+        <v>1006.777192426501</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.402477544478331</v>
+        <v>1.402477544477507</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.9995302652409093</v>
+        <v>0.9995302652410675</v>
       </c>
       <c r="KX2" t="n">
-        <v>344.802792211384</v>
+        <v>344.8027922113324</v>
       </c>
       <c r="KY2" t="n">
-        <v>189661.9030393465</v>
+        <v>189661.9029746588</v>
       </c>
       <c r="KZ2" t="n">
-        <v>5.272540156852396e-06</v>
+        <v>5.272540158650693e-06</v>
       </c>
       <c r="LA2" t="n">
-        <v>135233.4686470104</v>
+        <v>135233.468600966</v>
       </c>
       <c r="LB2" t="n">
-        <v>7.39461917234574e-06</v>
+        <v>7.394619174863468e-06</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.003395620349785614</v>
+        <v>0.003395620349781417</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.832925761098218e-05</v>
+        <v>1.832925761097518e-05</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.02606729972442667</v>
+        <v>0.02606729972441137</v>
       </c>
       <c r="LF2" t="n">
-        <v>135296.3107333989</v>
+        <v>135296.3106873122</v>
       </c>
       <c r="LG2" t="n">
-        <v>1.595286006695034</v>
+        <v>1.595286006151409</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.595286006695034</v>
+        <v>1.595286006151409</v>
       </c>
       <c r="LI2" t="n">
-        <v>336974.3655792873</v>
+        <v>336974.3655793763</v>
       </c>
       <c r="LJ2" t="n">
-        <v>421784.4310882887</v>
+        <v>421784.431088389</v>
       </c>
       <c r="LK2" t="n">
-        <v>3788.594327641744</v>
+        <v>3788.594327739816</v>
       </c>
       <c r="LL2" t="n">
-        <v>717.8561941266146</v>
+        <v>717.8561941264988</v>
       </c>
       <c r="LM2" t="n">
-        <v>1006.777192427254</v>
+        <v>1006.777192426501</v>
       </c>
       <c r="LN2" t="n">
-        <v>344.802792211384</v>
+        <v>344.8027922113324</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.9995302652409093</v>
+        <v>0.9995302652410675</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.832925761098218e-05</v>
+        <v>1.832925761097518e-05</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.02606729972442667</v>
+        <v>0.02606729972441137</v>
       </c>
       <c r="LR2" t="inlineStr">
         <is>
@@ -9695,97 +9695,97 @@
         <v>1</v>
       </c>
       <c r="LT2" t="n">
-        <v>267.9478405120847</v>
+        <v>267.9478401515714</v>
       </c>
       <c r="LU2" t="n">
-        <v>96001.14969175079</v>
+        <v>96001.14920790655</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.248954192569239</v>
+        <v>1.24895418795693</v>
       </c>
       <c r="LW2" t="n">
-        <v>317205.5340543694</v>
+        <v>317205.5337967891</v>
       </c>
       <c r="LX2" t="n">
-        <v>394070.7627896728</v>
+        <v>394070.7624285513</v>
       </c>
       <c r="LY2" t="n">
-        <v>3788.594327643214</v>
+        <v>3788.594327741286</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-621074.9058786597</v>
+        <v>-621074.9049002207</v>
       </c>
       <c r="MA2" t="n">
-        <v>716.7798217229954</v>
+        <v>716.7798217116772</v>
       </c>
       <c r="MB2" t="n">
-        <v>1005.50558023887</v>
+        <v>1005.505580224462</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.402809551504723</v>
+        <v>1.402809551506772</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.9993633826738171</v>
+        <v>0.9993633826722318</v>
       </c>
       <c r="ME2" t="n">
-        <v>328.2666125057401</v>
+        <v>328.26661228462</v>
       </c>
       <c r="MF2" t="n">
-        <v>134586.0159771</v>
+        <v>134586.0152987684</v>
       </c>
       <c r="MG2" t="n">
-        <v>7.430192451570535e-06</v>
+        <v>7.430192489019705e-06</v>
       </c>
       <c r="MH2" t="n">
-        <v>95940.33333515334</v>
+        <v>95940.33285146096</v>
       </c>
       <c r="MI2" t="n">
-        <v>1.042314494058144e-05</v>
+        <v>1.042314499313072e-05</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.003745331631165393</v>
+        <v>0.003745331636190535</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.695599162230592e-05</v>
+        <v>1.695599160403133e-05</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.02395924904434411</v>
+        <v>0.02395924901641115</v>
       </c>
       <c r="MM2" t="n">
-        <v>96001.14969175079</v>
+        <v>96001.14920790655</v>
       </c>
       <c r="MN2" t="n">
-        <v>1.248954192569239</v>
+        <v>1.24895418795693</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.248954192569239</v>
+        <v>1.24895418795693</v>
       </c>
       <c r="MP2" t="n">
-        <v>317205.5340543694</v>
+        <v>317205.5337967891</v>
       </c>
       <c r="MQ2" t="n">
-        <v>394070.7627896728</v>
+        <v>394070.7624285513</v>
       </c>
       <c r="MR2" t="n">
-        <v>3788.594327643214</v>
+        <v>3788.594327741286</v>
       </c>
       <c r="MS2" t="n">
-        <v>716.7798217229954</v>
+        <v>716.7798217116772</v>
       </c>
       <c r="MT2" t="n">
-        <v>1005.50558023887</v>
+        <v>1005.505580224462</v>
       </c>
       <c r="MU2" t="n">
-        <v>328.2666125057401</v>
+        <v>328.26661228462</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.9993633826738171</v>
+        <v>0.9993633826722318</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.695599162230592e-05</v>
+        <v>1.695599160403133e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.02395924904434411</v>
+        <v>0.02395924901641115</v>
       </c>
       <c r="MY2" t="inlineStr">
         <is>
@@ -9796,139 +9796,139 @@
         <v>1</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.851280410131662</v>
+        <v>0.8512804186710481</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.4365897982223967</v>
+        <v>0.4365898053448375</v>
       </c>
       <c r="NC2" t="n">
-        <v>253410.1713303556</v>
+        <v>253410.173967662</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.736342184851341</v>
+        <v>2.736342190926965</v>
       </c>
       <c r="NE2" t="n">
-        <v>380408.1888244526</v>
+        <v>380408.1884633311</v>
       </c>
       <c r="NF2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG2" t="n">
-        <v>165.2430880649164</v>
+        <v>165.2430531129213</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.6735901245137</v>
+        <v>139.6735708722134</v>
       </c>
       <c r="NI2" t="n">
-        <v>-88.29816744960837</v>
+        <v>-88.29813249375394</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-32.30005542851874</v>
+        <v>-32.30004875061726</v>
       </c>
       <c r="NK2" t="n">
-        <v>289.5209238562593</v>
+        <v>289.5208839493323</v>
       </c>
       <c r="NL2" t="n">
-        <v>139.6735901245137</v>
+        <v>139.6735708722134</v>
       </c>
       <c r="NM2" t="n">
-        <v>-253.6013674496084</v>
+        <v>-253.6013324937539</v>
       </c>
       <c r="NN2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NO2" t="n">
-        <v>226.0874548524374</v>
+        <v>226.0874660337962</v>
       </c>
       <c r="NP2" t="n">
-        <v>50447.70730433291</v>
+        <v>50447.71643849147</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7779155862478835</v>
+        <v>0.7779156886139048</v>
       </c>
       <c r="NR2" t="n">
-        <v>287309.7323978538</v>
+        <v>287309.7403825856</v>
       </c>
       <c r="NS2" t="n">
-        <v>352159.5801141814</v>
+        <v>352159.5913071499</v>
       </c>
       <c r="NT2" t="n">
-        <v>3803.08340803057</v>
+        <v>3803.083405602889</v>
       </c>
       <c r="NU2" t="n">
-        <v>-507669.8681989839</v>
+        <v>-507669.8989807873</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8671533068396</v>
+        <v>715.8671534571982</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.23851668585</v>
+        <v>1004.238516918102</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402828041553413</v>
+        <v>1.4028280415832</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992548518780449</v>
+        <v>0.9992548518939014</v>
       </c>
       <c r="NZ2" t="n">
-        <v>301.5053614487351</v>
+        <v>301.5053689123866</v>
       </c>
       <c r="OA2" t="n">
-        <v>70716.79208734809</v>
+        <v>70716.80489411627</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.414091293571148e-05</v>
+        <v>1.414091037480119e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>50410.16431995491</v>
+        <v>50410.17344813469</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.983726919938146e-05</v>
+        <v>1.983726560728591e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004436546246017411</v>
+        <v>0.004436546027162752</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.476448187350749e-05</v>
+        <v>1.476448247848055e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.0206330236495079</v>
+        <v>0.02063302456118185</v>
       </c>
       <c r="OH2" t="n">
-        <v>50447.70730433291</v>
+        <v>50447.71643849147</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.7779155862478835</v>
+        <v>0.7779156886139048</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.7779155862478835</v>
+        <v>0.7779156886139048</v>
       </c>
       <c r="OK2" t="n">
-        <v>287309.7323978538</v>
+        <v>287309.7403825856</v>
       </c>
       <c r="OL2" t="n">
-        <v>352159.5801141814</v>
+        <v>352159.5913071499</v>
       </c>
       <c r="OM2" t="n">
-        <v>3803.08340803057</v>
+        <v>3803.083405602889</v>
       </c>
       <c r="ON2" t="n">
-        <v>715.8671533068396</v>
+        <v>715.8671534571982</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.23851668585</v>
+        <v>1004.238516918102</v>
       </c>
       <c r="OP2" t="n">
-        <v>301.5053614487351</v>
+        <v>301.5053689123866</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992548518780449</v>
+        <v>0.9992548518939014</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.476448187350749e-05</v>
+        <v>1.476448247848055e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.0206330236495079</v>
+        <v>0.02063302456118185</v>
       </c>
       <c r="OT2" t="inlineStr">
         <is>
@@ -9939,97 +9939,97 @@
         <v>1</v>
       </c>
       <c r="OV2" t="n">
-        <v>239.7227570999276</v>
+        <v>239.7227625116526</v>
       </c>
       <c r="OW2" t="n">
-        <v>61889.88327810452</v>
+        <v>61889.88867770446</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.9000437682028197</v>
+        <v>0.9000438264004968</v>
       </c>
       <c r="OY2" t="n">
-        <v>297049.0262610965</v>
+        <v>297049.030125419</v>
       </c>
       <c r="OZ2" t="n">
-        <v>365812.2191907964</v>
+        <v>365812.2246080897</v>
       </c>
       <c r="PA2" t="n">
-        <v>3803.083408024712</v>
+        <v>3803.083405597032</v>
       </c>
       <c r="PB2" t="n">
-        <v>-545873.4208618769</v>
+        <v>-545873.4354438545</v>
       </c>
       <c r="PC2" t="n">
-        <v>716.0798178321616</v>
+        <v>716.0798179324538</v>
       </c>
       <c r="PD2" t="n">
-        <v>1004.538266877201</v>
+        <v>1004.53826702429</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.402830022382574</v>
+        <v>1.402830022391507</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9992876966413874</v>
+        <v>0.9992876966507821</v>
       </c>
       <c r="PG2" t="n">
-        <v>310.4746358348191</v>
+        <v>310.4746393432355</v>
       </c>
       <c r="PH2" t="n">
-        <v>86759.26856109186</v>
+        <v>86759.27613181705</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.152614604278097e-05</v>
+        <v>1.152614503699475e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>61845.88808110866</v>
+        <v>61845.8934774665</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.616922371117924e-05</v>
+        <v>1.616922230033509e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.004184691044767761</v>
+        <v>0.004184690950598246</v>
       </c>
       <c r="PM2" t="n">
-        <v>1.549400915497875e-05</v>
+        <v>1.549400944143699e-05</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.0217348899224148</v>
+        <v>0.02173489035617561</v>
       </c>
       <c r="PO2" t="n">
-        <v>61889.88327810452</v>
+        <v>61889.88867770446</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.9000437682028197</v>
+        <v>0.9000438264004968</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9000437682028197</v>
+        <v>0.9000438264004968</v>
       </c>
       <c r="PR2" t="n">
-        <v>297049.0262610965</v>
+        <v>297049.030125419</v>
       </c>
       <c r="PS2" t="n">
-        <v>365812.2191907964</v>
+        <v>365812.2246080897</v>
       </c>
       <c r="PT2" t="n">
-        <v>3803.083408024712</v>
+        <v>3803.083405597032</v>
       </c>
       <c r="PU2" t="n">
-        <v>716.0798178321616</v>
+        <v>716.0798179324538</v>
       </c>
       <c r="PV2" t="n">
-        <v>1004.538266877201</v>
+        <v>1004.53826702429</v>
       </c>
       <c r="PW2" t="n">
-        <v>310.4746358348191</v>
+        <v>310.4746393432355</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.9992876966413874</v>
+        <v>0.9992876966507821</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.549400915497875e-05</v>
+        <v>1.549400944143699e-05</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.0217348899224148</v>
+        <v>0.02173489035617561</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -10040,97 +10040,97 @@
         <v>1</v>
       </c>
       <c r="QC2" t="n">
-        <v>267.9344593782439</v>
+        <v>267.934459020037</v>
       </c>
       <c r="QD2" t="n">
-        <v>91272.80174778299</v>
+        <v>91272.80208691077</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.18746182863295</v>
+        <v>1.187461834640579</v>
       </c>
       <c r="QF2" t="n">
-        <v>317206.9853216641</v>
+        <v>317206.9850638353</v>
       </c>
       <c r="QG2" t="n">
-        <v>394070.7627896603</v>
+        <v>394070.7624285514</v>
       </c>
       <c r="QH2" t="n">
-        <v>3803.08340801287</v>
+        <v>3803.083405599222</v>
       </c>
       <c r="QI2" t="n">
-        <v>-624906.334106637</v>
+        <v>-624906.3324587562</v>
       </c>
       <c r="QJ2" t="n">
-        <v>716.7641341356215</v>
+        <v>716.7641341269797</v>
       </c>
       <c r="QK2" t="n">
-        <v>1005.407378978468</v>
+        <v>1005.407378980834</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.402703247967248</v>
+        <v>1.40270324798746</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.9993944231010438</v>
+        <v>0.9993944230942894</v>
       </c>
       <c r="QN2" t="n">
-        <v>328.256124197999</v>
+        <v>328.2561239787237</v>
       </c>
       <c r="QO2" t="n">
-        <v>127951.4856054586</v>
+        <v>127951.4860818498</v>
       </c>
       <c r="QP2" t="n">
-        <v>7.815462206382845e-06</v>
+        <v>7.81546217728418e-06</v>
       </c>
       <c r="QQ2" t="n">
-        <v>91217.78664937271</v>
+        <v>91217.78698768199</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.096277422125849e-05</v>
+        <v>1.096277418059966e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.00374486767768909</v>
+        <v>0.003744867682792342</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.69545961080871e-05</v>
+        <v>1.695459609005335e-05</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.0239565369679511</v>
+        <v>0.0239565369404855</v>
       </c>
       <c r="QV2" t="n">
-        <v>91272.80174778299</v>
+        <v>91272.80208691077</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.18746182863295</v>
+        <v>1.187461834640579</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.18746182863295</v>
+        <v>1.187461834640579</v>
       </c>
       <c r="QY2" t="n">
-        <v>317206.9853216641</v>
+        <v>317206.9850638353</v>
       </c>
       <c r="QZ2" t="n">
-        <v>394070.7627896603</v>
+        <v>394070.7624285514</v>
       </c>
       <c r="RA2" t="n">
-        <v>3803.08340801287</v>
+        <v>3803.083405599222</v>
       </c>
       <c r="RB2" t="n">
-        <v>716.7641341356215</v>
+        <v>716.7641341269797</v>
       </c>
       <c r="RC2" t="n">
-        <v>1005.407378978468</v>
+        <v>1005.407378980834</v>
       </c>
       <c r="RD2" t="n">
-        <v>328.256124197999</v>
+        <v>328.2561239787237</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.9993944231010438</v>
+        <v>0.9993944230942894</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.69545961080871e-05</v>
+        <v>1.695459609005335e-05</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.0239565369679511</v>
+        <v>0.0239565369404855</v>
       </c>
       <c r="RH2" t="inlineStr">
         <is>
@@ -10141,64 +10141,64 @@
         <v>1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.02486058104642945</v>
+        <v>0.02486058216764022</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.003173858050388085</v>
+        <v>0.003173858116166257</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.01184586510494338</v>
+        <v>0.01184586508290936</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.0324393964348768</v>
+        <v>0.03243939662762593</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.04348345569196203</v>
+        <v>0.04348345600776609</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.1158031563285997</v>
+        <v>0.1158031580021079</v>
       </c>
       <c r="RP2" t="n">
-        <v>1.648863308914561e-05</v>
+        <v>1.649174912048135e-05</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.548060197904682</v>
+        <v>0.5480600684127077</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.9602513284178747</v>
+        <v>0.9602511722882889</v>
       </c>
       <c r="RS2" t="n">
-        <v>397528.828994246</v>
+        <v>397528.8102219139</v>
       </c>
       <c r="RT2" t="n">
-        <v>2.736322951290713</v>
+        <v>2.736322934195051</v>
       </c>
       <c r="RU2" t="n">
-        <v>380408.1888244526</v>
+        <v>380408.1884633311</v>
       </c>
       <c r="RV2" t="n">
         <v>0</v>
       </c>
       <c r="RW2" t="n">
-        <v>2669.791785942216</v>
+        <v>2669.791780947591</v>
       </c>
       <c r="RX2" t="n">
-        <v>6.301354487449558</v>
+        <v>6.301354461429518</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.008798869677276671</v>
+        <v>0.008798869705904735</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.000735371999658297</v>
+        <v>0.0007353719967025541</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.01161858067547335</v>
+        <v>0.01161858071639878</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.01551463951513817</v>
+        <v>0.01551463956851612</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.004332950451793612</v>
+        <v>0.004332950468856163</v>
       </c>
     </row>
     <row r="3">
@@ -10206,34 +10206,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01611910595783572</v>
+        <v>0.01611910595796726</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.796499141361456e-07</v>
+        <v>-1.796499141563356e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379690142699928</v>
+        <v>0.0137969014269976</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0251099470736868</v>
+        <v>0.02510994707372703</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05502577480860767</v>
+        <v>0.05502577480877772</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.430060485116627e-12</v>
+        <v>-8.563982856202301e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.7575817251484</v>
+        <v>81.75758172350331</v>
       </c>
       <c r="K3" t="n">
-        <v>81.7575817251484</v>
+        <v>81.75758172350331</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.7575817251484</v>
+        <v>81.75758172350331</v>
       </c>
       <c r="O3" t="n">
-        <v>81.7575817251484</v>
+        <v>81.75758172350331</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10254,97 +10254,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180725905</v>
+        <v>292.2676180727246</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394376511</v>
+        <v>132637.8394378638</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096101778</v>
+        <v>1.581790096103586</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834751565</v>
+        <v>334589.2834752525</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800039176</v>
+        <v>418442.2800040522</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625807008</v>
+        <v>-687181.9625810734</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713704056</v>
+        <v>717.7090713704118</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103398</v>
+        <v>1006.643209103405</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574211</v>
+        <v>1.402578355574209</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.99949737237564</v>
+        <v>0.999497372375641</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121222439</v>
+        <v>342.8584121223226</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.41658693</v>
+        <v>185942.416587228</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054391791e-06</v>
+        <v>5.378009054383172e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565725377</v>
+        <v>132571.8565727503</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095772056e-06</v>
+        <v>7.543079095759954e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038598897</v>
+        <v>0.003434455038597323</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856047129e-05</v>
+        <v>1.816725856047785e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190128059</v>
+        <v>0.0258179119012907</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394376511</v>
+        <v>132637.8394378638</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096101778</v>
+        <v>1.581790096103586</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096101778</v>
+        <v>1.581790096103586</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834751565</v>
+        <v>334589.2834752525</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800039176</v>
+        <v>418442.2800040522</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713704056</v>
+        <v>717.7090713704118</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103398</v>
+        <v>1006.643209103405</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121222439</v>
+        <v>342.8584121223226</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.99949737237564</v>
+        <v>0.999497372375641</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856047129e-05</v>
+        <v>1.816725856047785e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190128059</v>
+        <v>0.0258179119012907</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10358,52 +10358,52 @@
         <v>295.5999999999884</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950266</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="BB3" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="BC3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="BD3" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368984906</v>
+        <v>-696445.9368984908</v>
       </c>
       <c r="BF3" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="BG3" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.402525623278193</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="BI3" t="n">
         <v>0.9995210660216013</v>
       </c>
       <c r="BJ3" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974367833</v>
+        <v>193456.8974367843</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087309107e-06</v>
+        <v>5.169110087309082e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.661745863</v>
+        <v>137934.6617458637</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346996801e-06</v>
+        <v>7.249809346996767e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="BP3" t="n">
         <v>1.83299517401163e-05</v>
@@ -10412,31 +10412,31 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950266</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="BU3" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="BV3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="BW3" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BX3" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="BY3" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="BZ3" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="CA3" t="n">
         <v>0.9995210660216013</v>
@@ -10459,52 +10459,52 @@
         <v>295.5999999999884</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950266</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="CI3" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="CJ3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="CK3" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368984906</v>
+        <v>-696445.9368984908</v>
       </c>
       <c r="CM3" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="CN3" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.402525623278193</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="CP3" t="n">
         <v>0.9995210660216013</v>
       </c>
       <c r="CQ3" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974367833</v>
+        <v>193456.8974367843</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087309107e-06</v>
+        <v>5.169110087309082e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.661745863</v>
+        <v>137934.6617458637</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346996801e-06</v>
+        <v>7.249809346996767e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="CW3" t="n">
         <v>1.83299517401163e-05</v>
@@ -10513,31 +10513,31 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950266</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753698</v>
       </c>
       <c r="DB3" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="DC3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="DD3" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="DE3" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="DF3" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="DG3" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="DH3" t="n">
         <v>0.9995210660216013</v>
@@ -10557,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587305852606</v>
+        <v>0.2384587305804076</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587305852606</v>
+        <v>0.2384587305804076</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323214878</v>
+        <v>186219.5323178864</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934741395</v>
+        <v>2.776369934688704</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885895</v>
@@ -10575,121 +10575,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780770032198</v>
+        <v>309.3780753313824</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136413926054</v>
+        <v>126.4136407094832</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.372778079035</v>
+        <v>282.3727765531306</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780770032198</v>
+        <v>309.3780753313824</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136413926054</v>
+        <v>126.4136407094832</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.372778079035</v>
+        <v>282.3727765531306</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365048854041</v>
+        <v>247.8365054017342</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23780244064</v>
+        <v>72726.23834568718</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.023014670139269</v>
+        <v>1.023014675647907</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9117312592</v>
+        <v>302836.9121000635</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0338235846</v>
+        <v>373927.0343406142</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.09306133651</v>
+        <v>3790.093061280041</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.3836884777</v>
+        <v>-565396.385114392</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430547729</v>
+        <v>716.2529430659113</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581201618</v>
+        <v>1004.831581216572</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457087234</v>
+        <v>1.402900457086297</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812859002613</v>
+        <v>0.9992812859019458</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911155156561</v>
+        <v>315.6911158449344</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5427040717</v>
+        <v>101954.5434657526</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.808292730050801e-06</v>
+        <v>9.808292656775107e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.11040392298</v>
+        <v>72674.11094690453</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005835423366e-05</v>
+        <v>1.376005825142597e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004048559445948736</v>
+        <v>0.004048559437534063</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113116416416e-05</v>
+        <v>1.592113119114512e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02238288373112577</v>
+        <v>0.02238288377208885</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23780244064</v>
+        <v>72726.23834568718</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.023014670139269</v>
+        <v>1.023014675647907</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.023014670139269</v>
+        <v>1.023014675647907</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9117312592</v>
+        <v>302836.9121000635</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0338235846</v>
+        <v>373927.0343406142</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.09306133651</v>
+        <v>3790.093061280041</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430547729</v>
+        <v>716.2529430659113</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581201618</v>
+        <v>1004.831581216572</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911155156561</v>
+        <v>315.6911158449344</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812859002613</v>
+        <v>0.9992812859019458</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113116416416e-05</v>
+        <v>1.592113119114512e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02238288373112577</v>
+        <v>0.02238288377208885</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10700,97 +10700,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968650283</v>
+        <v>295.5920968650898</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.41655146</v>
+        <v>134591.4165779499</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979527172727</v>
+        <v>1.586979527484886</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309325148</v>
+        <v>336974.630932505</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061346157</v>
+        <v>3790.093061289689</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1242282154</v>
+        <v>-698537.1242117566</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8543580608057</v>
+        <v>717.8543580608749</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.765618720613</v>
+        <v>1006.765618721049</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402465008975171</v>
+        <v>1.402465008975642</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.99953266482343</v>
+        <v>0.9995326648233398</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163636</v>
+        <v>344.801116363663</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.5202553473</v>
+        <v>188672.5202925281</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188912760644e-06</v>
+        <v>5.300188911716161e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.2175191</v>
+        <v>134529.2175455659</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329491104958e-06</v>
+        <v>7.433329489642603e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843599256</v>
+        <v>0.003395573843601002</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665247411e-05</v>
+        <v>1.832907665248091e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.0260669518441956</v>
+        <v>0.02606695184420867</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.41655146</v>
+        <v>134591.4165779499</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979527172727</v>
+        <v>1.586979527484886</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979527172727</v>
+        <v>1.586979527484886</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309325148</v>
+        <v>336974.630932505</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061346157</v>
+        <v>3790.093061289689</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8543580608057</v>
+        <v>717.8543580608749</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.765618720613</v>
+        <v>1006.765618721049</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163636</v>
+        <v>344.801116363663</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.99953266482343</v>
+        <v>0.9995326648233398</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665247411e-05</v>
+        <v>1.832907665248091e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.0260669518441956</v>
+        <v>0.02606695184420867</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10801,97 +10801,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968650283</v>
+        <v>295.5920968650898</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.41655146</v>
+        <v>134591.4165779499</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979527172727</v>
+        <v>1.586979527484886</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309325148</v>
+        <v>336974.630932505</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061346157</v>
+        <v>3790.093061289689</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1242282154</v>
+        <v>-698537.1242117566</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8543580608057</v>
+        <v>717.8543580608749</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.765618720613</v>
+        <v>1006.765618721049</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402465008975171</v>
+        <v>1.402465008975642</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.99953266482343</v>
+        <v>0.9995326648233398</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163636</v>
+        <v>344.801116363663</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.5202553473</v>
+        <v>188672.5202925281</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188912760644e-06</v>
+        <v>5.300188911716161e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.2175191</v>
+        <v>134529.2175455659</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329491104958e-06</v>
+        <v>7.433329489642603e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843599256</v>
+        <v>0.003395573843601002</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665247411e-05</v>
+        <v>1.832907665248091e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.0260669518441956</v>
+        <v>0.02606695184420867</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.41655146</v>
+        <v>134591.4165779499</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979527172727</v>
+        <v>1.586979527484886</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979527172727</v>
+        <v>1.586979527484886</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309325148</v>
+        <v>336974.630932505</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061346157</v>
+        <v>3790.093061289689</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8543580608057</v>
+        <v>717.8543580608749</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.765618720613</v>
+        <v>1006.765618721049</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163636</v>
+        <v>344.801116363663</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.99953266482343</v>
+        <v>0.9995326648233398</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665247411e-05</v>
+        <v>1.832907665248091e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.0260669518441956</v>
+        <v>0.02606695184420867</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10902,37 +10902,37 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01619337326525495</v>
+        <v>0.01619337326053908</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.972005770995316e-07</v>
+        <v>-1.972005757334354e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827868035</v>
+        <v>0.01379727827867997</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007318152</v>
+        <v>0.02510093007319069</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.05509138441653972</v>
+        <v>0.055091384411834</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.578244705692348e-06</v>
+        <v>5.578240824873071e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9800024827999216</v>
+        <v>0.9800024764819391</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9800024827999216</v>
+        <v>0.9800024764819391</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1644174277</v>
+        <v>520038.1635261771</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991768928</v>
+        <v>2.776362991715748</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885895</v>
@@ -10941,166 +10941,166 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>1491.123352895549</v>
+        <v>1491.123352267663</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.006406750832111673</v>
+        <v>0.006406750844285463</v>
       </c>
       <c r="IL3" t="n">
-        <v>-7.140422303142926e-08</v>
+        <v>-7.140422317455005e-08</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.009980278976354786</v>
+        <v>0.009980278995253358</v>
       </c>
       <c r="IN3" t="n">
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.005483760075106472</v>
+        <v>0.005483760085481019</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02457066442077327</v>
+        <v>0.02457066441917486</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.002422640685156795</v>
+        <v>0.002422640682581678</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01187960968159776</v>
+        <v>0.01187960968176784</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.03214502246075868</v>
+        <v>0.03214502245928379</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04299769189623211</v>
+        <v>0.04299769189377018</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1140156291445186</v>
+        <v>0.1140156291365783</v>
       </c>
       <c r="IV3" t="n">
-        <v>-1.656970116670209e-10</v>
+        <v>8.98561780537932e-12</v>
       </c>
       <c r="IW3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX3" t="n">
-        <v>274.2435361051326</v>
+        <v>274.243536092825</v>
       </c>
       <c r="IY3" t="n">
-        <v>112.0574682060406</v>
+        <v>112.0574682010116</v>
       </c>
       <c r="IZ3" t="n">
-        <v>250.305095662672</v>
+        <v>250.3050956514387</v>
       </c>
       <c r="JA3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="JB3" t="n">
-        <v>140.6492035064386</v>
+        <v>140.649203495643</v>
       </c>
       <c r="JC3" t="n">
-        <v>112.0574682060406</v>
+        <v>112.0574682010116</v>
       </c>
       <c r="JD3" t="n">
-        <v>85.00189566267198</v>
+        <v>85.00189565143867</v>
       </c>
       <c r="JE3" t="n">
-        <v>37.18236383647741</v>
+        <v>37.18236383406968</v>
       </c>
       <c r="JF3" t="n">
-        <v>258.0744584721405</v>
+        <v>258.074458475606</v>
       </c>
       <c r="JG3" t="n">
-        <v>84176.2044640298</v>
+        <v>84176.20446666967</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.137062779646016</v>
+        <v>1.137062779666378</v>
       </c>
       <c r="JI3" t="n">
-        <v>310150.1589812709</v>
+        <v>310150.1589837502</v>
       </c>
       <c r="JJ3" t="n">
-        <v>384179.6725409664</v>
+        <v>384179.6725444417</v>
       </c>
       <c r="JK3" t="n">
-        <v>3788.689924010036</v>
+        <v>3788.689924014507</v>
       </c>
       <c r="JL3" t="n">
-        <v>-593584.4279167788</v>
+        <v>-593584.4279275871</v>
       </c>
       <c r="JM3" t="n">
-        <v>716.4975715567131</v>
+        <v>716.4975715567989</v>
       </c>
       <c r="JN3" t="n">
-        <v>1005.154144229292</v>
+        <v>1005.154144229377</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.402871669258311</v>
+        <v>1.402871669258261</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.9993178407371096</v>
+        <v>0.9993178407371349</v>
       </c>
       <c r="JQ3" t="n">
-        <v>322.154192478581</v>
+        <v>322.1541924807465</v>
       </c>
       <c r="JR3" t="n">
-        <v>118008.154563072</v>
+        <v>118008.1545667717</v>
       </c>
       <c r="JS3" t="n">
-        <v>8.473990663632728e-06</v>
+        <v>8.473990663367059e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>84118.99473703258</v>
+        <v>84118.99473967279</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.188792142756979e-05</v>
+        <v>1.188792142719667e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.003888332522590022</v>
+        <v>0.003888332522537703</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.645192271579186e-05</v>
+        <v>1.64519227159699e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02319013352606174</v>
+        <v>0.02319013352633278</v>
       </c>
       <c r="JY3" t="n">
-        <v>84176.2044640298</v>
+        <v>84176.20446666967</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1.137062779646016</v>
+        <v>1.137062779666378</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.137062779646016</v>
+        <v>1.137062779666378</v>
       </c>
       <c r="KB3" t="n">
-        <v>310150.1589812709</v>
+        <v>310150.1589837502</v>
       </c>
       <c r="KC3" t="n">
-        <v>384179.6725409664</v>
+        <v>384179.6725444417</v>
       </c>
       <c r="KD3" t="n">
-        <v>3788.689924010036</v>
+        <v>3788.689924014507</v>
       </c>
       <c r="KE3" t="n">
-        <v>716.4975715567131</v>
+        <v>716.4975715567989</v>
       </c>
       <c r="KF3" t="n">
-        <v>1005.154144229292</v>
+        <v>1005.154144229377</v>
       </c>
       <c r="KG3" t="n">
-        <v>322.154192478581</v>
+        <v>322.1541924807465</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.9993178407371096</v>
+        <v>0.9993178407371349</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.645192271579186e-05</v>
+        <v>1.64519227159699e-05</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.02319013352606174</v>
+        <v>0.02319013352633278</v>
       </c>
       <c r="KK3" t="inlineStr">
         <is>
@@ -11111,97 +11111,97 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>295.593626838431</v>
+        <v>295.593626838426</v>
       </c>
       <c r="KN3" t="n">
-        <v>135251.2391514304</v>
+        <v>135251.2391493226</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.59475488432487</v>
+        <v>1.594754884300032</v>
       </c>
       <c r="KP3" t="n">
-        <v>336974.3825471625</v>
+        <v>336974.382547163</v>
       </c>
       <c r="KQ3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KR3" t="n">
-        <v>3788.689924014607</v>
+        <v>3788.689924019078</v>
       </c>
       <c r="KS3" t="n">
-        <v>-698128.1645170071</v>
+        <v>-698128.1645183098</v>
       </c>
       <c r="KT3" t="n">
-        <v>717.8560767284989</v>
+        <v>717.8560767284935</v>
       </c>
       <c r="KU3" t="n">
-        <v>1006.776452400081</v>
+        <v>1006.776452400046</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.402476742954222</v>
+        <v>1.402476742954184</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.9995304186575491</v>
+        <v>0.9995304186575563</v>
       </c>
       <c r="KX3" t="n">
-        <v>344.8026850521362</v>
+        <v>344.8026850521311</v>
       </c>
       <c r="KY3" t="n">
-        <v>189598.6406016297</v>
+        <v>189598.6405986711</v>
       </c>
       <c r="KZ3" t="n">
-        <v>5.274299419166852e-06</v>
+        <v>5.274299419249153e-06</v>
       </c>
       <c r="LA3" t="n">
-        <v>135188.4382783083</v>
+        <v>135188.4382762024</v>
       </c>
       <c r="LB3" t="n">
-        <v>7.39708227075847e-06</v>
+        <v>7.3970822708737e-06</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.003395617376239338</v>
+        <v>0.0033956173762392</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.832924604020062e-05</v>
+        <v>1.832924604020007e-05</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.02606727748020638</v>
+        <v>0.02606727748020532</v>
       </c>
       <c r="LF3" t="n">
-        <v>135251.2391514304</v>
+        <v>135251.2391493226</v>
       </c>
       <c r="LG3" t="n">
-        <v>1.59475488432487</v>
+        <v>1.594754884300032</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.59475488432487</v>
+        <v>1.594754884300032</v>
       </c>
       <c r="LI3" t="n">
-        <v>336974.3825471625</v>
+        <v>336974.382547163</v>
       </c>
       <c r="LJ3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="LK3" t="n">
-        <v>3788.689924014607</v>
+        <v>3788.689924019078</v>
       </c>
       <c r="LL3" t="n">
-        <v>717.8560767284989</v>
+        <v>717.8560767284935</v>
       </c>
       <c r="LM3" t="n">
-        <v>1006.776452400081</v>
+        <v>1006.776452400046</v>
       </c>
       <c r="LN3" t="n">
-        <v>344.8026850521362</v>
+        <v>344.8026850521311</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.9995304186575491</v>
+        <v>0.9995304186575563</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.832924604020062e-05</v>
+        <v>1.832924604020007e-05</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.02606727748020638</v>
+        <v>0.02606727748020532</v>
       </c>
       <c r="LR3" t="inlineStr">
         <is>
@@ -11212,97 +11212,97 @@
         <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>267.9477589598332</v>
+        <v>267.9477589618823</v>
       </c>
       <c r="LU3" t="n">
-        <v>95969.17446639163</v>
+        <v>95969.17446746452</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.248538319548758</v>
+        <v>1.248538319553143</v>
       </c>
       <c r="LW3" t="n">
-        <v>317205.5502779491</v>
+        <v>317205.5502794168</v>
       </c>
       <c r="LX3" t="n">
-        <v>394070.771764364</v>
+        <v>394070.7717664212</v>
       </c>
       <c r="LY3" t="n">
-        <v>3788.689924016079</v>
+        <v>3788.689924020548</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-621100.202769445</v>
+        <v>-621100.202776349</v>
       </c>
       <c r="MA3" t="n">
-        <v>716.7797158912639</v>
+        <v>716.7797158913227</v>
       </c>
       <c r="MB3" t="n">
-        <v>1005.504916302347</v>
+        <v>1005.504916302394</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.402808832351058</v>
+        <v>1.402808832351009</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.9993635925923688</v>
+        <v>0.9993635925923889</v>
       </c>
       <c r="ME3" t="n">
-        <v>328.2665470198266</v>
+        <v>328.2665470210826</v>
       </c>
       <c r="MF3" t="n">
-        <v>134541.1482499764</v>
+        <v>134541.1482514785</v>
       </c>
       <c r="MG3" t="n">
-        <v>7.432670324338304e-06</v>
+        <v>7.432670324255323e-06</v>
       </c>
       <c r="MH3" t="n">
-        <v>95908.39831289786</v>
+        <v>95908.39831397199</v>
       </c>
       <c r="MI3" t="n">
-        <v>1.042661557893537e-05</v>
+        <v>1.04266155788186e-05</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.003745328368405607</v>
+        <v>0.003745328368376813</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.695598263482828e-05</v>
+        <v>1.69559826349319e-05</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.02395923138851436</v>
+        <v>0.02395923138867253</v>
       </c>
       <c r="MM3" t="n">
-        <v>95969.17446639163</v>
+        <v>95969.17446746452</v>
       </c>
       <c r="MN3" t="n">
-        <v>1.248538319548758</v>
+        <v>1.248538319553143</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.248538319548758</v>
+        <v>1.248538319553143</v>
       </c>
       <c r="MP3" t="n">
-        <v>317205.5502779491</v>
+        <v>317205.5502794168</v>
       </c>
       <c r="MQ3" t="n">
-        <v>394070.771764364</v>
+        <v>394070.7717664212</v>
       </c>
       <c r="MR3" t="n">
-        <v>3788.689924016079</v>
+        <v>3788.689924020548</v>
       </c>
       <c r="MS3" t="n">
-        <v>716.7797158912639</v>
+        <v>716.7797158913227</v>
       </c>
       <c r="MT3" t="n">
-        <v>1005.504916302347</v>
+        <v>1005.504916302394</v>
       </c>
       <c r="MU3" t="n">
-        <v>328.2665470198266</v>
+        <v>328.2665470210826</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.9993635925923688</v>
+        <v>0.9993635925923889</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.695598263482828e-05</v>
+        <v>1.69559826349319e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.02395923138851436</v>
+        <v>0.02395923138867253</v>
       </c>
       <c r="MY3" t="inlineStr">
         <is>
@@ -11313,139 +11313,139 @@
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.8512803573815546</v>
+        <v>0.8512803573376284</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.4365897039064294</v>
+        <v>0.4365897038699842</v>
       </c>
       <c r="NC3" t="n">
-        <v>253325.8283605913</v>
+        <v>253325.8283429421</v>
       </c>
       <c r="ND3" t="n">
-        <v>2.735430551772834</v>
+        <v>2.735430551699056</v>
       </c>
       <c r="NE3" t="n">
-        <v>380408.1977993442</v>
+        <v>380408.197801201</v>
       </c>
       <c r="NF3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG3" t="n">
-        <v>165.2430320932909</v>
+        <v>165.2430598534805</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.6735592941544</v>
+        <v>139.6735745850564</v>
       </c>
       <c r="NI3" t="n">
-        <v>-88.29811147180149</v>
+        <v>-88.29813923505759</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-32.30004473462117</v>
+        <v>-32.30005003846361</v>
       </c>
       <c r="NK3" t="n">
-        <v>289.5208599498754</v>
+        <v>289.5208916454598</v>
       </c>
       <c r="NL3" t="n">
-        <v>139.6735592941544</v>
+        <v>139.6735745850564</v>
       </c>
       <c r="NM3" t="n">
-        <v>-253.6013114718015</v>
+        <v>-253.6013392350576</v>
       </c>
       <c r="NN3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NO3" t="n">
-        <v>226.0874167031116</v>
+        <v>226.0874075377301</v>
       </c>
       <c r="NP3" t="n">
-        <v>50430.91368861274</v>
+        <v>50430.90612049602</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7776565635405868</v>
+        <v>0.7776564783730978</v>
       </c>
       <c r="NR3" t="n">
-        <v>287309.754773337</v>
+        <v>287309.748228479</v>
       </c>
       <c r="NS3" t="n">
-        <v>352159.6075914066</v>
+        <v>352159.5984168299</v>
       </c>
       <c r="NT3" t="n">
-        <v>3803.179030499186</v>
+        <v>3803.179032964501</v>
       </c>
       <c r="NU3" t="n">
-        <v>-507691.314673599</v>
+        <v>-507691.2895479656</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8670634492657</v>
+        <v>715.8670633255749</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.23798630971</v>
+        <v>1004.237986116725</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402827476753834</v>
+        <v>1.402827476726639</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992550991008301</v>
+        <v>0.999255099089066</v>
       </c>
       <c r="NZ3" t="n">
-        <v>301.5053498149504</v>
+        <v>301.5053436970531</v>
       </c>
       <c r="OA3" t="n">
-        <v>70693.24004754632</v>
+        <v>70693.22943645796</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.41456240982508e-05</v>
+        <v>1.414562622151591e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>50393.3956377385</v>
+        <v>50393.38807464317</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.984387016085739e-05</v>
+        <v>1.984387313904734e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004436542509745133</v>
+        <v>0.004436542689118485</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.476447705431024e-05</v>
+        <v>1.476447655839928e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02063301338409859</v>
+        <v>0.02063301263676283</v>
       </c>
       <c r="OH3" t="n">
-        <v>50430.91368861274</v>
+        <v>50430.90612049602</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.7776565635405868</v>
+        <v>0.7776564783730978</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.7776565635405868</v>
+        <v>0.7776564783730978</v>
       </c>
       <c r="OK3" t="n">
-        <v>287309.754773337</v>
+        <v>287309.748228479</v>
       </c>
       <c r="OL3" t="n">
-        <v>352159.6075914066</v>
+        <v>352159.5984168299</v>
       </c>
       <c r="OM3" t="n">
-        <v>3803.179030499186</v>
+        <v>3803.179032964501</v>
       </c>
       <c r="ON3" t="n">
-        <v>715.8670634492657</v>
+        <v>715.8670633255749</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.23798630971</v>
+        <v>1004.237986116725</v>
       </c>
       <c r="OP3" t="n">
-        <v>301.5053498149504</v>
+        <v>301.5053436970531</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992550991008301</v>
+        <v>0.999255099089066</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.476447705431024e-05</v>
+        <v>1.476447655839928e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02063301338409859</v>
+        <v>0.02063301263676283</v>
       </c>
       <c r="OT3" t="inlineStr">
         <is>
@@ -11456,97 +11456,97 @@
         <v>1</v>
       </c>
       <c r="OV3" t="n">
-        <v>239.7227030766666</v>
+        <v>239.7226984936771</v>
       </c>
       <c r="OW3" t="n">
-        <v>61869.27152283504</v>
+        <v>61869.26686360961</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.8997440086185224</v>
+        <v>0.8997439580684199</v>
       </c>
       <c r="OY3" t="n">
-        <v>297049.0437436888</v>
+        <v>297049.0404713747</v>
       </c>
       <c r="OZ3" t="n">
-        <v>365812.2374189987</v>
+        <v>365812.2328316004</v>
       </c>
       <c r="PA3" t="n">
-        <v>3803.179030493237</v>
+        <v>3803.179032958551</v>
       </c>
       <c r="PB3" t="n">
-        <v>-545896.1200553363</v>
+        <v>-545896.107803797</v>
       </c>
       <c r="PC3" t="n">
-        <v>716.0797252230282</v>
+        <v>716.0797251377039</v>
       </c>
       <c r="PD3" t="n">
-        <v>1004.537704778466</v>
+        <v>1004.537704651516</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.402829418841032</v>
+        <v>1.402829418830901</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9992879326735983</v>
+        <v>0.9992879326666561</v>
       </c>
       <c r="PG3" t="n">
-        <v>310.4746072484173</v>
+        <v>310.4746042772994</v>
       </c>
       <c r="PH3" t="n">
-        <v>86730.35741490411</v>
+        <v>86730.35088220352</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.152998822795299e-05</v>
+        <v>1.152998909641438e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>61825.30552186285</v>
+        <v>61825.3008655061</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.617460668506324e-05</v>
+        <v>1.617460790324961e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.004184687595934141</v>
+        <v>0.00418468767566406</v>
       </c>
       <c r="PM3" t="n">
-        <v>1.549400299594753e-05</v>
+        <v>1.549400275334273e-05</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.02173487735404462</v>
+        <v>0.02173487698667381</v>
       </c>
       <c r="PO3" t="n">
-        <v>61869.27152283504</v>
+        <v>61869.26686360961</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.8997440086185224</v>
+        <v>0.8997439580684199</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.8997440086185224</v>
+        <v>0.8997439580684199</v>
       </c>
       <c r="PR3" t="n">
-        <v>297049.0437436888</v>
+        <v>297049.0404713747</v>
       </c>
       <c r="PS3" t="n">
-        <v>365812.2374189987</v>
+        <v>365812.2328316004</v>
       </c>
       <c r="PT3" t="n">
-        <v>3803.179030493237</v>
+        <v>3803.179032958551</v>
       </c>
       <c r="PU3" t="n">
-        <v>716.0797252230282</v>
+        <v>716.0797251377039</v>
       </c>
       <c r="PV3" t="n">
-        <v>1004.537704778466</v>
+        <v>1004.537704651516</v>
       </c>
       <c r="PW3" t="n">
-        <v>310.4746072484173</v>
+        <v>310.4746042772994</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.9992879326735983</v>
+        <v>0.9992879326666561</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.549400299594753e-05</v>
+        <v>1.549400275334273e-05</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.02173487735404462</v>
+        <v>0.02173487698667381</v>
       </c>
       <c r="QA3" t="inlineStr">
         <is>
@@ -11557,97 +11557,97 @@
         <v>1</v>
       </c>
       <c r="QC3" t="n">
-        <v>267.9343822406115</v>
+        <v>267.9343822400385</v>
       </c>
       <c r="QD3" t="n">
-        <v>91242.39403962491</v>
+        <v>91242.39325747557</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.187066327847925</v>
+        <v>1.187066317668551</v>
       </c>
       <c r="QF3" t="n">
-        <v>317207.0010559523</v>
+        <v>317207.0010573695</v>
       </c>
       <c r="QG3" t="n">
-        <v>394070.771764571</v>
+        <v>394070.7717662206</v>
       </c>
       <c r="QH3" t="n">
-        <v>3803.179030495519</v>
+        <v>3803.179032960833</v>
       </c>
       <c r="QI3" t="n">
-        <v>-624931.6523216936</v>
+        <v>-624931.6529784071</v>
       </c>
       <c r="QJ3" t="n">
-        <v>716.7640334795581</v>
+        <v>716.7640334770073</v>
       </c>
       <c r="QK3" t="n">
-        <v>1005.40674753363</v>
+        <v>1005.406747517406</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.402702563984475</v>
+        <v>1.402702563966832</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.9993946229377042</v>
+        <v>0.9993946229428623</v>
       </c>
       <c r="QN3" t="n">
-        <v>328.2560622437337</v>
+        <v>328.2560622430046</v>
       </c>
       <c r="QO3" t="n">
-        <v>127908.8212895994</v>
+        <v>127908.8201921827</v>
       </c>
       <c r="QP3" t="n">
-        <v>7.818069073874835e-06</v>
+        <v>7.818069140951359e-06</v>
       </c>
       <c r="QQ3" t="n">
-        <v>91187.41533220372</v>
+        <v>91187.41455099192</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.096642553533196e-05</v>
+        <v>1.096642562928244e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.003744864567285361</v>
+        <v>0.003744864567185435</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.695458758527709e-05</v>
+        <v>1.695458758512912e-05</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.02395652021695766</v>
+        <v>0.02395652021663548</v>
       </c>
       <c r="QV3" t="n">
-        <v>91242.39403962491</v>
+        <v>91242.39325747557</v>
       </c>
       <c r="QW3" t="n">
-        <v>1.187066327847925</v>
+        <v>1.187066317668551</v>
       </c>
       <c r="QX3" t="n">
-        <v>1.187066327847925</v>
+        <v>1.187066317668551</v>
       </c>
       <c r="QY3" t="n">
-        <v>317207.0010559523</v>
+        <v>317207.0010573695</v>
       </c>
       <c r="QZ3" t="n">
-        <v>394070.771764571</v>
+        <v>394070.7717662206</v>
       </c>
       <c r="RA3" t="n">
-        <v>3803.179030495519</v>
+        <v>3803.179032960833</v>
       </c>
       <c r="RB3" t="n">
-        <v>716.7640334795581</v>
+        <v>716.7640334770073</v>
       </c>
       <c r="RC3" t="n">
-        <v>1005.40674753363</v>
+        <v>1005.406747517406</v>
       </c>
       <c r="RD3" t="n">
-        <v>328.2560622437337</v>
+        <v>328.2560622430046</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.9993946229377042</v>
+        <v>0.9993946229428623</v>
       </c>
       <c r="RF3" t="n">
-        <v>1.695458758527709e-05</v>
+        <v>1.695458758512912e-05</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.02395652021695766</v>
+        <v>0.02395652021663548</v>
       </c>
       <c r="RH3" t="inlineStr">
         <is>
@@ -11658,64 +11658,64 @@
         <v>1</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.0248605637758419</v>
+        <v>0.02486056328706344</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.003173845449272648</v>
+        <v>0.003173845716938144</v>
       </c>
       <c r="RL3" t="n">
-        <v>0.01184586017380052</v>
+        <v>0.01184586017391482</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.03243958782104937</v>
+        <v>0.03243958782005641</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.0434834477563689</v>
+        <v>0.04348344775472698</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.1158033049763333</v>
+        <v>0.1158033047526998</v>
       </c>
       <c r="RP3" t="n">
-        <v>1.656693501460305e-05</v>
+        <v>1.656708664359019e-05</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.5480600334113778</v>
+        <v>0.5480601366041248</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.9602511535121001</v>
+        <v>0.9602512781211764</v>
       </c>
       <c r="RS3" t="n">
-        <v>397396.5057352821</v>
+        <v>397396.5190663354</v>
       </c>
       <c r="RT3" t="n">
-        <v>2.735411233502491</v>
+        <v>2.735411233387217</v>
       </c>
       <c r="RU3" t="n">
-        <v>380408.1977993442</v>
+        <v>380408.197801201</v>
       </c>
       <c r="RV3" t="n">
         <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>2827.53664745111</v>
+        <v>2827.536643078492</v>
       </c>
       <c r="RX3" t="n">
-        <v>6.861653754121313</v>
+        <v>6.861653750425795</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.008937380200416522</v>
+        <v>0.008937380207336828</v>
       </c>
       <c r="RZ3" t="n">
-        <v>0.0008812159297547573</v>
+        <v>0.0008812159295577403</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.01169249159741231</v>
+        <v>0.01169249160669009</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.01564006221549709</v>
+        <v>0.01564006222772929</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.00432111181605755</v>
+        <v>0.004321111819746404</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4123066041862954</v>
+        <v>0.4123066041943951</v>
       </c>
     </row>
     <row r="3">
@@ -11762,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4268411827258528</v>
+        <v>0.4268411827596637</v>
       </c>
     </row>
   </sheetData>
@@ -11776,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12010,6 +12010,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12017,223 +12237,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
     <row r="3">
@@ -12242,223 +12510,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
   </sheetData>
@@ -12546,13 +12862,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>4.741872387522736e-08</v>
+        <v>6.055392444652356e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12574,16 +12890,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="H3" t="n">
-        <v>8.18996106177464e-08</v>
+        <v>1.048744171665753e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_linux/performance_analysis_zero_deviation_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_zero_deviation_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.017700569894392</v>
+        <v>2.017683707177639</v>
       </c>
       <c r="C2" t="n">
-        <v>2.29999999995038</v>
+        <v>2.299999999886186</v>
       </c>
       <c r="D2" t="n">
-        <v>2.717718920632669</v>
+        <v>2.717827763833949</v>
       </c>
       <c r="E2" t="n">
-        <v>92.56953368473424</v>
+        <v>92.58172730599131</v>
       </c>
       <c r="F2" t="n">
-        <v>79.21432923134381</v>
+        <v>79.22426577752783</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1442721370821041</v>
+        <v>0.1442775147661243</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.35860136842591</v>
+        <v>-78.36854329229396</v>
       </c>
       <c r="I2" t="n">
-        <v>135281.2075843684</v>
+        <v>135303.5957097373</v>
       </c>
       <c r="J2" t="n">
-        <v>83.14763834318894</v>
+        <v>83.16139871526569</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.83992753095144</v>
+        <v>-24.84071236481018</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6544847698097</v>
+        <v>134.6569943414354</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372006.9480099216</v>
+        <v>372000.7039848274</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7130441830355951</v>
+        <v>0.7130584614133004</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.072851537980646</v>
+        <v>2.072822898362821</v>
       </c>
       <c r="C3" t="n">
-        <v>2.40000000009274</v>
+        <v>2.399999999875297</v>
       </c>
       <c r="D3" t="n">
-        <v>2.72510177578099</v>
+        <v>2.725272388135672</v>
       </c>
       <c r="E3" t="n">
-        <v>92.52049239951344</v>
+        <v>92.53991849753426</v>
       </c>
       <c r="F3" t="n">
-        <v>78.35440557020578</v>
+        <v>78.37014814632666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1531129640786711</v>
+        <v>0.1531206270900827</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.50751853428446</v>
+        <v>-77.52326877341675</v>
       </c>
       <c r="I3" t="n">
-        <v>140209.3213340767</v>
+        <v>140246.2714379792</v>
       </c>
       <c r="J3" t="n">
-        <v>86.17659578001026</v>
+        <v>86.19930635401306</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.93527213861085</v>
+        <v>-26.93624723686812</v>
       </c>
       <c r="M3" t="n">
-        <v>141.8033039846651</v>
+        <v>141.8068524325299</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370333.3907714278</v>
+        <v>370323.053485186</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7014098127078934</v>
+        <v>0.701431769191833</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.92994373040104</v>
+        <v>79.93332877012494</v>
       </c>
       <c r="D2" t="n">
-        <v>79.92994373040104</v>
+        <v>79.93332877012494</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.92994373040104</v>
+        <v>79.93332877012494</v>
       </c>
       <c r="H2" t="n">
-        <v>79.92994373040104</v>
+        <v>79.93332877012494</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4149504416868</v>
+        <v>292.4146806412677</v>
       </c>
       <c r="L2" t="n">
-        <v>132871.7007982364</v>
+        <v>132871.2722726857</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583779025142713</v>
+        <v>1.583775381563404</v>
       </c>
       <c r="N2" t="n">
-        <v>334694.6798774105</v>
+        <v>334694.4868709503</v>
       </c>
       <c r="O2" t="n">
-        <v>418590.0331362172</v>
+        <v>418589.7625643529</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687591.5556218085</v>
+        <v>-687590.8055609873</v>
       </c>
       <c r="R2" t="n">
-        <v>717.715738724586</v>
+        <v>717.7157265025962</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.650945680663</v>
+        <v>1006.650931500578</v>
       </c>
       <c r="T2" t="n">
-        <v>1.40257610550596</v>
+        <v>1.402576109633201</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994984012260878</v>
+        <v>0.9994983993404417</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9448990722734</v>
+        <v>342.9447407143612</v>
       </c>
       <c r="W2" t="n">
-        <v>186270.1576997368</v>
+        <v>186269.55715056</v>
       </c>
       <c r="X2" t="n">
-        <v>5.368546482963615e-06</v>
+        <v>5.368563791622208e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132805.7400725093</v>
+        <v>132805.3115058924</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.529795018302824e-06</v>
+        <v>7.529819317171146e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432727394130065</v>
+        <v>0.003432730556269551</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817446758362552e-05</v>
+        <v>1.817445438355539e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582901598902045</v>
+        <v>0.02582899565642819</v>
       </c>
       <c r="AD2" t="n">
-        <v>132871.7007982364</v>
+        <v>132871.2722726857</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583779025142713</v>
+        <v>1.583775381563404</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583779025142713</v>
+        <v>1.583775381563404</v>
       </c>
       <c r="AG2" t="n">
-        <v>334694.6798774105</v>
+        <v>334694.4868709503</v>
       </c>
       <c r="AH2" t="n">
-        <v>418590.0331362172</v>
+        <v>418589.7625643529</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.715738724586</v>
+        <v>717.7157265025962</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.650945680663</v>
+        <v>1006.650931500578</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9448990722734</v>
+        <v>342.9447407143612</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994984012260878</v>
+        <v>0.9994983993404417</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817446758362552e-05</v>
+        <v>1.817445438355539e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582901598902045</v>
+        <v>0.02582899565642819</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2330693471360142</v>
+        <v>0.2330793252686194</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2330693471360142</v>
+        <v>0.2330793252686194</v>
       </c>
       <c r="DH2" t="n">
-        <v>182213.3265300506</v>
+        <v>182220.7564154517</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.717718920594411</v>
+        <v>2.717827763674028</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>267.9512936485669</v>
+        <v>267.9896903170668</v>
       </c>
       <c r="DV2" t="n">
-        <v>109.4864221604885</v>
+        <v>109.5021112575617</v>
       </c>
       <c r="DW2" t="n">
-        <v>244.5620966757438</v>
+        <v>244.5971417379483</v>
       </c>
       <c r="DX2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DY2" t="n">
-        <v>267.9512936485669</v>
+        <v>267.9896903170668</v>
       </c>
       <c r="DZ2" t="n">
-        <v>109.4864221604885</v>
+        <v>109.5021112575617</v>
       </c>
       <c r="EA2" t="n">
-        <v>244.5620966757438</v>
+        <v>244.5971417379483</v>
       </c>
       <c r="EB2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EC2" t="n">
-        <v>259.7774761347451</v>
+        <v>259.7672033178825</v>
       </c>
       <c r="ED2" t="n">
-        <v>86160.51930532586</v>
+        <v>86148.21423486371</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.156228926537886</v>
+        <v>1.156109565546921</v>
       </c>
       <c r="EF2" t="n">
-        <v>311366.9191659651</v>
+        <v>311359.5799380386</v>
       </c>
       <c r="EG2" t="n">
-        <v>385885.4832044186</v>
+        <v>385875.1940304707</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.59432763916</v>
+        <v>3788.595689571994</v>
       </c>
       <c r="EI2" t="n">
-        <v>-598305.9893280941</v>
+        <v>-598277.7127518308</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5428706243761</v>
+        <v>716.5425923190786</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.211773251081</v>
+        <v>1005.21141606025</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402863407705344</v>
+        <v>1.40286345408568</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993250048389496</v>
+        <v>0.9993249628179025</v>
       </c>
       <c r="EN2" t="n">
-        <v>323.216764237842</v>
+        <v>323.2103650740299</v>
       </c>
       <c r="EO2" t="n">
-        <v>120790.1683911857</v>
+        <v>120772.9165038238</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.278819487704037e-06</v>
+        <v>8.280002081164773e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>86102.5868432633</v>
+        <v>86090.28637255209</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.161405291829789e-05</v>
+        <v>1.161571231941943e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.00386289647708752</v>
+        <v>0.003863048875942189</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.653940697266104e-05</v>
+        <v>1.653887989682867e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02332344292837105</v>
+        <v>0.02332263950935827</v>
       </c>
       <c r="EV2" t="n">
-        <v>86160.51930532586</v>
+        <v>86148.21423486371</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.156228926537886</v>
+        <v>1.156109565546921</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.156228926537886</v>
+        <v>1.156109565546921</v>
       </c>
       <c r="EY2" t="n">
-        <v>311366.9191659651</v>
+        <v>311359.5799380386</v>
       </c>
       <c r="EZ2" t="n">
-        <v>385885.4832044186</v>
+        <v>385875.1940304707</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.59432763916</v>
+        <v>3788.595689571994</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5428706243761</v>
+        <v>716.5425923190786</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.211773251081</v>
+        <v>1005.21141606025</v>
       </c>
       <c r="FD2" t="n">
-        <v>323.216764237842</v>
+        <v>323.2103650740299</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993250048389496</v>
+        <v>0.9993249628179025</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.653940697266104e-05</v>
+        <v>1.653887989682867e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02332344292837105</v>
+        <v>0.02332263950935827</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.593731346692</v>
+        <v>295.5937298576562</v>
       </c>
       <c r="FK2" t="n">
-        <v>135296.3107290874</v>
+        <v>135295.6685058312</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.595286006643145</v>
+        <v>1.595278438701702</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3655794322</v>
+        <v>336974.3658212752</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.594327651566</v>
+        <v>3788.595689577194</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698100.302780949</v>
+        <v>-698100.6997161719</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.856194126612</v>
+        <v>717.8561924538163</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.777192427189</v>
+        <v>1006.777181882579</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402477544478245</v>
+        <v>1.402477533057361</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995302652409265</v>
+        <v>0.9995302674269413</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8027922114899</v>
+        <v>344.8027906846324</v>
       </c>
       <c r="FV2" t="n">
-        <v>189661.9030332941</v>
+        <v>189661.0016088492</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.272540157020652e-06</v>
+        <v>5.272565216450603e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135233.4686427031</v>
+        <v>135232.8270067853</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.394619172581267e-06</v>
+        <v>7.394654257651695e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395620349783013</v>
+        <v>0.003395620307412075</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832925761099075e-05</v>
+        <v>1.832925744612354e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606729972443943</v>
+        <v>0.02606729940748894</v>
       </c>
       <c r="GC2" t="n">
-        <v>135296.3107290874</v>
+        <v>135295.6685058312</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595286006643145</v>
+        <v>1.595278438701702</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.595286006643145</v>
+        <v>1.595278438701702</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3655794322</v>
+        <v>336974.3658212752</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.594327651566</v>
+        <v>3788.595689577194</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.856194126612</v>
+        <v>717.8561924538163</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.777192427189</v>
+        <v>1006.777181882579</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8027922114899</v>
+        <v>344.8027906846324</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995302652409265</v>
+        <v>0.9995302674269413</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832925761099075e-05</v>
+        <v>1.832925744612354e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606729972443943</v>
+        <v>0.02606729940748894</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.593731346692</v>
+        <v>295.5937298576562</v>
       </c>
       <c r="GR2" t="n">
-        <v>135296.3107290874</v>
+        <v>135295.6685058312</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595286006643145</v>
+        <v>1.595278438701702</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3655794322</v>
+        <v>336974.3658212752</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.594327651566</v>
+        <v>3788.595689577194</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698100.302780949</v>
+        <v>-698100.6997161719</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.856194126612</v>
+        <v>717.8561924538163</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.777192427189</v>
+        <v>1006.777181882579</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402477544478245</v>
+        <v>1.402477533057361</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995302652409265</v>
+        <v>0.9995302674269413</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8027922114899</v>
+        <v>344.8027906846324</v>
       </c>
       <c r="HC2" t="n">
-        <v>189661.9030332941</v>
+        <v>189661.0016088492</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.272540157020652e-06</v>
+        <v>5.272565216450603e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135233.4686427031</v>
+        <v>135232.8270067853</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.394619172581267e-06</v>
+        <v>7.394654257651695e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395620349783013</v>
+        <v>0.003395620307412075</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832925761099075e-05</v>
+        <v>1.832925744612354e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606729972443943</v>
+        <v>0.02606729940748894</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135296.3107290874</v>
+        <v>135295.6685058312</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595286006643145</v>
+        <v>1.595278438701702</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.595286006643145</v>
+        <v>1.595278438701702</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3655794322</v>
+        <v>336974.3658212752</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.594327651566</v>
+        <v>3788.595689577194</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.856194126612</v>
+        <v>717.8561924538163</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.777192427189</v>
+        <v>1006.777181882579</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8027922114899</v>
+        <v>344.8027906846324</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995302652409265</v>
+        <v>0.9995302674269413</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832925761099075e-05</v>
+        <v>1.832925744612354e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606729972443943</v>
+        <v>0.02606729940748894</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8290142198546129</v>
+        <v>0.8291494310700247</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8290142198546129</v>
+        <v>0.8291494310700247</v>
       </c>
       <c r="HZ2" t="n">
-        <v>490024.1617712556</v>
+        <v>490059.4040952298</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.717718920681336</v>
+        <v>2.717827763672152</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01611691534496276</v>
+        <v>0.01611694364956621</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.785867205460855e-07</v>
+        <v>-1.786017619900206e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01379684642892035</v>
+        <v>0.01379684724109582</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.02511126098069149</v>
+        <v>0.02511124158154929</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.05502484416785406</v>
+        <v>0.05502485387044934</v>
       </c>
       <c r="II2" t="n">
-        <v>-1.099717539254641e-12</v>
+        <v>-1.306732499983809e-13</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>384414.8882392677</v>
+        <v>384404.3054281449</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>267.9512936485669</v>
+        <v>267.9896903170668</v>
       </c>
       <c r="IN2" t="n">
-        <v>109.4864221604885</v>
+        <v>109.5021112575617</v>
       </c>
       <c r="IO2" t="n">
-        <v>244.5620966757438</v>
+        <v>244.5971417379483</v>
       </c>
       <c r="IP2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IQ2" t="n">
-        <v>135.1637870872259</v>
+        <v>135.1970471800496</v>
       </c>
       <c r="IR2" t="n">
-        <v>109.4864221604885</v>
+        <v>109.5021112575617</v>
       </c>
       <c r="IS2" t="n">
-        <v>79.25889667574376</v>
+        <v>79.29394173794827</v>
       </c>
       <c r="IT2" t="n">
-        <v>35.90135448002813</v>
+        <v>35.90948604781939</v>
       </c>
       <c r="IU2" t="n">
-        <v>259.777476134745</v>
+        <v>259.7672033177829</v>
       </c>
       <c r="IV2" t="n">
-        <v>86160.51930524305</v>
+        <v>86148.21423474778</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.156228926536774</v>
+        <v>1.156109565545809</v>
       </c>
       <c r="IX2" t="n">
-        <v>311366.9191659653</v>
+        <v>311359.5799379674</v>
       </c>
       <c r="IY2" t="n">
-        <v>385885.4832044189</v>
+        <v>385875.1940303709</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.594327639437</v>
+        <v>3788.595689571995</v>
       </c>
       <c r="JA2" t="n">
-        <v>-598305.9893281654</v>
+        <v>-598277.7127515535</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.5428706243757</v>
+        <v>716.5425923190762</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.21177325108</v>
+        <v>1005.211416060247</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402863407705342</v>
+        <v>1.40286345408568</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993250048389503</v>
+        <v>0.9993249628179021</v>
       </c>
       <c r="JF2" t="n">
-        <v>323.216764237842</v>
+        <v>323.2103650739678</v>
       </c>
       <c r="JG2" t="n">
-        <v>120790.1683910695</v>
+        <v>120772.9165036612</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.278819487712001e-06</v>
+        <v>8.280002081175917e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>86102.58684318059</v>
+        <v>86090.28637243618</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.161405291830905e-05</v>
+        <v>1.161571231943507e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003862896477087509</v>
+        <v>0.003863048875943669</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.653940697266102e-05</v>
+        <v>1.653887989682356e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02332344292837101</v>
+        <v>0.02332263950935047</v>
       </c>
       <c r="JN2" t="n">
-        <v>86160.51930524305</v>
+        <v>86148.21423474778</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.156228926536774</v>
+        <v>1.156109565545809</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.156228926536774</v>
+        <v>1.156109565545809</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311366.9191659653</v>
+        <v>311359.5799379674</v>
       </c>
       <c r="JR2" t="n">
-        <v>385885.4832044189</v>
+        <v>385875.1940303709</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.594327639437</v>
+        <v>3788.595689571995</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.5428706243757</v>
+        <v>716.5425923190762</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.21177325108</v>
+        <v>1005.211416060247</v>
       </c>
       <c r="JV2" t="n">
-        <v>323.216764237842</v>
+        <v>323.2103650739678</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993250048389503</v>
+        <v>0.9993249628179021</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.653940697266102e-05</v>
+        <v>1.653887989682356e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02332344292837101</v>
+        <v>0.02332263950935047</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5937313467995</v>
+        <v>295.5937298576562</v>
       </c>
       <c r="KC2" t="n">
-        <v>135296.3107325148</v>
+        <v>135295.6685058307</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.595286006682995</v>
+        <v>1.595278438701696</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3655795025</v>
+        <v>336974.3658212752</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.594327644637</v>
+        <v>3788.595689577195</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698100.3027792081</v>
+        <v>-698100.6997161722</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8561941266252</v>
+        <v>717.8561924538163</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.777192427248</v>
+        <v>1006.777181882579</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402477544478302</v>
+        <v>1.402477533057361</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.999530265240916</v>
+        <v>0.9995302674269413</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.802792211556</v>
+        <v>344.8027906846324</v>
       </c>
       <c r="KN2" t="n">
-        <v>189661.9030381045</v>
+        <v>189661.0016088485</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.272540156886923e-06</v>
+        <v>5.272565216450622e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135233.4686461276</v>
+        <v>135232.8270067848</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.394619172394013e-06</v>
+        <v>7.39465425765172e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395620349782082</v>
+        <v>0.003395620307412075</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832925761099646e-05</v>
+        <v>1.832925744612354e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606729972444855</v>
+        <v>0.02606729940748894</v>
       </c>
       <c r="KU2" t="n">
-        <v>135296.3107325148</v>
+        <v>135295.6685058307</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.595286006682995</v>
+        <v>1.595278438701696</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.595286006682995</v>
+        <v>1.595278438701696</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3655795025</v>
+        <v>336974.3658212752</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.594327644637</v>
+        <v>3788.595689577195</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8561941266252</v>
+        <v>717.8561924538163</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.777192427248</v>
+        <v>1006.777181882579</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.802792211556</v>
+        <v>344.8027906846324</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.999530265240916</v>
+        <v>0.9995302674269413</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832925761099646e-05</v>
+        <v>1.832925744612354e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606729972444855</v>
+        <v>0.02606729940748894</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.8953286526333</v>
+        <v>268.8895457115076</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97192.07028990496</v>
+        <v>97184.30991698727</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.259986353682589</v>
+        <v>1.259912878371082</v>
       </c>
       <c r="LL2" t="n">
-        <v>317882.7087226442</v>
+        <v>317878.5766325996</v>
       </c>
       <c r="LM2" t="n">
-        <v>395020.1078744999</v>
+        <v>395014.3148136674</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.594327639437</v>
+        <v>3788.595689565381</v>
       </c>
       <c r="LO2" t="n">
-        <v>-623715.208987609</v>
+        <v>-623699.4590381435</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8095260456713</v>
+        <v>716.8093418300099</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.54190545859</v>
+        <v>1005.541672840655</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402802095845086</v>
+        <v>1.402802131838172</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993681492994498</v>
+        <v>0.9993681229800216</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.8471955597161</v>
+        <v>328.8436548897282</v>
       </c>
       <c r="LU2" t="n">
-        <v>136255.5265953494</v>
+        <v>136244.6470234352</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.339151849376297e-06</v>
+        <v>7.339737904183436e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>97130.96879375949</v>
+        <v>97123.21070178725</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.029537759603041e-05</v>
+        <v>1.029619997912196e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003732159335875348</v>
+        <v>0.003732239388733705</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.700397342642844e-05</v>
+        <v>1.700368070656862e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02403259065093341</v>
+        <v>0.02403214309523473</v>
       </c>
       <c r="MB2" t="n">
-        <v>97192.07028990496</v>
+        <v>97184.30991698727</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.259986353682589</v>
+        <v>1.259912878371082</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.259986353682589</v>
+        <v>1.259912878371082</v>
       </c>
       <c r="ME2" t="n">
-        <v>317882.7087226442</v>
+        <v>317878.5766325996</v>
       </c>
       <c r="MF2" t="n">
-        <v>395020.1078744999</v>
+        <v>395014.3148136674</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.594327639437</v>
+        <v>3788.595689565381</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8095260456713</v>
+        <v>716.8093418300099</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.54190545859</v>
+        <v>1005.541672840655</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.8471955597161</v>
+        <v>328.8436548897282</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.9993681492994498</v>
+        <v>0.9993681229800216</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.700397342642844e-05</v>
+        <v>1.700368070656862e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02403259065093341</v>
+        <v>0.02403214309523473</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.829014219854613</v>
+        <v>0.8291494310701839</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4181830958117149</v>
+        <v>0.4182942807205744</v>
       </c>
       <c r="MR2" t="n">
-        <v>246240.0323827933</v>
+        <v>246283.0474504805</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.717718920678723</v>
+        <v>2.717827763669538</v>
       </c>
       <c r="MT2" t="n">
-        <v>381357.5339092796</v>
+        <v>381351.7408484534</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>134.6544847698097</v>
+        <v>134.6569943414354</v>
       </c>
       <c r="MW2" t="n">
-        <v>122.1969191696604</v>
+        <v>122.1984217011286</v>
       </c>
       <c r="MX2" t="n">
-        <v>-56.56627276095185</v>
+        <v>-56.56900086463011</v>
       </c>
       <c r="MY2" t="n">
-        <v>-24.83992753095144</v>
+        <v>-24.84071236481018</v>
       </c>
       <c r="MZ2" t="n">
-        <v>253.2945913314757</v>
+        <v>253.2977058379361</v>
       </c>
       <c r="NA2" t="n">
-        <v>122.1969191696604</v>
+        <v>122.1984217011286</v>
       </c>
       <c r="NB2" t="n">
-        <v>-221.8694727609519</v>
+        <v>-221.8722008646301</v>
       </c>
       <c r="NC2" t="n">
-        <v>-61.15576777799676</v>
+        <v>-61.15576777799675</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.8577784226609</v>
+        <v>236.8512258767518</v>
       </c>
       <c r="NE2" t="n">
-        <v>60000.00000029508</v>
+        <v>60000.00000196973</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8831280873740293</v>
+        <v>0.8831525969545506</v>
       </c>
       <c r="NG2" t="n">
-        <v>295000.7183751476</v>
+        <v>294996.0219249018</v>
       </c>
       <c r="NH2" t="n">
-        <v>362941.0328755099</v>
+        <v>362934.4509221926</v>
       </c>
       <c r="NI2" t="n">
-        <v>3799.929754839241</v>
+        <v>3799.901965816215</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537101.8870178793</v>
+        <v>-537076.9878928567</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.0325578009368</v>
+        <v>716.0324731137675</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487930872793</v>
+        <v>1004.487939715979</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402852314366478</v>
+        <v>1.402852492636015</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992718914417112</v>
+        <v>0.9992718036321439</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6113425346385</v>
+        <v>308.6070662108619</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.96749889257</v>
+        <v>84109.97079917735</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188919731794173e-05</v>
+        <v>1.188919685143656e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.39500860523</v>
+        <v>59956.38974211139</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667878797343428e-05</v>
+        <v>1.667878943847803e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004235352711825816</v>
+        <v>0.004235470942710504</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534216017421965e-05</v>
+        <v>1.534181276304117e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150521903519859</v>
+        <v>0.02150469452723432</v>
       </c>
       <c r="NW2" t="n">
-        <v>60000.00000029508</v>
+        <v>60000.00000196973</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8831280873740293</v>
+        <v>0.8831525969545506</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8831280873740293</v>
+        <v>0.8831525969545506</v>
       </c>
       <c r="NZ2" t="n">
-        <v>295000.7183751476</v>
+        <v>294996.0219249018</v>
       </c>
       <c r="OA2" t="n">
-        <v>362941.0328755099</v>
+        <v>362934.4509221926</v>
       </c>
       <c r="OB2" t="n">
-        <v>3799.929754839241</v>
+        <v>3799.901965816215</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.0325578009368</v>
+        <v>716.0324731137675</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487930872793</v>
+        <v>1004.487939715979</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6113425346385</v>
+        <v>308.6070662108619</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992718914417112</v>
+        <v>0.9992718036321439</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534216017421965e-05</v>
+        <v>1.534181276304117e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150521903519859</v>
+        <v>0.02150469452723432</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>245.911191124676</v>
+        <v>245.9049783229015</v>
       </c>
       <c r="OL2" t="n">
-        <v>68394.68752537674</v>
+        <v>68395.25913144118</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9695995977906571</v>
+        <v>0.9696322837045253</v>
       </c>
       <c r="ON2" t="n">
-        <v>301467.843330813</v>
+        <v>301463.387642457</v>
       </c>
       <c r="OO2" t="n">
-        <v>372006.9480099216</v>
+        <v>372000.7039848274</v>
       </c>
       <c r="OP2" t="n">
-        <v>3799.929754838387</v>
+        <v>3799.901965824792</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562438.3041924839</v>
+        <v>-562414.1065504687</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2025895025456</v>
+        <v>716.2024887047354</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.717083342909</v>
+        <v>1004.717083514049</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.402839221847491</v>
+        <v>1.402839419521004</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9992989235421784</v>
+        <v>0.9992988355979974</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.4611573934082</v>
+        <v>314.4571795201444</v>
       </c>
       <c r="OW2" t="n">
-        <v>95879.65082332162</v>
+        <v>95880.45721192347</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.042974177954308e-05</v>
+        <v>1.042965406172096e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68346.85638248085</v>
+        <v>68347.4215777752</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.463125084208448e-05</v>
+        <v>1.46311298497495e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004079731787023704</v>
+        <v>0.004079835934478627</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.582000283802251e-05</v>
+        <v>1.581967831040077e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02222905145478343</v>
+        <v>0.02222856009246398</v>
       </c>
       <c r="PD2" t="n">
-        <v>68394.68752537674</v>
+        <v>68395.25913144118</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9695995977906571</v>
+        <v>0.9696322837045253</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9695995977906571</v>
+        <v>0.9696322837045253</v>
       </c>
       <c r="PG2" t="n">
-        <v>301467.843330813</v>
+        <v>301463.387642457</v>
       </c>
       <c r="PH2" t="n">
-        <v>372006.9480099216</v>
+        <v>372000.7039848274</v>
       </c>
       <c r="PI2" t="n">
-        <v>3799.929754838387</v>
+        <v>3799.901965824792</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2025895025456</v>
+        <v>716.2024887047354</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.717083342909</v>
+        <v>1004.717083514049</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.4611573934082</v>
+        <v>314.4571795201444</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9992989235421784</v>
+        <v>0.9992988355979974</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.582000283802251e-05</v>
+        <v>1.581967831040077e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02222905145478343</v>
+        <v>0.02222856009246398</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.8847462714395</v>
+        <v>268.8789904092663</v>
       </c>
       <c r="PS2" t="n">
-        <v>93426.51011049592</v>
+        <v>93428.54361984413</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.211188388374196</v>
+        <v>1.211240783984943</v>
       </c>
       <c r="PU2" t="n">
-        <v>317883.8745624287</v>
+        <v>317879.7393805474</v>
       </c>
       <c r="PV2" t="n">
-        <v>395020.1078744936</v>
+        <v>395014.3148135734</v>
       </c>
       <c r="PW2" t="n">
-        <v>3799.92975482981</v>
+        <v>3799.901965816215</v>
       </c>
       <c r="PX2" t="n">
-        <v>-626723.0401022129</v>
+        <v>-626699.4894092769</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.7971468091644</v>
+        <v>716.7969941072324</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.464364792063</v>
+        <v>1005.464329843201</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402718145946738</v>
+        <v>1.402718396016019</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.9993923761492987</v>
+        <v>0.999392289758708</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.8388167169882</v>
+        <v>328.8352979873635</v>
       </c>
       <c r="QD2" t="n">
-        <v>130971.8168676713</v>
+        <v>130974.6796392931</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.635230417627636e-06</v>
+        <v>7.635063531012406e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>93370.01681066466</v>
+        <v>93372.04103923176</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.071007625529077e-05</v>
+        <v>1.070984406970213e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003731795025057168</v>
+        <v>0.003731875994515434</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.700286758281731e-05</v>
+        <v>1.70025777053569e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02403044236765823</v>
+        <v>0.02403000032835586</v>
       </c>
       <c r="QK2" t="n">
-        <v>93426.51011049592</v>
+        <v>93428.54361984413</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.211188388374196</v>
+        <v>1.211240783984943</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.211188388374196</v>
+        <v>1.211240783984943</v>
       </c>
       <c r="QN2" t="n">
-        <v>317883.8745624287</v>
+        <v>317879.7393805474</v>
       </c>
       <c r="QO2" t="n">
-        <v>395020.1078744936</v>
+        <v>395014.3148135734</v>
       </c>
       <c r="QP2" t="n">
-        <v>3799.92975482981</v>
+        <v>3799.901965816215</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.7971468091644</v>
+        <v>716.7969941072324</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.464364792063</v>
+        <v>1005.464329843201</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.8388167169882</v>
+        <v>328.8352979873635</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9993923761492987</v>
+        <v>0.999392289758708</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.700286758281731e-05</v>
+        <v>1.70025777053569e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02403044236765823</v>
+        <v>0.02403000032835586</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4363238358768233</v>
+        <v>0.4363380138853605</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8207559360947529</v>
+        <v>0.8207774013342437</v>
       </c>
       <c r="RA2" t="n">
-        <v>379959.6794379806</v>
+        <v>379983.5010498259</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.717718920632669</v>
+        <v>2.717827763833949</v>
       </c>
       <c r="RC2" t="n">
-        <v>381357.5339092796</v>
+        <v>381351.7408484534</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02417559754156349</v>
+        <v>0.02418262242955224</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.002020493327575725</v>
+        <v>0.001705500272690235</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01190512760905125</v>
+        <v>0.01190476169568697</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03192297883394984</v>
+        <v>0.03192615748222715</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04262771182473764</v>
+        <v>0.04263303490454731</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1126519091368779</v>
+        <v>0.1123520767847039</v>
       </c>
       <c r="RJ2" t="n">
-        <v>-8.622796920931819e-12</v>
+        <v>-6.620411163726914e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360271.241088983</v>
+        <v>360271.5600555726</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.15960734327969</v>
+        <v>80.16491602586567</v>
       </c>
       <c r="D3" t="n">
-        <v>80.15960734327969</v>
+        <v>80.16491602586567</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.15960734327969</v>
+        <v>80.16491602586567</v>
       </c>
       <c r="H3" t="n">
-        <v>80.15960734327969</v>
+        <v>80.16491602586567</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3966194756551</v>
+        <v>292.3961951324182</v>
       </c>
       <c r="L3" t="n">
-        <v>132842.5878740831</v>
+        <v>132841.9139936567</v>
       </c>
       <c r="M3" t="n">
-        <v>1.583531482080562</v>
+        <v>1.583525751986997</v>
       </c>
       <c r="N3" t="n">
-        <v>334681.5665054455</v>
+        <v>334681.2629443533</v>
       </c>
       <c r="O3" t="n">
-        <v>418571.6497638753</v>
+        <v>418571.2242076719</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687540.5944647494</v>
+        <v>-687539.4147655602</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7149084339594</v>
+        <v>717.7148892160803</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.6499823526</v>
+        <v>1006.649960055058</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402576385864815</v>
+        <v>1.402576392353466</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994982731233868</v>
+        <v>0.9994982701582559</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9341396417401</v>
+        <v>342.9338905678148</v>
       </c>
       <c r="W3" t="n">
-        <v>186229.3579258035</v>
+        <v>186228.4135282658</v>
       </c>
       <c r="X3" t="n">
-        <v>5.369722642755471e-06</v>
+        <v>5.369749873577802e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132776.6243625842</v>
+        <v>132775.9504177751</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.531446177372433e-06</v>
+        <v>7.531484405523238e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432942251620388</v>
+        <v>0.003432947225671014</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817357072404519e-05</v>
+        <v>1.817354996238517e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582763452451561</v>
+        <v>0.02582760254469137</v>
       </c>
       <c r="AD3" t="n">
-        <v>132842.5878740831</v>
+        <v>132841.9139936567</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.583531482080562</v>
+        <v>1.583525751986997</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583531482080562</v>
+        <v>1.583525751986997</v>
       </c>
       <c r="AG3" t="n">
-        <v>334681.5665054455</v>
+        <v>334681.2629443533</v>
       </c>
       <c r="AH3" t="n">
-        <v>418571.6497638753</v>
+        <v>418571.2242076719</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7149084339594</v>
+        <v>717.7148892160803</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.6499823526</v>
+        <v>1006.649960055058</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9341396417401</v>
+        <v>342.9338905678148</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994982731233868</v>
+        <v>0.9994982701582559</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817357072404519e-05</v>
+        <v>1.817354996238517e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582763452451561</v>
+        <v>0.02582760254469137</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2337463614063669</v>
+        <v>0.2337620113693987</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2337463614063669</v>
+        <v>0.2337620113693987</v>
       </c>
       <c r="DH3" t="n">
-        <v>182717.3371493476</v>
+        <v>182728.9853967025</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.725101775920672</v>
+        <v>2.725272388033446</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>270.6420302812419</v>
+        <v>270.7064278461062</v>
       </c>
       <c r="DV3" t="n">
-        <v>110.5858724481745</v>
+        <v>110.6121856593437</v>
       </c>
       <c r="DW3" t="n">
-        <v>247.0179616336203</v>
+        <v>247.076738000286</v>
       </c>
       <c r="DX3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DY3" t="n">
-        <v>270.6420302812419</v>
+        <v>270.7064278461062</v>
       </c>
       <c r="DZ3" t="n">
-        <v>110.5858724481745</v>
+        <v>110.6121856593437</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.0179616336203</v>
+        <v>247.076738000286</v>
       </c>
       <c r="EB3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EC3" t="n">
-        <v>259.0540156377946</v>
+        <v>259.0366122914972</v>
       </c>
       <c r="ED3" t="n">
-        <v>85297.17932955334</v>
+        <v>85276.49192860549</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.147843381904844</v>
+        <v>1.14764217145494</v>
       </c>
       <c r="EF3" t="n">
-        <v>310850.0599573338</v>
+        <v>310837.6266492159</v>
       </c>
       <c r="EG3" t="n">
-        <v>385160.876811113</v>
+        <v>385143.4460497831</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.689924014857</v>
+        <v>3788.692215742822</v>
       </c>
       <c r="EI3" t="n">
-        <v>-596314.4620113865</v>
+        <v>-596266.550531404</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.5233972854813</v>
+        <v>716.5229319878832</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.186749690734</v>
+        <v>1005.186151010265</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402866610495682</v>
+        <v>1.402866685957322</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993220643801555</v>
+        <v>0.9993219941162443</v>
       </c>
       <c r="EN3" t="n">
-        <v>322.7657950547548</v>
+        <v>322.7549389268999</v>
       </c>
       <c r="EO3" t="n">
-        <v>119579.7505869253</v>
+        <v>119550.7464226338</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.362619884150674e-06</v>
+        <v>8.364648736402e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>85239.57280918788</v>
+        <v>85218.89329851177</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.173164021174225e-05</v>
+        <v>1.173448705203337e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.00387365863643464</v>
+        <v>0.003873918267163812</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.650226777956559e-05</v>
+        <v>1.650137386980838e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02326683852548862</v>
+        <v>0.02326547627121717</v>
       </c>
       <c r="EV3" t="n">
-        <v>85297.17932955334</v>
+        <v>85276.49192860549</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.147843381904844</v>
+        <v>1.14764217145494</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.147843381904844</v>
+        <v>1.14764217145494</v>
       </c>
       <c r="EY3" t="n">
-        <v>310850.0599573338</v>
+        <v>310837.6266492159</v>
       </c>
       <c r="EZ3" t="n">
-        <v>385160.876811113</v>
+        <v>385143.4460497831</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.689924014857</v>
+        <v>3788.692215742822</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.5233972854813</v>
+        <v>716.5229319878832</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.186749690734</v>
+        <v>1005.186151010265</v>
       </c>
       <c r="FD3" t="n">
-        <v>322.7657950547548</v>
+        <v>322.7549389268999</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993220643801555</v>
+        <v>0.9993219941162443</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.650226777956559e-05</v>
+        <v>1.650137386980838e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02326683852548862</v>
+        <v>0.02326547627121717</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.593626838325</v>
+        <v>295.5936243333641</v>
       </c>
       <c r="FK3" t="n">
-        <v>135251.2391487011</v>
+        <v>135250.1588304521</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.594754884293247</v>
+        <v>1.59474215384803</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.3825470919</v>
+        <v>336974.3829537857</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.689924020059</v>
+        <v>3788.692215755283</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698128.1645183173</v>
+        <v>-698128.8324501186</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8560767284874</v>
+        <v>717.8560739145755</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.776452400033</v>
+        <v>1006.776434662352</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402476742954178</v>
+        <v>1.402476723742478</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995304186575572</v>
+        <v>0.9995304223348169</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8026850520717</v>
+        <v>344.8026824835791</v>
       </c>
       <c r="FV3" t="n">
-        <v>189598.6405977992</v>
+        <v>189597.1242645963</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.27429941927341e-06</v>
+        <v>5.274341601323175e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135188.4382755813</v>
+        <v>135187.3589450102</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.397082270907681e-06</v>
+        <v>7.397141328922384e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395617376240315</v>
+        <v>0.003395617304967483</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832924604019509e-05</v>
+        <v>1.832924576285544e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0260672774801976</v>
+        <v>0.02606727694702718</v>
       </c>
       <c r="GC3" t="n">
-        <v>135251.2391487011</v>
+        <v>135250.1588304521</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594754884293247</v>
+        <v>1.59474215384803</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.594754884293247</v>
+        <v>1.59474215384803</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.3825470919</v>
+        <v>336974.3829537857</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.689924020059</v>
+        <v>3788.692215755283</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8560767284874</v>
+        <v>717.8560739145755</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.776452400033</v>
+        <v>1006.776434662352</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8026850520717</v>
+        <v>344.8026824835791</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995304186575572</v>
+        <v>0.9995304223348169</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832924604019509e-05</v>
+        <v>1.832924576285544e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.0260672774801976</v>
+        <v>0.02606727694702718</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.593626838325</v>
+        <v>295.5936243333641</v>
       </c>
       <c r="GR3" t="n">
-        <v>135251.2391487011</v>
+        <v>135250.1588304521</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594754884293247</v>
+        <v>1.59474215384803</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3825470919</v>
+        <v>336974.3829537857</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.689924020059</v>
+        <v>3788.692215755283</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698128.1645183173</v>
+        <v>-698128.8324501186</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8560767284874</v>
+        <v>717.8560739145755</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.776452400033</v>
+        <v>1006.776434662352</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402476742954178</v>
+        <v>1.402476723742478</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995304186575572</v>
+        <v>0.9995304223348169</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8026850520717</v>
+        <v>344.8026824835791</v>
       </c>
       <c r="HC3" t="n">
-        <v>189598.6405977992</v>
+        <v>189597.1242645963</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.27429941927341e-06</v>
+        <v>5.274341601323175e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135188.4382755813</v>
+        <v>135187.3589450102</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.397082270907681e-06</v>
+        <v>7.397141328922384e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395617376240315</v>
+        <v>0.003395617304967483</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832924604019509e-05</v>
+        <v>1.832924576285544e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.0260672774801976</v>
+        <v>0.02606727694702718</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135251.2391487011</v>
+        <v>135250.1588304521</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594754884293247</v>
+        <v>1.59474215384803</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.594754884293247</v>
+        <v>1.59474215384803</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.3825470919</v>
+        <v>336974.3829537857</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.689924020059</v>
+        <v>3788.692215755283</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8560767284874</v>
+        <v>717.8560739145755</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.776452400033</v>
+        <v>1006.776434662352</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8026850520717</v>
+        <v>344.8026824835791</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995304186575572</v>
+        <v>0.9995304223348169</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832924604019509e-05</v>
+        <v>1.832924576285544e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.0260672774801976</v>
+        <v>0.02606727694702718</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8385090193195021</v>
+        <v>0.8387367479058717</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8385090193195021</v>
+        <v>0.8387367479058717</v>
       </c>
       <c r="HZ3" t="n">
-        <v>492461.1635867945</v>
+        <v>492518.6746166485</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.725101775974573</v>
+        <v>2.725272388175842</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01611910595799756</v>
+        <v>0.01611916351056109</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.796499141259088e-07</v>
+        <v>-1.796755868337499e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01379690142699808</v>
+        <v>0.01379690269575829</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.02510994707371548</v>
+        <v>0.02510991675684497</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05502577480879699</v>
+        <v>0.05502580328757752</v>
       </c>
       <c r="II3" t="n">
-        <v>1.894456813644751e-12</v>
+        <v>4.749832471784288e-12</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>383669.7534585638</v>
+        <v>383651.8326326236</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>270.6420302812419</v>
+        <v>270.7064278461062</v>
       </c>
       <c r="IN3" t="n">
-        <v>110.5858724481745</v>
+        <v>110.6121856593437</v>
       </c>
       <c r="IO3" t="n">
-        <v>247.0179616336203</v>
+        <v>247.076738000286</v>
       </c>
       <c r="IP3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IQ3" t="n">
-        <v>137.5010452831661</v>
+        <v>137.5571413392317</v>
       </c>
       <c r="IR3" t="n">
-        <v>110.5858724481745</v>
+        <v>110.6121856593437</v>
       </c>
       <c r="IS3" t="n">
-        <v>81.71476163362033</v>
+        <v>81.77353800028604</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.46165375600245</v>
+        <v>36.47482990831729</v>
       </c>
       <c r="IU3" t="n">
-        <v>259.0540156380009</v>
+        <v>259.0366122916097</v>
       </c>
       <c r="IV3" t="n">
-        <v>85297.17933185901</v>
+        <v>85276.49192641505</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.147843381934975</v>
+        <v>1.147642171424941</v>
       </c>
       <c r="IX3" t="n">
-        <v>310850.0599574761</v>
+        <v>310837.6266493021</v>
       </c>
       <c r="IY3" t="n">
-        <v>385160.8768113133</v>
+        <v>385143.4460499029</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.689924007876</v>
+        <v>3788.692215750653</v>
       </c>
       <c r="JA3" t="n">
-        <v>-596314.4620101592</v>
+        <v>-596266.5505337386</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.5233972854941</v>
+        <v>716.5229319878777</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.186749690788</v>
+        <v>1005.186151010217</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402866610495732</v>
+        <v>1.402866685957265</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.99932206438014</v>
+        <v>0.9993219941162632</v>
       </c>
       <c r="JF3" t="n">
-        <v>322.7657950548841</v>
+        <v>322.7549389269694</v>
       </c>
       <c r="JG3" t="n">
-        <v>119579.7505901601</v>
+        <v>119550.7464195603</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.362619883924456e-06</v>
+        <v>8.364648736617045e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>85239.57281149068</v>
+        <v>85218.8932963244</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.173164021142531e-05</v>
+        <v>1.173448705233457e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003873658636431888</v>
+        <v>0.003873918267161767</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.65022677795765e-05</v>
+        <v>1.650137386981379e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02326683852550553</v>
+        <v>0.02326547627122512</v>
       </c>
       <c r="JN3" t="n">
-        <v>85297.17933185901</v>
+        <v>85276.49192641505</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.147843381934975</v>
+        <v>1.147642171424941</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.147843381934975</v>
+        <v>1.147642171424941</v>
       </c>
       <c r="JQ3" t="n">
-        <v>310850.0599574761</v>
+        <v>310837.6266493021</v>
       </c>
       <c r="JR3" t="n">
-        <v>385160.8768113133</v>
+        <v>385143.4460499029</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.689924007876</v>
+        <v>3788.692215750653</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.5233972854941</v>
+        <v>716.5229319878777</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.186749690788</v>
+        <v>1005.186151010217</v>
       </c>
       <c r="JV3" t="n">
-        <v>322.7657950548841</v>
+        <v>322.7549389269694</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.99932206438014</v>
+        <v>0.9993219941162632</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.65022677795765e-05</v>
+        <v>1.650137386981379e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02326683852550553</v>
+        <v>0.02326547627122512</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5936268384249</v>
+        <v>295.5936243334714</v>
       </c>
       <c r="KC3" t="n">
-        <v>135251.2391487301</v>
+        <v>135250.1588337659</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.594754884293048</v>
+        <v>1.594742153886541</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.3825471636</v>
+        <v>336974.3829538561</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.689924020337</v>
+        <v>3788.692215748594</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698128.1645186775</v>
+        <v>-698128.8324484472</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.856076728492</v>
+        <v>717.8560739145885</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.776452400037</v>
+        <v>1006.77643466241</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402476742954173</v>
+        <v>1.402476723742533</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995304186575583</v>
+        <v>0.9995304223348069</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8026850521298</v>
+        <v>344.8026824836449</v>
       </c>
       <c r="KN3" t="n">
-        <v>189598.6405978394</v>
+        <v>189597.1242692472</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.27429941927229e-06</v>
+        <v>5.274341601193794e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135188.4382756104</v>
+        <v>135187.3589483211</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.397082270906089e-06</v>
+        <v>7.397141328741217e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395617376239158</v>
+        <v>0.003395617304966545</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832924604019994e-05</v>
+        <v>1.832924576286113e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.02606727748020506</v>
+        <v>0.02606727694703624</v>
       </c>
       <c r="KU3" t="n">
-        <v>135251.2391487301</v>
+        <v>135250.1588337659</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.594754884293048</v>
+        <v>1.594742153886541</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.594754884293048</v>
+        <v>1.594742153886541</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.3825471636</v>
+        <v>336974.3829538561</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.689924020337</v>
+        <v>3788.692215748594</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.856076728492</v>
+        <v>717.8560739145885</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.776452400037</v>
+        <v>1006.77643466241</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8026850521298</v>
+        <v>344.8026824836449</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995304186575583</v>
+        <v>0.9995304223348069</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832924604019994e-05</v>
+        <v>1.832924576286113e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.02606727748020506</v>
+        <v>0.02606727694703624</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>268.4900730182247</v>
+        <v>268.4803739494488</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96649.30963488607</v>
+        <v>96636.34620927507</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.254843564274627</v>
+        <v>1.25472063515208</v>
       </c>
       <c r="LL3" t="n">
-        <v>317593.1427721007</v>
+        <v>317586.212571468</v>
       </c>
       <c r="LM3" t="n">
-        <v>394614.1455380949</v>
+        <v>394604.4296167006</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.689924021773</v>
+        <v>3788.692215750031</v>
       </c>
       <c r="LO3" t="n">
-        <v>-622611.4888059231</v>
+        <v>-622585.0732472335</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.7966594971704</v>
+        <v>716.7963526240724</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.525647585173</v>
+        <v>1005.525259562126</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402804594946836</v>
+        <v>1.402804654182551</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.999366311849424</v>
+        <v>0.9993662680460673</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.598981003386</v>
+        <v>328.5930381358913</v>
       </c>
       <c r="LU3" t="n">
-        <v>135494.6078414274</v>
+        <v>135476.4338445767</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.380367498980656e-06</v>
+        <v>7.381357566196605e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>96588.36899273375</v>
+        <v>96575.40944182439</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.035321343996635e-05</v>
+        <v>1.035460274804618e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003737777586230024</v>
+        <v>0.003737912256272162</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.69834542158237e-05</v>
+        <v>1.698296297461446e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02400121973015003</v>
+        <v>0.02400046874383308</v>
       </c>
       <c r="MB3" t="n">
-        <v>96649.30963488607</v>
+        <v>96636.34620927507</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.254843564274627</v>
+        <v>1.25472063515208</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.254843564274627</v>
+        <v>1.25472063515208</v>
       </c>
       <c r="ME3" t="n">
-        <v>317593.1427721007</v>
+        <v>317586.212571468</v>
       </c>
       <c r="MF3" t="n">
-        <v>394614.1455380949</v>
+        <v>394604.4296167006</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.689924021773</v>
+        <v>3788.692215750031</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.7966594971704</v>
+        <v>716.7963526240724</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.525647585173</v>
+        <v>1005.525259562126</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.598981003386</v>
+        <v>328.5930381358913</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.999366311849424</v>
+        <v>0.9993662680460673</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.69834542158237e-05</v>
+        <v>1.698296297461446e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02400121973015003</v>
+        <v>0.02400046874383308</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8385090193191663</v>
+        <v>0.8387367479056911</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4260087264196785</v>
+        <v>0.4261968594394061</v>
       </c>
       <c r="MR3" t="n">
-        <v>249240.9601275305</v>
+        <v>249312.4391314675</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.725101776046108</v>
+        <v>2.725272388104604</v>
       </c>
       <c r="MT3" t="n">
-        <v>380951.5715730751</v>
+        <v>380941.8556515806</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>141.8033039846651</v>
+        <v>141.8068524325299</v>
       </c>
       <c r="MW3" t="n">
-        <v>126.4203163764945</v>
+        <v>126.4223866515735</v>
       </c>
       <c r="MX3" t="n">
-        <v>-64.23457502182436</v>
+        <v>-64.23833396143894</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.93527213861085</v>
+        <v>-26.93624723686812</v>
       </c>
       <c r="MZ3" t="n">
-        <v>262.0490155575911</v>
+        <v>262.0533069053897</v>
       </c>
       <c r="NA3" t="n">
-        <v>126.4203163764945</v>
+        <v>126.4223866515735</v>
       </c>
       <c r="NB3" t="n">
-        <v>-229.5377750218244</v>
+        <v>-229.5415339614389</v>
       </c>
       <c r="NC3" t="n">
-        <v>-61.15576777799676</v>
+        <v>-61.15576777799675</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.1988069676904</v>
+        <v>234.1880142141011</v>
       </c>
       <c r="NE3" t="n">
-        <v>57499.9999968204</v>
+        <v>57500.00000202997</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8559438385385011</v>
+        <v>0.8559834095211344</v>
       </c>
       <c r="NG3" t="n">
-        <v>293101.9976202564</v>
+        <v>293094.2626579828</v>
       </c>
       <c r="NH3" t="n">
-        <v>360279.302260944</v>
+        <v>360268.4617866754</v>
       </c>
       <c r="NI3" t="n">
-        <v>3800.836303708349</v>
+        <v>3800.790015128626</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-529872.0255470375</v>
+        <v>-529831.0043010808</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.9877717801368</v>
+        <v>715.9876430477863</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421533913546</v>
+        <v>1004.421558770359</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.40284732994292</v>
+        <v>1.402847616887324</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992672778161986</v>
+        <v>0.9992671330525836</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.8722353300396</v>
+        <v>306.8651512689863</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.71815011073</v>
+        <v>80604.72296751681</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622165736865e-05</v>
+        <v>1.240622091590084e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.94031157361</v>
+        <v>57457.93199290219</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740403492671965e-05</v>
+        <v>1.740403744644918e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004283298254421974</v>
+        <v>0.004283497414875723</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.520047292752276e-05</v>
+        <v>1.519989820513881e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02129098961095654</v>
+        <v>0.02129012269498843</v>
       </c>
       <c r="NW3" t="n">
-        <v>57499.9999968204</v>
+        <v>57500.00000202997</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8559438385385011</v>
+        <v>0.8559834095211344</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8559438385385011</v>
+        <v>0.8559834095211344</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293101.9976202564</v>
+        <v>293094.2626579828</v>
       </c>
       <c r="OA3" t="n">
-        <v>360279.302260944</v>
+        <v>360268.4617866754</v>
       </c>
       <c r="OB3" t="n">
-        <v>3800.836303708349</v>
+        <v>3800.790015128626</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.9877717801368</v>
+        <v>715.9876430477863</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421533913546</v>
+        <v>1004.421558770359</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.8722353300396</v>
+        <v>306.8651512689863</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992672778161986</v>
+        <v>0.9992671330525836</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.520047292752276e-05</v>
+        <v>1.519989820513881e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02129098961095654</v>
+        <v>0.02129012269498843</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.2393361207788</v>
+        <v>244.2290499623133</v>
       </c>
       <c r="OL3" t="n">
-        <v>66574.95602996241</v>
+        <v>66575.87587762471</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9502656064574264</v>
+        <v>0.9503188971947586</v>
       </c>
       <c r="ON3" t="n">
-        <v>300274.0772725917</v>
+        <v>300266.7007449115</v>
       </c>
       <c r="OO3" t="n">
-        <v>370333.3907714278</v>
+        <v>370323.053485186</v>
       </c>
       <c r="OP3" t="n">
-        <v>3800.836303707296</v>
+        <v>3800.790015147031</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-557980.3447497968</v>
+        <v>-557940.2810204199</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1678171833356</v>
+        <v>716.1676574569764</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.666760708654</v>
+        <v>1004.666767431545</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402837067797846</v>
+        <v>1.402837390058905</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9992957411826944</v>
+        <v>0.9992955956143805</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.3891326980248</v>
+        <v>313.3825237828203</v>
       </c>
       <c r="OW3" t="n">
-        <v>93328.19700876059</v>
+        <v>93329.49435088776</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.071487537583236e-05</v>
+        <v>1.071472643192873e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66528.18003680633</v>
+        <v>66529.08955254525</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.503122435405201e-05</v>
+        <v>1.503101886296206e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004107560720091438</v>
+        <v>0.004107735500791244</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573224277665911e-05</v>
+        <v>1.573170402966476e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02209591450327527</v>
+        <v>0.02209509924439289</v>
       </c>
       <c r="PD3" t="n">
-        <v>66574.95602996241</v>
+        <v>66575.87587762471</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9502656064574264</v>
+        <v>0.9503188971947586</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9502656064574264</v>
+        <v>0.9503188971947586</v>
       </c>
       <c r="PG3" t="n">
-        <v>300274.0772725917</v>
+        <v>300266.7007449115</v>
       </c>
       <c r="PH3" t="n">
-        <v>370333.3907714278</v>
+        <v>370323.053485186</v>
       </c>
       <c r="PI3" t="n">
-        <v>3800.836303707296</v>
+        <v>3800.790015147031</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1678171833356</v>
+        <v>716.1676574569764</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.666760708654</v>
+        <v>1004.666767431545</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.3891326980248</v>
+        <v>313.3825237828203</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9992957411826944</v>
+        <v>0.9992955956143805</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573224277665911e-05</v>
+        <v>1.573170402966476e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02209591450327527</v>
+        <v>0.02209509924439289</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>268.4787790970757</v>
+        <v>268.4691249655131</v>
       </c>
       <c r="PS3" t="n">
-        <v>92642.51381558397</v>
+        <v>92645.77525780223</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.202840746760252</v>
+        <v>1.202926520989232</v>
       </c>
       <c r="PU3" t="n">
-        <v>317594.3787361573</v>
+        <v>317587.4434241366</v>
       </c>
       <c r="PV3" t="n">
-        <v>394614.1455382952</v>
+        <v>394604.4296167883</v>
       </c>
       <c r="PW3" t="n">
-        <v>3800.836303698618</v>
+        <v>3800.790015131429</v>
       </c>
       <c r="PX3" t="n">
-        <v>-625829.7448265518</v>
+        <v>-625790.3399232054</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7834355938501</v>
+        <v>716.7831810419957</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.442838085918</v>
+        <v>1005.442778205835</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402714945906801</v>
+        <v>1.402715360514196</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.999392313930881</v>
+        <v>0.999392170108841</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.5900771546775</v>
+        <v>328.5841706072009</v>
       </c>
       <c r="QD3" t="n">
-        <v>129872.4460804039</v>
+        <v>129877.0379305712</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.699862674342028e-06</v>
+        <v>7.699590442881621e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>92586.48484453585</v>
+        <v>92589.73102209558</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.080071245472947e-05</v>
+        <v>1.080033378389835e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.00373738759617813</v>
+        <v>0.003737523789886472</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.698227502124934e-05</v>
+        <v>1.698178849455723e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02399892856551825</v>
+        <v>0.02399818672974689</v>
       </c>
       <c r="QK3" t="n">
-        <v>92642.51381558397</v>
+        <v>92645.77525780223</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.202840746760252</v>
+        <v>1.202926520989232</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.202840746760252</v>
+        <v>1.202926520989232</v>
       </c>
       <c r="QN3" t="n">
-        <v>317594.3787361573</v>
+        <v>317587.4434241366</v>
       </c>
       <c r="QO3" t="n">
-        <v>394614.1455382952</v>
+        <v>394604.4296167883</v>
       </c>
       <c r="QP3" t="n">
-        <v>3800.836303698618</v>
+        <v>3800.790015131429</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7834355938501</v>
+        <v>716.7831810419957</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.442838085918</v>
+        <v>1005.442778205835</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.5900771546775</v>
+        <v>328.5841706072009</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.999392313930881</v>
+        <v>0.999392170108841</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.698227502124934e-05</v>
+        <v>1.698178849455723e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02399892856551825</v>
+        <v>0.02399818672974689</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4620923226637182</v>
+        <v>0.4621145537253508</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8539352387998173</v>
+        <v>0.8539689365889701</v>
       </c>
       <c r="RA3" t="n">
-        <v>384543.1802739243</v>
+        <v>384581.7964860603</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.72510177578099</v>
+        <v>2.725272388135672</v>
       </c>
       <c r="RC3" t="n">
-        <v>380951.5715730751</v>
+        <v>380941.8556515806</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02457066442412331</v>
+        <v>0.02458323031259307</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.002422640686443094</v>
+        <v>0.001924381087451746</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01187960968151115</v>
+        <v>0.01187900206312244</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03214502246151039</v>
+        <v>0.03215031860738821</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04299769189748532</v>
+        <v>0.04300647165445761</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1140156291510733</v>
+        <v>0.1135434037250131</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-3.553488059360177e-11</v>
+        <v>-5.501141209229843e-12</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357451.7656135045</v>
+        <v>357452.2958921112</v>
       </c>
     </row>
   </sheetData>
@@ -8686,34 +8686,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01611691534496276</v>
+        <v>0.01611694364956621</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.785867205460855e-07</v>
+        <v>-1.786017619900206e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379684642892035</v>
+        <v>0.01379684724109582</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02511126098069149</v>
+        <v>0.02511124158154929</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05502484416785406</v>
+        <v>0.05502485387044934</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.099717539254641e-12</v>
+        <v>-1.306732499983809e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758172362008</v>
+        <v>81.75758172360823</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758172362008</v>
+        <v>81.75758172360823</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758172362008</v>
+        <v>81.75758172360823</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758172362008</v>
+        <v>81.75758172360823</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8734,28 +8734,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180727152</v>
+        <v>292.2676180727161</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394378486</v>
+        <v>132637.8394378497</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096103456</v>
+        <v>1.581790096103465</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834752456</v>
+        <v>334589.2834752461</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800040426</v>
+        <v>418442.2800040434</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625810474</v>
+        <v>-687181.9625810501</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713704113</v>
+        <v>717.7090713704115</v>
       </c>
       <c r="Z2" t="n">
         <v>1006.643209103404</v>
@@ -8767,64 +8767,64 @@
         <v>0.9994973723756408</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121223171</v>
+        <v>342.8584121223176</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165872068</v>
+        <v>185942.4165872084</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054383786e-06</v>
+        <v>5.378009054383741e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565727351</v>
+        <v>132571.8565727363</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.54307909576082e-06</v>
+        <v>7.543079095760754e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038597434</v>
+        <v>0.003434455038597424</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856047739e-05</v>
+        <v>1.816725856047744e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190129</v>
+        <v>0.02581791190129006</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394378486</v>
+        <v>132637.8394378497</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096103456</v>
+        <v>1.581790096103465</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096103456</v>
+        <v>1.581790096103465</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834752456</v>
+        <v>334589.2834752461</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800040426</v>
+        <v>418442.2800040434</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713704113</v>
+        <v>717.7090713704115</v>
       </c>
       <c r="AR2" t="n">
         <v>1006.643209103404</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121223171</v>
+        <v>342.8584121223176</v>
       </c>
       <c r="AT2" t="n">
         <v>0.9994973723756408</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856047739e-05</v>
+        <v>1.816725856047744e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190129</v>
+        <v>0.02581791190129006</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8838,52 +8838,52 @@
         <v>295.5999999999884</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BB2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="BD2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368984906</v>
+        <v>-696445.9368984908</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="BG2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.402525623278193</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="BI2" t="n">
         <v>0.9995210660216013</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974367833</v>
+        <v>193456.8974367841</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087309107e-06</v>
+        <v>5.169110087309087e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.661745863</v>
+        <v>137934.6617458635</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346996801e-06</v>
+        <v>7.249809346996776e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="BP2" t="n">
         <v>1.83299517401163e-05</v>
@@ -8892,31 +8892,31 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BU2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="BW2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="BY2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="CA2" t="n">
         <v>0.9995210660216013</v>
@@ -8939,52 +8939,52 @@
         <v>295.5999999999884</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="CI2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="CK2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368984906</v>
+        <v>-696445.9368984908</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="CN2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.402525623278193</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="CP2" t="n">
         <v>0.9995210660216013</v>
       </c>
       <c r="CQ2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974367833</v>
+        <v>193456.8974367841</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087309107e-06</v>
+        <v>5.169110087309087e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.661745863</v>
+        <v>137934.6617458635</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346996801e-06</v>
+        <v>7.249809346996776e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="CW2" t="n">
         <v>1.83299517401163e-05</v>
@@ -8993,31 +8993,31 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.999995026</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819753691</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="DB2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="DD2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="DF2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="DH2" t="n">
         <v>0.9995210660216013</v>
@@ -9037,16 +9037,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2384587305807521</v>
+        <v>0.2384587305807171</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2384587305807521</v>
+        <v>0.2384587305807171</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.5323181417</v>
+        <v>186219.5323181154</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.776369934692442</v>
+        <v>2.776369934692055</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885895</v>
@@ -9055,121 +9055,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780743167204</v>
+        <v>309.3780725319452</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136402948865</v>
+        <v>126.4136395656172</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.3727756270374</v>
+        <v>282.3727739980534</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780743167204</v>
+        <v>309.3780725319452</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136402948865</v>
+        <v>126.4136395656172</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.3727756270374</v>
+        <v>282.3727739980534</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365057154262</v>
+        <v>247.8365062668535</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.23867647047</v>
+        <v>72726.23925781301</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.023014679005029</v>
+        <v>1.023014684904572</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.9123241254</v>
+        <v>302836.9127179954</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.0346547287</v>
+        <v>373927.0352068988</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061242809</v>
+        <v>3790.093061177871</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.385979972</v>
+        <v>-565396.3875016687</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430726814</v>
+        <v>716.2529430845819</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.831581225677</v>
+        <v>1004.831581241678</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457085747</v>
+        <v>1.402900457084778</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812859029617</v>
+        <v>0.9992812859047491</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911160449845</v>
+        <v>315.6911163966453</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5439295414</v>
+        <v>101954.5447446373</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292612157423e-06</v>
+        <v>9.808292533743069e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.11127752578</v>
+        <v>72674.11185858365</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005818882641e-05</v>
+        <v>1.376005807880937e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.00404855943242194</v>
+        <v>0.004048559423435508</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.592113120753728e-05</v>
+        <v>1.592113123635244e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0223828837969759</v>
+        <v>0.02238288384072388</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.23867647047</v>
+        <v>72726.23925781301</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.023014679005029</v>
+        <v>1.023014684904572</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.023014679005029</v>
+        <v>1.023014684904572</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.9123241254</v>
+        <v>302836.9127179954</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.0346547287</v>
+        <v>373927.0352068988</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061242809</v>
+        <v>3790.093061177871</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430726814</v>
+        <v>716.2529430845819</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.831581225677</v>
+        <v>1004.831581241678</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911160449845</v>
+        <v>315.6911163966453</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812859029617</v>
+        <v>0.9992812859047491</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.592113120753728e-05</v>
+        <v>1.592113123635244e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0223828837969759</v>
+        <v>0.02238288384072388</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9180,97 +9180,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968651303</v>
+        <v>295.5920968650006</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.416595415</v>
+        <v>134591.4166255583</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979527690696</v>
+        <v>1.586979528046981</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.6309324985</v>
+        <v>336974.6309323437</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093061252458</v>
+        <v>3790.093061187519</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.1242009046</v>
+        <v>-698537.124181419</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8543580609205</v>
+        <v>717.8543580609903</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618721336</v>
+        <v>1006.765618721825</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008975953</v>
+        <v>1.402465008976497</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995326648232803</v>
+        <v>0.9995326648231752</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163637045</v>
+        <v>344.80111636366</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5203170418</v>
+        <v>188672.5203593511</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.300188911027522e-06</v>
+        <v>5.30018890983897e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2175630151</v>
+        <v>134529.2175931306</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.433329488678457e-06</v>
+        <v>7.433329487014443e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843602155</v>
+        <v>0.003395573843606463</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.83290766524854e-05</v>
+        <v>1.832907665248345e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606695184421729</v>
+        <v>0.02606695184421727</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.416595415</v>
+        <v>134591.4166255583</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979527690696</v>
+        <v>1.586979528046981</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979527690696</v>
+        <v>1.586979528046981</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.6309324985</v>
+        <v>336974.6309323437</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093061252458</v>
+        <v>3790.093061187519</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8543580609205</v>
+        <v>717.8543580609903</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618721336</v>
+        <v>1006.765618721825</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163637045</v>
+        <v>344.80111636366</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995326648232803</v>
+        <v>0.9995326648231752</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.83290766524854e-05</v>
+        <v>1.832907665248345e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606695184421729</v>
+        <v>0.02606695184421727</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9281,97 +9281,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968651303</v>
+        <v>295.5920968650006</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.416595415</v>
+        <v>134591.4166255583</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979527690696</v>
+        <v>1.586979528046981</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.6309324985</v>
+        <v>336974.6309323437</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093061252458</v>
+        <v>3790.093061187519</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.1242009046</v>
+        <v>-698537.124181419</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8543580609205</v>
+        <v>717.8543580609903</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618721336</v>
+        <v>1006.765618721825</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008975953</v>
+        <v>1.402465008976497</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995326648232803</v>
+        <v>0.9995326648231752</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163637045</v>
+        <v>344.80111636366</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5203170418</v>
+        <v>188672.5203593511</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.300188911027522e-06</v>
+        <v>5.30018890983897e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2175630151</v>
+        <v>134529.2175931306</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.433329488678457e-06</v>
+        <v>7.433329487014443e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843602155</v>
+        <v>0.003395573843606463</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.83290766524854e-05</v>
+        <v>1.832907665248345e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606695184421729</v>
+        <v>0.02606695184421727</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.416595415</v>
+        <v>134591.4166255583</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979527690696</v>
+        <v>1.586979528046981</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979527690696</v>
+        <v>1.586979528046981</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.6309324985</v>
+        <v>336974.6309323437</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093061252458</v>
+        <v>3790.093061187519</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8543580609205</v>
+        <v>717.8543580609903</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618721336</v>
+        <v>1006.765618721825</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163637045</v>
+        <v>344.80111636366</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995326648232803</v>
+        <v>0.9995326648231752</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.83290766524854e-05</v>
+        <v>1.832907665248345e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606695184421729</v>
+        <v>0.02606695184421727</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9382,37 +9382,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.0161933732576494</v>
+        <v>0.01619337325257229</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005752308325e-07</v>
+        <v>-1.972005739787581e-07</v>
       </c>
       <c r="HX2" t="n">
         <v>0.01379727827867999</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02510093007319004</v>
+        <v>0.02510093007319011</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.05509138440894421</v>
+        <v>0.05509138440386841</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578240445600069e-06</v>
+        <v>5.578254447906328e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024726468242</v>
+        <v>0.9800024659016122</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024726468242</v>
+        <v>0.9800024659016122</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1629917485</v>
+        <v>520038.1620494598</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991721061</v>
+        <v>2.776362991715253</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885895</v>
@@ -9421,154 +9421,154 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>372154.9657873399</v>
+        <v>372154.9663515468</v>
       </c>
       <c r="IJ2" t="n">
-        <v>1470.594965150929</v>
+        <v>1470.888602325867</v>
       </c>
       <c r="IK2" t="n">
         <v>0</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.02417559754156349</v>
+        <v>0.02418262242955224</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.002020493327575725</v>
+        <v>0.001705500272690235</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.01190512760905125</v>
+        <v>0.01190476169568697</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.03192297883394984</v>
+        <v>0.03192615748222715</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.04262771182473764</v>
+        <v>0.04263303490454731</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.1126519091368779</v>
+        <v>0.1123520767847039</v>
       </c>
       <c r="IR2" t="n">
-        <v>-8.622796920931819e-12</v>
+        <v>-6.620411163726914e-11</v>
       </c>
       <c r="IS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT2" t="n">
-        <v>274.2435955800682</v>
+        <v>274.3702017027702</v>
       </c>
       <c r="IU2" t="n">
-        <v>112.0574925078374</v>
+        <v>112.1092244894581</v>
       </c>
       <c r="IV2" t="n">
-        <v>250.3051499461007</v>
+        <v>250.4207047486112</v>
       </c>
       <c r="IW2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IX2" t="n">
-        <v>140.6492556744736</v>
+        <v>140.7603205106381</v>
       </c>
       <c r="IY2" t="n">
-        <v>112.0574925078374</v>
+        <v>112.1092244894581</v>
       </c>
       <c r="IZ2" t="n">
-        <v>85.00194994610069</v>
+        <v>85.1175047486112</v>
       </c>
       <c r="JA2" t="n">
-        <v>37.18237547150894</v>
+        <v>37.20712376947142</v>
       </c>
       <c r="JB2" t="n">
-        <v>258.0745276007092</v>
+        <v>258.0398552849153</v>
       </c>
       <c r="JC2" t="n">
-        <v>84204.24304447004</v>
+        <v>84164.3479247933</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.13744148026018</v>
+        <v>1.137055500440468</v>
       </c>
       <c r="JE2" t="n">
-        <v>310150.1395424132</v>
+        <v>310125.36722131</v>
       </c>
       <c r="JF2" t="n">
-        <v>384179.6562303479</v>
+        <v>384144.9272974806</v>
       </c>
       <c r="JG2" t="n">
-        <v>3788.594327639832</v>
+        <v>3788.595689572629</v>
       </c>
       <c r="JH2" t="n">
-        <v>-593560.0351460283</v>
+        <v>-593463.7561728945</v>
       </c>
       <c r="JI2" t="n">
-        <v>716.4976739310272</v>
+        <v>716.4967668343147</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1005.154781941184</v>
+        <v>1005.15362729192</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.402872358854223</v>
+        <v>1.402872523393193</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.9993176152848339</v>
+        <v>0.9993174702150784</v>
       </c>
       <c r="JM2" t="n">
-        <v>322.154242393804</v>
+        <v>322.1325727580882</v>
       </c>
       <c r="JN2" t="n">
-        <v>118047.4939525361</v>
+        <v>117991.5607159921</v>
       </c>
       <c r="JO2" t="n">
-        <v>8.471166701785931e-06</v>
+        <v>8.475182410774434e-06</v>
       </c>
       <c r="JP2" t="n">
-        <v>84146.99541799354</v>
+        <v>84107.11504321174</v>
       </c>
       <c r="JQ2" t="n">
-        <v>1.188396561318178e-05</v>
+        <v>1.188960053482074e-05</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.003888335960644519</v>
+        <v>0.003888857329716855</v>
       </c>
       <c r="JS2" t="n">
-        <v>1.645193061128903e-05</v>
+        <v>1.645014716489447e-05</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.02319014930005665</v>
+        <v>0.02318743246808725</v>
       </c>
       <c r="JU2" t="n">
-        <v>84204.24304447004</v>
+        <v>84164.3479247933</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.13744148026018</v>
+        <v>1.137055500440468</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.13744148026018</v>
+        <v>1.137055500440468</v>
       </c>
       <c r="JX2" t="n">
-        <v>310150.1395424132</v>
+        <v>310125.36722131</v>
       </c>
       <c r="JY2" t="n">
-        <v>384179.6562303479</v>
+        <v>384144.9272974806</v>
       </c>
       <c r="JZ2" t="n">
-        <v>3788.594327639832</v>
+        <v>3788.595689572629</v>
       </c>
       <c r="KA2" t="n">
-        <v>716.4976739310272</v>
+        <v>716.4967668343147</v>
       </c>
       <c r="KB2" t="n">
-        <v>1005.154781941184</v>
+        <v>1005.15362729192</v>
       </c>
       <c r="KC2" t="n">
-        <v>322.154242393804</v>
+        <v>322.1325727580882</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.9993176152848339</v>
+        <v>0.9993174702150784</v>
       </c>
       <c r="KE2" t="n">
-        <v>1.645193061128903e-05</v>
+        <v>1.645014716489447e-05</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.02319014930005665</v>
+        <v>0.02318743246808725</v>
       </c>
       <c r="KG2" t="inlineStr">
         <is>
@@ -9579,97 +9579,97 @@
         <v>1</v>
       </c>
       <c r="KI2" t="n">
-        <v>295.5937313468996</v>
+        <v>295.5937298576562</v>
       </c>
       <c r="KJ2" t="n">
-        <v>135296.3107326747</v>
+        <v>135295.6685058307</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.595286006684339</v>
+        <v>1.595278438701696</v>
       </c>
       <c r="KL2" t="n">
-        <v>336974.3655795743</v>
+        <v>336974.3658212752</v>
       </c>
       <c r="KM2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KN2" t="n">
-        <v>3788.594327644637</v>
+        <v>3788.595689577195</v>
       </c>
       <c r="KO2" t="n">
-        <v>-698100.3027794866</v>
+        <v>-698100.6997161722</v>
       </c>
       <c r="KP2" t="n">
-        <v>717.8561941266299</v>
+        <v>717.8561924538163</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1006.777192427254</v>
+        <v>1006.777181882579</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.4024775444783</v>
+        <v>1.402477533057361</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9995302652409168</v>
+        <v>0.9995302674269413</v>
       </c>
       <c r="KT2" t="n">
-        <v>344.8027922116144</v>
+        <v>344.8027906846324</v>
       </c>
       <c r="KU2" t="n">
-        <v>189661.9030383286</v>
+        <v>189661.0016088485</v>
       </c>
       <c r="KV2" t="n">
-        <v>5.272540156880694e-06</v>
+        <v>5.272565216450622e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>135233.4686462876</v>
+        <v>135232.8270067848</v>
       </c>
       <c r="KX2" t="n">
-        <v>7.394619172385268e-06</v>
+        <v>7.39465425765172e-06</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003395620349780935</v>
+        <v>0.003395620307412075</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.832925761100133e-05</v>
+        <v>1.832925744612354e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02606729972445606</v>
+        <v>0.02606729940748894</v>
       </c>
       <c r="LB2" t="n">
-        <v>135296.3107326747</v>
+        <v>135295.6685058307</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.595286006684339</v>
+        <v>1.595278438701696</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.595286006684339</v>
+        <v>1.595278438701696</v>
       </c>
       <c r="LE2" t="n">
-        <v>336974.3655795743</v>
+        <v>336974.3658212752</v>
       </c>
       <c r="LF2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="LG2" t="n">
-        <v>3788.594327644637</v>
+        <v>3788.595689577195</v>
       </c>
       <c r="LH2" t="n">
-        <v>717.8561941266299</v>
+        <v>717.8561924538163</v>
       </c>
       <c r="LI2" t="n">
-        <v>1006.777192427254</v>
+        <v>1006.777181882579</v>
       </c>
       <c r="LJ2" t="n">
-        <v>344.8027922116144</v>
+        <v>344.8027906846324</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9995302652409168</v>
+        <v>0.9995302674269413</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.832925761100133e-05</v>
+        <v>1.832925744612354e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02606729972445606</v>
+        <v>0.02606729940748894</v>
       </c>
       <c r="LN2" t="inlineStr">
         <is>
@@ -9680,97 +9680,97 @@
         <v>1</v>
       </c>
       <c r="LP2" t="n">
-        <v>267.9478405134457</v>
+        <v>267.9287747229024</v>
       </c>
       <c r="LQ2" t="n">
-        <v>96001.1496924891</v>
+        <v>95976.83914749576</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.248954192572485</v>
+        <v>1.248726885872413</v>
       </c>
       <c r="LS2" t="n">
-        <v>317205.5340553443</v>
+        <v>317191.9089052082</v>
       </c>
       <c r="LT2" t="n">
-        <v>394070.7627910392</v>
+        <v>394051.661212409</v>
       </c>
       <c r="LU2" t="n">
-        <v>3788.594327646107</v>
+        <v>3788.595689578667</v>
       </c>
       <c r="LV2" t="n">
-        <v>-621074.9058832249</v>
+        <v>-621022.1398168727</v>
       </c>
       <c r="LW2" t="n">
-        <v>716.7798217230345</v>
+        <v>716.7792273907132</v>
       </c>
       <c r="LX2" t="n">
-        <v>1005.505580238902</v>
+        <v>1005.50484479102</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.402809551504691</v>
+        <v>1.40280968862805</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.9993633826738303</v>
+        <v>0.9993632904338582</v>
       </c>
       <c r="MA2" t="n">
-        <v>328.2666125065743</v>
+        <v>328.2549189540882</v>
       </c>
       <c r="MB2" t="n">
-        <v>134586.0159781338</v>
+        <v>134551.9350800651</v>
       </c>
       <c r="MC2" t="n">
-        <v>7.430192451513464e-06</v>
+        <v>7.432074458126154e-06</v>
       </c>
       <c r="MD2" t="n">
-        <v>95940.33333589246</v>
+        <v>95916.02921680498</v>
       </c>
       <c r="ME2" t="n">
-        <v>1.042314494050114e-05</v>
+        <v>1.042578605646443e-05</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.003745331631146271</v>
+        <v>0.003745597581406647</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.695599162237474e-05</v>
+        <v>1.695502534912613e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02395924904444918</v>
+        <v>0.02395777224388198</v>
       </c>
       <c r="MI2" t="n">
-        <v>96001.1496924891</v>
+        <v>95976.83914749576</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.248954192572485</v>
+        <v>1.248726885872413</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.248954192572485</v>
+        <v>1.248726885872413</v>
       </c>
       <c r="ML2" t="n">
-        <v>317205.5340553443</v>
+        <v>317191.9089052082</v>
       </c>
       <c r="MM2" t="n">
-        <v>394070.7627910392</v>
+        <v>394051.661212409</v>
       </c>
       <c r="MN2" t="n">
-        <v>3788.594327646107</v>
+        <v>3788.595689578667</v>
       </c>
       <c r="MO2" t="n">
-        <v>716.7798217230345</v>
+        <v>716.7792273907132</v>
       </c>
       <c r="MP2" t="n">
-        <v>1005.505580238902</v>
+        <v>1005.50484479102</v>
       </c>
       <c r="MQ2" t="n">
-        <v>328.2666125065743</v>
+        <v>328.2549189540882</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.9993633826738303</v>
+        <v>0.9993632904338582</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.695599162237474e-05</v>
+        <v>1.695502534912613e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02395924904444918</v>
+        <v>0.02395777224388198</v>
       </c>
       <c r="MU2" t="inlineStr">
         <is>
@@ -9781,139 +9781,139 @@
         <v>1</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8512804100988077</v>
+        <v>0.8517307000457042</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.4365897981953092</v>
+        <v>0.4369639471893605</v>
       </c>
       <c r="MY2" t="n">
-        <v>253410.1713182564</v>
+        <v>253551.7044122183</v>
       </c>
       <c r="MZ2" t="n">
-        <v>2.736342184809447</v>
+        <v>2.73667645275507</v>
       </c>
       <c r="NA2" t="n">
-        <v>380408.1888260194</v>
+        <v>380389.0872473892</v>
       </c>
       <c r="NB2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC2" t="n">
-        <v>165.243094756594</v>
+        <v>165.3254454134171</v>
       </c>
       <c r="ND2" t="n">
-        <v>139.6735938104315</v>
+        <v>139.7189508674012</v>
       </c>
       <c r="NE2" t="n">
-        <v>-88.29817414202458</v>
+        <v>-88.38052766111701</v>
       </c>
       <c r="NF2" t="n">
-        <v>-32.30005670702518</v>
+        <v>-32.31578152925739</v>
       </c>
       <c r="NG2" t="n">
-        <v>289.5209314965751</v>
+        <v>289.614949392339</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.6735938104315</v>
+        <v>139.7189508674012</v>
       </c>
       <c r="NI2" t="n">
-        <v>-253.6013741420246</v>
+        <v>-253.683727661117</v>
       </c>
       <c r="NJ2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NK2" t="n">
-        <v>226.0874526443822</v>
+        <v>226.0412418734889</v>
       </c>
       <c r="NL2" t="n">
-        <v>50447.70547913235</v>
+        <v>50427.16557665585</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.777915565702467</v>
+        <v>0.7777580526651232</v>
       </c>
       <c r="NN2" t="n">
-        <v>287309.7308211206</v>
+        <v>287276.6802755039</v>
       </c>
       <c r="NO2" t="n">
-        <v>352159.5779039174</v>
+        <v>352113.2517566456</v>
       </c>
       <c r="NP2" t="n">
-        <v>3803.083408632137</v>
+        <v>3802.995293430755</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-507669.8621478364</v>
+        <v>-507520.5272094756</v>
       </c>
       <c r="NR2" t="n">
-        <v>715.8671532770331</v>
+        <v>715.8666239481403</v>
       </c>
       <c r="NS2" t="n">
-        <v>1004.238516639309</v>
+        <v>1004.238100826776</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.402828041546809</v>
+        <v>1.402828497979431</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.9992548518752294</v>
+        <v>0.9992545324723949</v>
       </c>
       <c r="NV2" t="n">
-        <v>301.5053599748572</v>
+        <v>301.4744981011129</v>
       </c>
       <c r="NW2" t="n">
-        <v>70716.7895282736</v>
+        <v>70687.99736143842</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.41409134474379e-05</v>
+        <v>1.414667323063134e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>50410.16249596688</v>
+        <v>50389.62172728465</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.983726991715224e-05</v>
+        <v>1.984535635953239e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.004436546289230329</v>
+        <v>0.004437455568934413</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.476448175403602e-05</v>
+        <v>1.476198422915007e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.0206330234694646</v>
+        <v>0.02062926289701002</v>
       </c>
       <c r="OD2" t="n">
-        <v>50447.70547913235</v>
+        <v>50427.16557665585</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.777915565702467</v>
+        <v>0.7777580526651232</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.777915565702467</v>
+        <v>0.7777580526651232</v>
       </c>
       <c r="OG2" t="n">
-        <v>287309.7308211206</v>
+        <v>287276.6802755039</v>
       </c>
       <c r="OH2" t="n">
-        <v>352159.5779039174</v>
+        <v>352113.2517566456</v>
       </c>
       <c r="OI2" t="n">
-        <v>3803.083408632137</v>
+        <v>3802.995293430755</v>
       </c>
       <c r="OJ2" t="n">
-        <v>715.8671532770331</v>
+        <v>715.8666239481403</v>
       </c>
       <c r="OK2" t="n">
-        <v>1004.238516639309</v>
+        <v>1004.238100826776</v>
       </c>
       <c r="OL2" t="n">
-        <v>301.5053599748572</v>
+        <v>301.4744981011129</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9992548518752294</v>
+        <v>0.9992545324723949</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.476448175403602e-05</v>
+        <v>1.476198422915007e-05</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.0206330234694646</v>
+        <v>0.02062926289701002</v>
       </c>
       <c r="OP2" t="inlineStr">
         <is>
@@ -9924,97 +9924,97 @@
         <v>1</v>
       </c>
       <c r="OR2" t="n">
-        <v>239.7227559962714</v>
+        <v>239.690152372907</v>
       </c>
       <c r="OS2" t="n">
-        <v>61889.88215402122</v>
+        <v>61879.44802856811</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.900043756000842</v>
+        <v>0.9000147025680794</v>
       </c>
       <c r="OU2" t="n">
-        <v>297049.025473077</v>
+        <v>297025.6841286822</v>
       </c>
       <c r="OV2" t="n">
-        <v>365812.2180860851</v>
+        <v>365779.5032074183</v>
       </c>
       <c r="OW2" t="n">
-        <v>3803.08340862628</v>
+        <v>3802.995293424889</v>
       </c>
       <c r="OX2" t="n">
-        <v>-545873.4179135007</v>
+        <v>-545761.0181470412</v>
       </c>
       <c r="OY2" t="n">
-        <v>716.0798178116062</v>
+        <v>716.079312272763</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1004.538266846579</v>
+        <v>1004.537983531035</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.40283002238008</v>
+        <v>1.402830617104038</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.9992876966397345</v>
+        <v>0.9992873862021583</v>
       </c>
       <c r="PC2" t="n">
-        <v>310.4746351193269</v>
+        <v>310.453490563747</v>
       </c>
       <c r="PD2" t="n">
-        <v>86759.26698501295</v>
+        <v>86744.64987654424</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.152614625216627e-05</v>
+        <v>1.152808849218031e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>61845.88695771905</v>
+        <v>61835.44101398166</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.616922400488249e-05</v>
+        <v>1.617195549351527e-05</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.004184691063967613</v>
+        <v>0.004185263195747383</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.549400909655536e-05</v>
+        <v>1.549228679351388e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.02173488983394534</v>
+        <v>0.02173228538770838</v>
       </c>
       <c r="PK2" t="n">
-        <v>61889.88215402122</v>
+        <v>61879.44802856811</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.900043756000842</v>
+        <v>0.9000147025680794</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.900043756000842</v>
+        <v>0.9000147025680794</v>
       </c>
       <c r="PN2" t="n">
-        <v>297049.025473077</v>
+        <v>297025.6841286822</v>
       </c>
       <c r="PO2" t="n">
-        <v>365812.2180860851</v>
+        <v>365779.5032074183</v>
       </c>
       <c r="PP2" t="n">
-        <v>3803.08340862628</v>
+        <v>3802.995293424889</v>
       </c>
       <c r="PQ2" t="n">
-        <v>716.0798178116062</v>
+        <v>716.079312272763</v>
       </c>
       <c r="PR2" t="n">
-        <v>1004.538266846579</v>
+        <v>1004.537983531035</v>
       </c>
       <c r="PS2" t="n">
-        <v>310.4746351193269</v>
+        <v>310.453490563747</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.9992876966397345</v>
+        <v>0.9992873862021583</v>
       </c>
       <c r="PU2" t="n">
-        <v>1.549400909655536e-05</v>
+        <v>1.549228679351388e-05</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02173488983394534</v>
+        <v>0.02173228538770838</v>
       </c>
       <c r="PW2" t="inlineStr">
         <is>
@@ -10025,97 +10025,97 @@
         <v>1</v>
       </c>
       <c r="PY2" t="n">
-        <v>267.9344593792654</v>
+        <v>267.9154756817555</v>
       </c>
       <c r="PZ2" t="n">
-        <v>91272.80155602258</v>
+        <v>91278.15341580399</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.187461826132094</v>
+        <v>1.187615925338077</v>
       </c>
       <c r="QB2" t="n">
-        <v>317206.9853228455</v>
+        <v>317193.3508206782</v>
       </c>
       <c r="QC2" t="n">
-        <v>394070.7627912332</v>
+        <v>394051.6612124152</v>
       </c>
       <c r="QD2" t="n">
-        <v>3803.083408621453</v>
+        <v>3802.995293427085</v>
       </c>
       <c r="QE2" t="n">
-        <v>-624906.3342720099</v>
+        <v>-624829.6318415798</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.7641341350278</v>
+        <v>716.7636353486997</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.407378974506</v>
+        <v>1005.40724282739</v>
       </c>
       <c r="QH2" t="n">
-        <v>1.402703247962881</v>
+        <v>1.40270403413849</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9993944231023231</v>
+        <v>0.9993941484410399</v>
       </c>
       <c r="QJ2" t="n">
-        <v>328.2561241985322</v>
+        <v>328.2444970627518</v>
       </c>
       <c r="QK2" t="n">
-        <v>127951.4853364017</v>
+        <v>127959.0245109999</v>
       </c>
       <c r="QL2" t="n">
-        <v>7.815462222817227e-06</v>
+        <v>7.815001746235064e-06</v>
       </c>
       <c r="QM2" t="n">
-        <v>91217.78645784355</v>
+        <v>91223.11007652417</v>
       </c>
       <c r="QN2" t="n">
-        <v>1.096277424427693e-05</v>
+        <v>1.096213447624326e-05</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.003744867677648188</v>
+        <v>0.003745136408629022</v>
       </c>
       <c r="QP2" t="n">
-        <v>1.695459610810949e-05</v>
+        <v>1.695363844878686e-05</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.0239565369679616</v>
+        <v>0.02395507688527749</v>
       </c>
       <c r="QR2" t="n">
-        <v>91272.80155602258</v>
+        <v>91278.15341580399</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.187461826132094</v>
+        <v>1.187615925338077</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.187461826132094</v>
+        <v>1.187615925338077</v>
       </c>
       <c r="QU2" t="n">
-        <v>317206.9853228455</v>
+        <v>317193.3508206782</v>
       </c>
       <c r="QV2" t="n">
-        <v>394070.7627912332</v>
+        <v>394051.6612124152</v>
       </c>
       <c r="QW2" t="n">
-        <v>3803.083408621453</v>
+        <v>3802.995293427085</v>
       </c>
       <c r="QX2" t="n">
-        <v>716.7641341350278</v>
+        <v>716.7636353486997</v>
       </c>
       <c r="QY2" t="n">
-        <v>1005.407378974506</v>
+        <v>1005.40724282739</v>
       </c>
       <c r="QZ2" t="n">
-        <v>328.2561241985322</v>
+        <v>328.2444970627518</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.9993944231023231</v>
+        <v>0.9993941484410399</v>
       </c>
       <c r="RB2" t="n">
-        <v>1.695459610810949e-05</v>
+        <v>1.695363844878686e-05</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.0239565369679616</v>
+        <v>0.02395507688527749</v>
       </c>
       <c r="RD2" t="inlineStr">
         <is>
@@ -10126,52 +10126,52 @@
         <v>1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.02486058092747634</v>
+        <v>0.02488335857501863</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.003173858113865497</v>
+        <v>0.002325635931657358</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.01184586510502752</v>
+        <v>0.01184468697750873</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.03243939643414429</v>
+        <v>0.0324497022411256</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.04348345569075418</v>
+        <v>0.04350033940979101</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.1158031562712678</v>
+        <v>0.1150037231351013</v>
       </c>
       <c r="RL2" t="n">
-        <v>1.648876836819746e-05</v>
+        <v>1.64019652022368e-05</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.548060222778042</v>
+        <v>0.548389487186302</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.9602513584525281</v>
+        <v>0.9606615193541304</v>
       </c>
       <c r="RO2" t="n">
-        <v>397528.8322024906</v>
+        <v>397644.6706647195</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.736322951232305</v>
+        <v>2.736657301021208</v>
       </c>
       <c r="RQ2" t="n">
-        <v>380408.1888260194</v>
+        <v>380389.0872473892</v>
       </c>
       <c r="RR2" t="n">
         <v>0</v>
       </c>
       <c r="RS2" t="n">
-        <v>348907.2966081577</v>
+        <v>348881.5719106004</v>
       </c>
       <c r="RT2" t="n">
-        <v>2669.791786526912</v>
+        <v>2662.89086662</v>
       </c>
       <c r="RU2" t="n">
-        <v>6.301354480028131</v>
+        <v>6.309486047819391</v>
       </c>
     </row>
     <row r="3">
@@ -10179,34 +10179,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01611910595799756</v>
+        <v>0.01611916351056109</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.796499141259088e-07</v>
+        <v>-1.796755868337499e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379690142699808</v>
+        <v>0.01379690269575829</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02510994707371548</v>
+        <v>0.02510991675684497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05502577480879699</v>
+        <v>0.05502580328757752</v>
       </c>
       <c r="H3" t="n">
-        <v>1.894456813644751e-12</v>
+        <v>4.749832471784288e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172360213</v>
+        <v>81.7575817237386</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172360213</v>
+        <v>81.7575817237386</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172360213</v>
+        <v>81.7575817237386</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172360213</v>
+        <v>81.7575817237386</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10227,97 +10227,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180727166</v>
+        <v>292.2676180726056</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394378503</v>
+        <v>132637.8394376745</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096103469</v>
+        <v>1.581790096101974</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834752465</v>
+        <v>334589.2834751672</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800040439</v>
+        <v>418442.2800039327</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625810517</v>
+        <v>-687181.9625807427</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713704115</v>
+        <v>717.7090713704064</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103404</v>
+        <v>1006.643209103398</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574209</v>
+        <v>1.402578355574211</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994973723756408</v>
+        <v>0.9994973723756401</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.858412122318</v>
+        <v>342.8584121222528</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165872092</v>
+        <v>185942.4165869628</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054383717e-06</v>
+        <v>5.378009054390844e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565727369</v>
+        <v>132571.856572561</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.54307909576072e-06</v>
+        <v>7.543079095770727e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038597416</v>
+        <v>0.00343445503859872</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856047746e-05</v>
+        <v>1.816725856047203e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0258179119012901</v>
+        <v>0.02581791190128173</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394378503</v>
+        <v>132637.8394376745</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096103469</v>
+        <v>1.581790096101974</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096103469</v>
+        <v>1.581790096101974</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834752465</v>
+        <v>334589.2834751672</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800040439</v>
+        <v>418442.2800039327</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713704115</v>
+        <v>717.7090713704064</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103404</v>
+        <v>1006.643209103398</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.858412122318</v>
+        <v>342.8584121222528</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994973723756408</v>
+        <v>0.9994973723756401</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856047746e-05</v>
+        <v>1.816725856047203e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0258179119012901</v>
+        <v>0.02581791190128173</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10530,16 +10530,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587305806991</v>
+        <v>0.2384587305811425</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587305806991</v>
+        <v>0.2384587305811425</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323181017</v>
+        <v>186219.5323182922</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934691854</v>
+        <v>2.776369934693865</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885895</v>
@@ -10548,121 +10548,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780738558069</v>
+        <v>309.3780778995065</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136401065546</v>
+        <v>126.4136417588333</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727752063566</v>
+        <v>282.3727788970857</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780738558069</v>
+        <v>309.3780778995065</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136401065546</v>
+        <v>126.4136417588333</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727752063566</v>
+        <v>282.3727788970857</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365058576308</v>
+        <v>247.8365046084818</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23882640711</v>
+        <v>72726.23750932224</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.023014680526674</v>
+        <v>1.023014667160056</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9124256981</v>
+        <v>302836.9115334639</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0347971247</v>
+        <v>373927.033546293</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.093061225994</v>
+        <v>3790.093061373764</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.386372377</v>
+        <v>-565396.3829254404</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430757505</v>
+        <v>716.252943048792</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581229804</v>
+        <v>1004.831581193553</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457085498</v>
+        <v>1.402900457087689</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812859034226</v>
+        <v>0.9992812858993754</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911161356724</v>
+        <v>315.691115339055</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5441397664</v>
+        <v>101954.5422930916</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.808292591933231e-06</v>
+        <v>9.808292769588151e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.11142738894</v>
+        <v>72674.11011094917</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005816045143e-05</v>
+        <v>1.376005840970509e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004048559430104483</v>
+        <v>0.00404855945046143</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113121496827e-05</v>
+        <v>1.592113114969324e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02238288380825783</v>
+        <v>0.02238288370915544</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23882640711</v>
+        <v>72726.23750932224</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.023014680526674</v>
+        <v>1.023014667160056</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.023014680526674</v>
+        <v>1.023014667160056</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9124256981</v>
+        <v>302836.9115334639</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0347971247</v>
+        <v>373927.033546293</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.093061225994</v>
+        <v>3790.093061373764</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430757505</v>
+        <v>716.252943048792</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581229804</v>
+        <v>1004.831581193553</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911161356724</v>
+        <v>315.691115339055</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812859034226</v>
+        <v>0.9992812858993754</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113121496827e-05</v>
+        <v>1.592113114969324e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02238288380825783</v>
+        <v>0.02238288370915544</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10673,97 +10673,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968649483</v>
+        <v>295.5920968649878</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.4166029839</v>
+        <v>134591.4165339841</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979527780963</v>
+        <v>1.586979526966791</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309323522</v>
+        <v>336974.6309325215</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061235642</v>
+        <v>3790.093061383413</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1241954452</v>
+        <v>-698537.1242390739</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8543580609315</v>
+        <v>717.8543580607604</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.765618721454</v>
+        <v>1006.765618720327</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402465008976096</v>
+        <v>1.40246500897486</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995326648232521</v>
+        <v>0.9995326648234895</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163636064</v>
+        <v>344.8011163635585</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.5203276661</v>
+        <v>188672.5202308186</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188910729064e-06</v>
+        <v>5.300188913449706e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.2175705767</v>
+        <v>134529.2175016401</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329488260644e-06</v>
+        <v>7.433329492069698e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843604973</v>
+        <v>0.003395573843598104</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665247766e-05</v>
+        <v>1.832907665246962e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606695184420614</v>
+        <v>0.02606695184418698</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.4166029839</v>
+        <v>134591.4165339841</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979527780963</v>
+        <v>1.586979526966791</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979527780963</v>
+        <v>1.586979526966791</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309323522</v>
+        <v>336974.6309325215</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061235642</v>
+        <v>3790.093061383413</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8543580609315</v>
+        <v>717.8543580607604</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.765618721454</v>
+        <v>1006.765618720327</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163636064</v>
+        <v>344.8011163635585</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995326648232521</v>
+        <v>0.9995326648234895</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665247766e-05</v>
+        <v>1.832907665246962e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606695184420614</v>
+        <v>0.02606695184418698</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10774,97 +10774,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968649483</v>
+        <v>295.5920968649878</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.4166029839</v>
+        <v>134591.4165339841</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979527780963</v>
+        <v>1.586979526966791</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309323522</v>
+        <v>336974.6309325215</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061235642</v>
+        <v>3790.093061383413</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1241954452</v>
+        <v>-698537.1242390739</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8543580609315</v>
+        <v>717.8543580607604</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.765618721454</v>
+        <v>1006.765618720327</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402465008976096</v>
+        <v>1.40246500897486</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995326648232521</v>
+        <v>0.9995326648234895</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163636064</v>
+        <v>344.8011163635585</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.5203276661</v>
+        <v>188672.5202308186</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188910729064e-06</v>
+        <v>5.300188913449706e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.2175705767</v>
+        <v>134529.2175016401</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329488260644e-06</v>
+        <v>7.433329492069698e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843604973</v>
+        <v>0.003395573843598104</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665247766e-05</v>
+        <v>1.832907665246962e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606695184420614</v>
+        <v>0.02606695184418698</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.4166029839</v>
+        <v>134591.4165339841</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979527780963</v>
+        <v>1.586979526966791</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979527780963</v>
+        <v>1.586979526966791</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309323522</v>
+        <v>336974.6309325215</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061235642</v>
+        <v>3790.093061383413</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8543580609315</v>
+        <v>717.8543580607604</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.765618721454</v>
+        <v>1006.765618720327</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163636064</v>
+        <v>344.8011163635585</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995326648232521</v>
+        <v>0.9995326648234895</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665247766e-05</v>
+        <v>1.832907665246962e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606695184420614</v>
+        <v>0.02606695184418698</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10875,37 +10875,37 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01619337325633891</v>
+        <v>0.01619337326783861</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.972005756956119e-07</v>
+        <v>-1.972005777216314e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827867999</v>
+        <v>0.01379727827868001</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007319015</v>
+        <v>0.02510093007318966</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.05509138440763334</v>
+        <v>0.05509138441913056</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.578251475193974e-06</v>
+        <v>5.578238491260601e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9800024709052871</v>
+        <v>0.9800024861872713</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9800024709052871</v>
+        <v>0.9800024861872713</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1627477824</v>
+        <v>520038.1648822284</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991714415</v>
+        <v>2.776362991726919</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885895</v>
@@ -10914,154 +10914,154 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>372154.9659328573</v>
+        <v>372154.9646545948</v>
       </c>
       <c r="IJ3" t="n">
-        <v>1491.123352549272</v>
+        <v>1491.613417159475</v>
       </c>
       <c r="IK3" t="n">
         <v>0</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.02457066442412331</v>
+        <v>0.02458323031259307</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.002422640686443094</v>
+        <v>0.001924381087451746</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.01187960968151115</v>
+        <v>0.01187900206312244</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.03214502246151039</v>
+        <v>0.03215031860738821</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.04299769189748532</v>
+        <v>0.04300647165445761</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.1140156291510733</v>
+        <v>0.1135434037250131</v>
       </c>
       <c r="IR3" t="n">
-        <v>-3.553488059360177e-11</v>
+        <v>-5.501141209229843e-12</v>
       </c>
       <c r="IS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT3" t="n">
-        <v>274.2435361010528</v>
+        <v>274.3701406322635</v>
       </c>
       <c r="IU3" t="n">
-        <v>112.0574682043735</v>
+        <v>112.1091995357018</v>
       </c>
       <c r="IV3" t="n">
-        <v>250.3050956589483</v>
+        <v>250.4206490088872</v>
       </c>
       <c r="IW3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IX3" t="n">
-        <v>140.64920350286</v>
+        <v>140.7602669303959</v>
       </c>
       <c r="IY3" t="n">
-        <v>112.0574682043735</v>
+        <v>112.1091995357018</v>
       </c>
       <c r="IZ3" t="n">
-        <v>85.00189565894834</v>
+        <v>85.11744900888718</v>
       </c>
       <c r="JA3" t="n">
-        <v>37.1823638356793</v>
+        <v>37.20711184114559</v>
       </c>
       <c r="JB3" t="n">
-        <v>258.0744584733591</v>
+        <v>258.0397857887277</v>
       </c>
       <c r="JC3" t="n">
-        <v>84176.20446586471</v>
+        <v>84136.05041346262</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.137062779665431</v>
+        <v>1.136673249830226</v>
       </c>
       <c r="JE3" t="n">
-        <v>310150.1589821403</v>
+        <v>310125.3870469019</v>
       </c>
       <c r="JF3" t="n">
-        <v>384179.6725421855</v>
+        <v>384144.9440533056</v>
       </c>
       <c r="JG3" t="n">
-        <v>3788.689924008506</v>
+        <v>3788.69221575152</v>
       </c>
       <c r="JH3" t="n">
-        <v>-593584.4279197817</v>
+        <v>-593488.3837186368</v>
       </c>
       <c r="JI3" t="n">
-        <v>716.4975715567462</v>
+        <v>716.4966634831633</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1005.154144229342</v>
+        <v>1005.152983481906</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.402871669258316</v>
+        <v>1.402871827198014</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.9993178407371112</v>
+        <v>0.9993176979107161</v>
       </c>
       <c r="JM3" t="n">
-        <v>322.1541924793427</v>
+        <v>322.1325225740582</v>
       </c>
       <c r="JN3" t="n">
-        <v>118008.154565645</v>
+        <v>117951.8580509325</v>
       </c>
       <c r="JO3" t="n">
-        <v>8.473990663447965e-06</v>
+        <v>8.478035162177712e-06</v>
       </c>
       <c r="JP3" t="n">
-        <v>84118.99473886637</v>
+        <v>84078.85579006908</v>
       </c>
       <c r="JQ3" t="n">
-        <v>1.188792142731063e-05</v>
+        <v>1.189359667901326e-05</v>
       </c>
       <c r="JR3" t="n">
-        <v>0.003888332522571771</v>
+        <v>0.003888853853679694</v>
       </c>
       <c r="JS3" t="n">
-        <v>1.645192271585461e-05</v>
+        <v>1.645013920988211e-05</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.02319013352615738</v>
+        <v>0.02318741656778099</v>
       </c>
       <c r="JU3" t="n">
-        <v>84176.20446586471</v>
+        <v>84136.05041346262</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.137062779665431</v>
+        <v>1.136673249830226</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.137062779665431</v>
+        <v>1.136673249830226</v>
       </c>
       <c r="JX3" t="n">
-        <v>310150.1589821403</v>
+        <v>310125.3870469019</v>
       </c>
       <c r="JY3" t="n">
-        <v>384179.6725421855</v>
+        <v>384144.9440533056</v>
       </c>
       <c r="JZ3" t="n">
-        <v>3788.689924008506</v>
+        <v>3788.69221575152</v>
       </c>
       <c r="KA3" t="n">
-        <v>716.4975715567462</v>
+        <v>716.4966634831633</v>
       </c>
       <c r="KB3" t="n">
-        <v>1005.154144229342</v>
+        <v>1005.152983481906</v>
       </c>
       <c r="KC3" t="n">
-        <v>322.1541924793427</v>
+        <v>322.1325225740582</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.9993178407371112</v>
+        <v>0.9993176979107161</v>
       </c>
       <c r="KE3" t="n">
-        <v>1.645192271585461e-05</v>
+        <v>1.645013920988211e-05</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.02319013352615738</v>
+        <v>0.02318741656778099</v>
       </c>
       <c r="KG3" t="inlineStr">
         <is>
@@ -11072,97 +11072,97 @@
         <v>1</v>
       </c>
       <c r="KI3" t="n">
-        <v>295.5936268385331</v>
+        <v>295.5936243335636</v>
       </c>
       <c r="KJ3" t="n">
-        <v>135251.2391523122</v>
+        <v>135250.1588305036</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.594754884334719</v>
+        <v>1.594742153847557</v>
       </c>
       <c r="KL3" t="n">
-        <v>336974.3825472338</v>
+        <v>336974.382953929</v>
       </c>
       <c r="KM3" t="n">
-        <v>421784.4310887906</v>
+        <v>421784.4310887902</v>
       </c>
       <c r="KN3" t="n">
-        <v>3788.689924013077</v>
+        <v>3788.692215755854</v>
       </c>
       <c r="KO3" t="n">
-        <v>-698128.1645168412</v>
+        <v>-698128.8324508421</v>
       </c>
       <c r="KP3" t="n">
-        <v>717.8560767285055</v>
+        <v>717.8560739145842</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1006.776452400098</v>
+        <v>1006.776434662359</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402476742954232</v>
+        <v>1.40247672374247</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9995304186575473</v>
+        <v>0.9995304223348193</v>
       </c>
       <c r="KT3" t="n">
-        <v>344.8026850521965</v>
+        <v>344.8026824836952</v>
       </c>
       <c r="KU3" t="n">
-        <v>189598.640602867</v>
+        <v>189597.1242646678</v>
       </c>
       <c r="KV3" t="n">
-        <v>5.274299419132432e-06</v>
+        <v>5.274341601321186e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>135188.4382791895</v>
+        <v>135187.358945062</v>
       </c>
       <c r="KX3" t="n">
-        <v>7.397082270710253e-06</v>
+        <v>7.39714132891955e-06</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003395617376238232</v>
+        <v>0.003395617304965171</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.83292460402057e-05</v>
+        <v>1.832924576286512e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02606727748021427</v>
+        <v>0.02606727694704207</v>
       </c>
       <c r="LB3" t="n">
-        <v>135251.2391523122</v>
+        <v>135250.1588305036</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.594754884334719</v>
+        <v>1.594742153847557</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.594754884334719</v>
+        <v>1.594742153847557</v>
       </c>
       <c r="LE3" t="n">
-        <v>336974.3825472338</v>
+        <v>336974.382953929</v>
       </c>
       <c r="LF3" t="n">
-        <v>421784.4310887906</v>
+        <v>421784.4310887902</v>
       </c>
       <c r="LG3" t="n">
-        <v>3788.689924013077</v>
+        <v>3788.692215755854</v>
       </c>
       <c r="LH3" t="n">
-        <v>717.8560767285055</v>
+        <v>717.8560739145842</v>
       </c>
       <c r="LI3" t="n">
-        <v>1006.776452400098</v>
+        <v>1006.776434662359</v>
       </c>
       <c r="LJ3" t="n">
-        <v>344.8026850521965</v>
+        <v>344.8026824836952</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9995304186575473</v>
+        <v>0.9995304223348193</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.83292460402057e-05</v>
+        <v>1.832924576286512e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02606727748021427</v>
+        <v>0.02606727694704207</v>
       </c>
       <c r="LN3" t="inlineStr">
         <is>
@@ -11173,97 +11173,97 @@
         <v>1</v>
       </c>
       <c r="LP3" t="n">
-        <v>267.9477589606495</v>
+        <v>267.9286925397176</v>
       </c>
       <c r="LQ3" t="n">
-        <v>95969.17446792246</v>
+        <v>95944.56133511077</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.24853831956487</v>
+        <v>1.248307046693893</v>
       </c>
       <c r="LS3" t="n">
-        <v>317205.5502785311</v>
+        <v>317191.9253908033</v>
       </c>
       <c r="LT3" t="n">
-        <v>394070.7717651802</v>
+        <v>394051.6704264637</v>
       </c>
       <c r="LU3" t="n">
-        <v>3788.689924014549</v>
+        <v>3788.692215757327</v>
       </c>
       <c r="LV3" t="n">
-        <v>-621100.2027713114</v>
+        <v>-621047.681376803</v>
       </c>
       <c r="LW3" t="n">
-        <v>716.7797158912911</v>
+        <v>716.7791205417627</v>
       </c>
       <c r="LX3" t="n">
-        <v>1005.504916302389</v>
+        <v>1005.504174458055</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.402808832351063</v>
+        <v>1.402808962540742</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0.9993635925923696</v>
+        <v>0.9993635024261458</v>
       </c>
       <c r="MA3" t="n">
-        <v>328.2665470203275</v>
+        <v>328.2548529472207</v>
       </c>
       <c r="MB3" t="n">
-        <v>134541.1482521232</v>
+        <v>134506.6427718948</v>
       </c>
       <c r="MC3" t="n">
-        <v>7.432670324219708e-06</v>
+        <v>7.434577054278769e-06</v>
       </c>
       <c r="MD3" t="n">
-        <v>95908.39831442782</v>
+        <v>95883.79199422758</v>
       </c>
       <c r="ME3" t="n">
-        <v>1.042661557876905e-05</v>
+        <v>1.042929132444201e-05</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.003745328368394289</v>
+        <v>0.003745594284686627</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.695598263486973e-05</v>
+        <v>1.69550162834069e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02395923138857776</v>
+        <v>0.02395775443080153</v>
       </c>
       <c r="MI3" t="n">
-        <v>95969.17446792246</v>
+        <v>95944.56133511077</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.24853831956487</v>
+        <v>1.248307046693893</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.24853831956487</v>
+        <v>1.248307046693893</v>
       </c>
       <c r="ML3" t="n">
-        <v>317205.5502785311</v>
+        <v>317191.9253908033</v>
       </c>
       <c r="MM3" t="n">
-        <v>394070.7717651802</v>
+        <v>394051.6704264637</v>
       </c>
       <c r="MN3" t="n">
-        <v>3788.689924014549</v>
+        <v>3788.692215757327</v>
       </c>
       <c r="MO3" t="n">
-        <v>716.7797158912911</v>
+        <v>716.7791205417627</v>
       </c>
       <c r="MP3" t="n">
-        <v>1005.504916302389</v>
+        <v>1005.504174458055</v>
       </c>
       <c r="MQ3" t="n">
-        <v>328.2665470203275</v>
+        <v>328.2548529472207</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.9993635925923696</v>
+        <v>0.9993635024261458</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.695598263486973e-05</v>
+        <v>1.69550162834069e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02395923138857776</v>
+        <v>0.02395775443080153</v>
       </c>
       <c r="MU3" t="inlineStr">
         <is>
@@ -11274,139 +11274,139 @@
         <v>1</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8512803573668778</v>
+        <v>0.8517306431522632</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.436589703894289</v>
+        <v>0.4369638489328104</v>
       </c>
       <c r="MY3" t="n">
-        <v>253325.8283575052</v>
+        <v>253466.492540444</v>
       </c>
       <c r="MZ3" t="n">
-        <v>2.735430551778848</v>
+        <v>2.735755839259687</v>
       </c>
       <c r="NA3" t="n">
-        <v>380408.19779996</v>
+        <v>380389.096461444</v>
       </c>
       <c r="NB3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC3" t="n">
-        <v>165.2430976198578</v>
+        <v>165.3254083026048</v>
       </c>
       <c r="ND3" t="n">
-        <v>139.6735953875778</v>
+        <v>139.718930429069</v>
       </c>
       <c r="NE3" t="n">
-        <v>-88.29817700560443</v>
+        <v>-88.38049055181801</v>
       </c>
       <c r="NF3" t="n">
-        <v>-32.30005725407798</v>
+        <v>-32.31577444702712</v>
       </c>
       <c r="NG3" t="n">
-        <v>289.5209347657463</v>
+        <v>289.6149070269581</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.6735953875778</v>
+        <v>139.718930429069</v>
       </c>
       <c r="NI3" t="n">
-        <v>-253.6013770056044</v>
+        <v>-253.683690551818</v>
       </c>
       <c r="NJ3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NK3" t="n">
-        <v>226.0873950647031</v>
+        <v>226.0411971004358</v>
       </c>
       <c r="NL3" t="n">
-        <v>50430.89582767719</v>
+        <v>50410.21024877217</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.7776563625704966</v>
+        <v>0.7774965036540583</v>
       </c>
       <c r="NN3" t="n">
-        <v>287309.7393216629</v>
+        <v>287276.6983980738</v>
       </c>
       <c r="NO3" t="n">
-        <v>352159.5859312642</v>
+        <v>352113.2732403472</v>
       </c>
       <c r="NP3" t="n">
-        <v>3803.179036282349</v>
+        <v>3803.091848432028</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-507691.2553465001</v>
+        <v>-507542.1608621377</v>
       </c>
       <c r="NR3" t="n">
-        <v>715.8670631572801</v>
+        <v>715.8665331113367</v>
       </c>
       <c r="NS3" t="n">
-        <v>1004.237985854301</v>
+        <v>1004.237565097973</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.402827476689851</v>
+        <v>1.402827927621232</v>
       </c>
       <c r="NU3" t="n">
-        <v>0.9992550990729603</v>
+        <v>0.9992547822009071</v>
       </c>
       <c r="NV3" t="n">
-        <v>301.5053353712951</v>
+        <v>301.4744822041001</v>
       </c>
       <c r="NW3" t="n">
-        <v>70693.21500512771</v>
+        <v>70664.21853731298</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.414562910920751e-05</v>
+        <v>1.415143364915255e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>50393.3777886482</v>
+        <v>50372.69157959944</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.984387718946008e-05</v>
+        <v>1.985202633891004e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.004436542933226693</v>
+        <v>0.004437451917318179</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.476447588352273e-05</v>
+        <v>1.476197902546981e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>0.02063301161972783</v>
+        <v>0.02062925202297508</v>
       </c>
       <c r="OD3" t="n">
-        <v>50430.89582767719</v>
+        <v>50410.21024877217</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.7776563625704966</v>
+        <v>0.7774965036540583</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.7776563625704966</v>
+        <v>0.7774965036540583</v>
       </c>
       <c r="OG3" t="n">
-        <v>287309.7393216629</v>
+        <v>287276.6983980738</v>
       </c>
       <c r="OH3" t="n">
-        <v>352159.5859312642</v>
+        <v>352113.2732403472</v>
       </c>
       <c r="OI3" t="n">
-        <v>3803.179036282349</v>
+        <v>3803.091848432028</v>
       </c>
       <c r="OJ3" t="n">
-        <v>715.8670631572801</v>
+        <v>715.8665331113367</v>
       </c>
       <c r="OK3" t="n">
-        <v>1004.237985854301</v>
+        <v>1004.237565097973</v>
       </c>
       <c r="OL3" t="n">
-        <v>301.5053353712951</v>
+        <v>301.4744822041001</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9992550990729603</v>
+        <v>0.9992547822009071</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.476447588352273e-05</v>
+        <v>1.476197902546981e-05</v>
       </c>
       <c r="OO3" t="n">
-        <v>0.02063301161972783</v>
+        <v>0.02062925202297508</v>
       </c>
       <c r="OP3" t="inlineStr">
         <is>
@@ -11417,97 +11417,97 @@
         <v>1</v>
       </c>
       <c r="OR3" t="n">
-        <v>239.7226922548741</v>
+        <v>239.6900947632988</v>
       </c>
       <c r="OS3" t="n">
-        <v>61869.26052923552</v>
+        <v>61858.6360505111</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.8997438893742491</v>
+        <v>0.899712001277973</v>
       </c>
       <c r="OU3" t="n">
-        <v>297049.036016766</v>
+        <v>297025.6995974194</v>
       </c>
       <c r="OV3" t="n">
-        <v>365812.2265867671</v>
+        <v>365779.518555759</v>
       </c>
       <c r="OW3" t="n">
-        <v>3803.1790362764</v>
+        <v>3803.091848426067</v>
       </c>
       <c r="OX3" t="n">
-        <v>-545896.0911167088</v>
+        <v>-545783.926987014</v>
       </c>
       <c r="OY3" t="n">
-        <v>716.079725021589</v>
+        <v>716.0792186839572</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1004.537704478924</v>
+        <v>1004.537415780055</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.40282941881735</v>
+        <v>1.402830007588042</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.9992879326571114</v>
+        <v>0.9992876246313968</v>
       </c>
       <c r="PC3" t="n">
-        <v>310.474600232727</v>
+        <v>310.4534597341965</v>
       </c>
       <c r="PD3" t="n">
-        <v>86730.3420007813</v>
+        <v>86715.45788902158</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.152999027711653e-05</v>
+        <v>1.153196932062332e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>61825.29453502545</v>
+        <v>61814.65852595778</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.617460955941709e-05</v>
+        <v>1.617739260955507e-05</v>
       </c>
       <c r="PH3" t="n">
-        <v>0.004184687784201803</v>
+        <v>0.004185259765277053</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.549400242308721e-05</v>
+        <v>1.549228041271707e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.02173487648657684</v>
+        <v>0.02173227245163884</v>
       </c>
       <c r="PK3" t="n">
-        <v>61869.26052923552</v>
+        <v>61858.6360505111</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.8997438893742491</v>
+        <v>0.899712001277973</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.8997438893742491</v>
+        <v>0.899712001277973</v>
       </c>
       <c r="PN3" t="n">
-        <v>297049.036016766</v>
+        <v>297025.6995974194</v>
       </c>
       <c r="PO3" t="n">
-        <v>365812.2265867671</v>
+        <v>365779.518555759</v>
       </c>
       <c r="PP3" t="n">
-        <v>3803.1790362764</v>
+        <v>3803.091848426067</v>
       </c>
       <c r="PQ3" t="n">
-        <v>716.079725021589</v>
+        <v>716.0792186839572</v>
       </c>
       <c r="PR3" t="n">
-        <v>1004.537704478924</v>
+        <v>1004.537415780055</v>
       </c>
       <c r="PS3" t="n">
-        <v>310.474600232727</v>
+        <v>310.4534597341965</v>
       </c>
       <c r="PT3" t="n">
-        <v>0.9992879326571114</v>
+        <v>0.9992876246313968</v>
       </c>
       <c r="PU3" t="n">
-        <v>1.549400242308721e-05</v>
+        <v>1.549228041271707e-05</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02173487648657684</v>
+        <v>0.02173227245163884</v>
       </c>
       <c r="PW3" t="inlineStr">
         <is>
@@ -11518,97 +11518,97 @@
         <v>1</v>
       </c>
       <c r="PY3" t="n">
-        <v>267.934382235826</v>
+        <v>267.9153979263759</v>
       </c>
       <c r="PZ3" t="n">
-        <v>91242.39220520634</v>
+        <v>91247.44759125057</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.187066303988968</v>
+        <v>1.187216517984292</v>
       </c>
       <c r="QB3" t="n">
-        <v>317207.0010568069</v>
+        <v>317193.3668156477</v>
       </c>
       <c r="QC3" t="n">
-        <v>394070.7717649798</v>
+        <v>394051.6704266643</v>
       </c>
       <c r="QD3" t="n">
-        <v>3803.179036264642</v>
+        <v>3803.091848428357</v>
       </c>
       <c r="QE3" t="n">
-        <v>-624931.6538488315</v>
+        <v>-624855.1954955756</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.7640334734821</v>
+        <v>716.7635336911393</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.406747495535</v>
+        <v>1005.406605084483</v>
       </c>
       <c r="QH3" t="n">
-        <v>1.402702563943217</v>
+        <v>1.402703343328461</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9993946229497582</v>
+        <v>0.9993943503186156</v>
       </c>
       <c r="QJ3" t="n">
-        <v>328.2560622399153</v>
+        <v>328.2444345974113</v>
       </c>
       <c r="QK3" t="n">
-        <v>127908.8187157722</v>
+        <v>127915.9419002564</v>
       </c>
       <c r="QL3" t="n">
-        <v>7.818069231192826e-06</v>
+        <v>7.817633870684851e-06</v>
       </c>
       <c r="QM3" t="n">
-        <v>91187.41349998004</v>
+        <v>91192.44101659158</v>
       </c>
       <c r="QN3" t="n">
-        <v>1.096642575567974e-05</v>
+        <v>1.096582116732745e-05</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.003744864567099579</v>
+        <v>0.003745133264743406</v>
       </c>
       <c r="QP3" t="n">
-        <v>1.695458758475627e-05</v>
+        <v>1.695362984910872e-05</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.02395652021593696</v>
+        <v>0.02395505997971667</v>
       </c>
       <c r="QR3" t="n">
-        <v>91242.39220520634</v>
+        <v>91247.44759125057</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.187066303988968</v>
+        <v>1.187216517984292</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.187066303988968</v>
+        <v>1.187216517984292</v>
       </c>
       <c r="QU3" t="n">
-        <v>317207.0010568069</v>
+        <v>317193.3668156477</v>
       </c>
       <c r="QV3" t="n">
-        <v>394070.7717649798</v>
+        <v>394051.6704266643</v>
       </c>
       <c r="QW3" t="n">
-        <v>3803.179036264642</v>
+        <v>3803.091848428357</v>
       </c>
       <c r="QX3" t="n">
-        <v>716.7640334734821</v>
+        <v>716.7635336911393</v>
       </c>
       <c r="QY3" t="n">
-        <v>1005.406747495535</v>
+        <v>1005.406605084483</v>
       </c>
       <c r="QZ3" t="n">
-        <v>328.2560622399153</v>
+        <v>328.2444345974113</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.9993946229497582</v>
+        <v>0.9993943503186156</v>
       </c>
       <c r="RB3" t="n">
-        <v>1.695458758475627e-05</v>
+        <v>1.695362984910872e-05</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02395652021593696</v>
+        <v>0.02395505997971667</v>
       </c>
       <c r="RD3" t="inlineStr">
         <is>
@@ -11619,52 +11619,52 @@
         <v>1</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.02486056262602655</v>
+        <v>0.02488334056279096</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.003173846085361811</v>
+        <v>0.002325629940644655</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.01184586017383859</v>
+        <v>0.01184468200838661</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.03243958782071379</v>
+        <v>0.03244989545782986</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.04348344775582464</v>
+        <v>0.04350033126876381</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.1158033044617654</v>
+        <v>0.1150038792384159</v>
       </c>
       <c r="RL3" t="n">
-        <v>1.656694235167844e-05</v>
+        <v>1.648083586391902e-05</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.5480602769976384</v>
+        <v>0.548389393005669</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.9602514476541838</v>
+        <v>0.9606614294833981</v>
       </c>
       <c r="RO3" t="n">
-        <v>397396.5372408195</v>
+        <v>397511.0303734394</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.73541123345395</v>
+        <v>2.735736601765193</v>
       </c>
       <c r="RQ3" t="n">
-        <v>380408.19779996</v>
+        <v>380389.096461444</v>
       </c>
       <c r="RR3" t="n">
         <v>0</v>
       </c>
       <c r="RS3" t="n">
-        <v>348907.2985052585</v>
+        <v>348881.5876246021</v>
       </c>
       <c r="RT3" t="n">
-        <v>2827.536647439527</v>
+        <v>2816.165894564183</v>
       </c>
       <c r="RU3" t="n">
-        <v>6.861653756002447</v>
+        <v>6.874829908317288</v>
       </c>
     </row>
   </sheetData>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4123066042771182</v>
+        <v>0.4121932378310488</v>
       </c>
     </row>
     <row r="3">
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.426841182694141</v>
+        <v>0.4266518983009544</v>
       </c>
     </row>
   </sheetData>
@@ -12811,13 +12811,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
-        <v>4.25615557989907e-08</v>
+        <v>5.220839127955265e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12835,20 +12835,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The solution converged.</t>
+          <t>The relative error between two consecutive iterates is at most 0.000000</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="H3" t="n">
-        <v>7.429977237018814e-08</v>
+        <v>9.38029770722816e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
